--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 主要针对装备的不同品质分为X个组，添加装备或者减少装备都要调整组
 （每个品质是一个组）</t>
         </r>
@@ -39,7 +38,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="327">
   <si>
     <t>ID</t>
   </si>
@@ -619,6 +617,12 @@
   </si>
   <si>
     <t>速度临时符</t>
+  </si>
+  <si>
+    <t>50级普通装备</t>
+  </si>
+  <si>
+    <t>60级普通装备</t>
   </si>
   <si>
     <t>五宝</t>
@@ -1037,12 +1041,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1128,13 +1132,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1149,7 +1146,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1172,6 +1191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1179,9 +1206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,15 +1230,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,7 +1254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,42 +1268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="49">
@@ -1375,19 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,13 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1438,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,109 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,41 +1569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1622,17 +1596,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,11 +1635,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,10 +1677,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1680,136 +1689,136 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2005,6 +2014,11 @@
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2331,31 +2345,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR292"/>
+  <dimension ref="A1:AR294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="18.7583333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.2583333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="12.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="12.5090909090909" customWidth="1"/>
+    <col min="7" max="7" width="12.2545454545455" customWidth="1"/>
+    <col min="8" max="8" width="11.7545454545455" customWidth="1"/>
     <col min="9" max="11" width="10" customWidth="1"/>
-    <col min="15" max="25" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="11.125" customWidth="1"/>
+    <col min="15" max="25" width="11.1272727272727" customWidth="1"/>
+    <col min="31" max="31" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -3313,7 +3326,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:35">
+    <row r="12" customFormat="1" spans="1:30">
       <c r="A12">
         <v>110</v>
       </c>
@@ -3357,26 +3370,47 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
+      <c r="R12" s="8">
+        <v>1297</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1298</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1299</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1300</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1301</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1302</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1303</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>1304</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1305</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>1306</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>1307</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>1308</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:21">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -3416,8 +3450,17 @@
       <c r="M13" s="1">
         <v>2111</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
+      <c r="S13" s="1">
+        <v>2213</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2214</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:21">
       <c r="A14" s="1">
         <v>201</v>
       </c>
@@ -3457,8 +3500,17 @@
       <c r="M14" s="1">
         <v>2119</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
+      <c r="S14" s="1">
+        <v>2221</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2222</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:21">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -3498,8 +3550,17 @@
       <c r="M15" s="1">
         <v>2127</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
+      <c r="S15" s="1">
+        <v>2229</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2230</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:21">
       <c r="A16" s="1">
         <v>203</v>
       </c>
@@ -3539,8 +3600,17 @@
       <c r="M16" s="1">
         <v>2135</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="S16" s="1">
+        <v>2237</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2238</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:21">
       <c r="A17" s="1">
         <v>204</v>
       </c>
@@ -3580,8 +3650,17 @@
       <c r="M17" s="1">
         <v>2143</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="S17" s="1">
+        <v>2245</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2246</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:13">
       <c r="A18" s="1">
         <v>205</v>
       </c>
@@ -3786,7 +3865,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:13">
       <c r="A23" s="1">
         <v>210</v>
       </c>
@@ -5998,7 +6077,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:18">
+    <row r="127" ht="15" spans="1:18">
       <c r="A127">
         <v>504</v>
       </c>
@@ -6030,7 +6109,7 @@
       <c r="Q127" s="26"/>
       <c r="R127" s="26"/>
     </row>
-    <row r="128" ht="14.25" spans="1:18">
+    <row r="128" ht="15" spans="1:18">
       <c r="A128" s="23">
         <v>600</v>
       </c>
@@ -6521,73 +6600,265 @@
         <v>9008</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:41">
       <c r="A147">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C147">
-        <v>1182</v>
+      <c r="C147" s="33">
+        <v>1499</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>10006</v>
+        <v>3000</v>
       </c>
       <c r="G147">
-        <v>10007</v>
+        <v>3001</v>
       </c>
       <c r="H147">
-        <v>10008</v>
+        <v>3002</v>
       </c>
       <c r="I147">
-        <v>10009</v>
+        <v>3003</v>
       </c>
       <c r="J147">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>3004</v>
+      </c>
+      <c r="K147">
+        <v>3006</v>
+      </c>
+      <c r="L147">
+        <v>3007</v>
+      </c>
+      <c r="M147">
+        <v>3008</v>
+      </c>
+      <c r="N147">
+        <v>3009</v>
+      </c>
+      <c r="O147">
+        <v>3010</v>
+      </c>
+      <c r="P147">
+        <v>3011</v>
+      </c>
+      <c r="Q147">
+        <v>3012</v>
+      </c>
+      <c r="R147">
+        <v>3026</v>
+      </c>
+      <c r="S147">
+        <v>3027</v>
+      </c>
+      <c r="T147">
+        <v>3028</v>
+      </c>
+      <c r="U147">
+        <v>3029</v>
+      </c>
+      <c r="V147">
+        <v>3030</v>
+      </c>
+      <c r="W147">
+        <v>3032</v>
+      </c>
+      <c r="X147">
+        <v>3033</v>
+      </c>
+      <c r="Y147">
+        <v>3034</v>
+      </c>
+      <c r="Z147">
+        <v>3035</v>
+      </c>
+      <c r="AA147">
+        <v>3036</v>
+      </c>
+      <c r="AB147">
+        <v>3037</v>
+      </c>
+      <c r="AC147">
+        <v>3038</v>
+      </c>
+      <c r="AD147">
+        <v>2002</v>
+      </c>
+      <c r="AE147">
+        <v>2010</v>
+      </c>
+      <c r="AF147">
+        <v>2018</v>
+      </c>
+      <c r="AG147">
+        <v>2026</v>
+      </c>
+      <c r="AH147">
+        <v>2034</v>
+      </c>
+      <c r="AI147">
+        <v>2050</v>
+      </c>
+      <c r="AJ147">
+        <v>2058</v>
+      </c>
+      <c r="AK147">
+        <v>2066</v>
+      </c>
+      <c r="AL147">
+        <v>2074</v>
+      </c>
+      <c r="AM147">
+        <v>2082</v>
+      </c>
+      <c r="AN147">
+        <v>2090</v>
+      </c>
+      <c r="AO147">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="148" spans="1:41">
       <c r="A148">
-        <v>1001</v>
+        <v>901</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C148">
-        <v>1090</v>
+      <c r="C148" s="33">
+        <v>1532</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>10011</v>
+        <v>3013</v>
       </c>
       <c r="G148">
-        <v>10012</v>
+        <v>3014</v>
       </c>
       <c r="H148">
-        <v>10013</v>
+        <v>3015</v>
+      </c>
+      <c r="I148">
+        <v>3016</v>
+      </c>
+      <c r="J148">
+        <v>3017</v>
+      </c>
+      <c r="K148">
+        <v>3019</v>
+      </c>
+      <c r="L148">
+        <v>3020</v>
+      </c>
+      <c r="M148">
+        <v>3021</v>
+      </c>
+      <c r="N148">
+        <v>3022</v>
+      </c>
+      <c r="O148">
+        <v>3023</v>
+      </c>
+      <c r="P148">
+        <v>3024</v>
+      </c>
+      <c r="Q148">
+        <v>3025</v>
+      </c>
+      <c r="R148">
+        <v>3039</v>
+      </c>
+      <c r="S148">
+        <v>3040</v>
+      </c>
+      <c r="T148">
+        <v>3041</v>
+      </c>
+      <c r="U148">
+        <v>3042</v>
+      </c>
+      <c r="V148">
+        <v>3043</v>
+      </c>
+      <c r="W148">
+        <v>3045</v>
+      </c>
+      <c r="X148">
+        <v>3046</v>
+      </c>
+      <c r="Y148">
+        <v>3047</v>
+      </c>
+      <c r="Z148">
+        <v>3048</v>
+      </c>
+      <c r="AA148">
+        <v>3049</v>
+      </c>
+      <c r="AB148">
+        <v>3050</v>
+      </c>
+      <c r="AC148">
+        <v>3051</v>
+      </c>
+      <c r="AD148">
+        <v>2003</v>
+      </c>
+      <c r="AE148">
+        <v>2011</v>
+      </c>
+      <c r="AF148">
+        <v>2019</v>
+      </c>
+      <c r="AG148">
+        <v>2027</v>
+      </c>
+      <c r="AH148">
+        <v>2035</v>
+      </c>
+      <c r="AI148">
+        <v>2051</v>
+      </c>
+      <c r="AJ148">
+        <v>2059</v>
+      </c>
+      <c r="AK148">
+        <v>2067</v>
+      </c>
+      <c r="AL148">
+        <v>2075</v>
+      </c>
+      <c r="AM148">
+        <v>2083</v>
+      </c>
+      <c r="AN148">
+        <v>2091</v>
+      </c>
+      <c r="AO148">
+        <v>2099</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>190</v>
       </c>
       <c r="C149">
-        <v>1059</v>
+        <v>1182</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6596,30 +6867,30 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>10000</v>
+        <v>10006</v>
       </c>
       <c r="G149">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="H149">
-        <v>10002</v>
+        <v>10008</v>
       </c>
       <c r="I149">
-        <v>10003</v>
+        <v>10009</v>
       </c>
       <c r="J149">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>191</v>
       </c>
       <c r="C150">
-        <v>1230</v>
+        <v>1090</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6628,18 +6899,24 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="151" customFormat="1" spans="1:6">
+        <v>10011</v>
+      </c>
+      <c r="G150">
+        <v>10012</v>
+      </c>
+      <c r="H150">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C151">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -6648,230 +6925,152 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="152" s="2" customFormat="1" spans="1:11">
-      <c r="A152" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B152" s="34" t="s">
+        <v>10000</v>
+      </c>
+      <c r="G151">
+        <v>10001</v>
+      </c>
+      <c r="H151">
+        <v>10002</v>
+      </c>
+      <c r="I151">
+        <v>10003</v>
+      </c>
+      <c r="J151">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>1003</v>
+      </c>
+      <c r="B152" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C152" s="35">
-        <v>261</v>
-      </c>
-      <c r="D152" s="2">
-        <v>1</v>
-      </c>
-      <c r="E152" s="2">
-        <v>1</v>
-      </c>
-      <c r="F152" s="2">
-        <v>12391</v>
-      </c>
-      <c r="G152" s="2">
-        <v>12392</v>
-      </c>
-      <c r="H152" s="2">
-        <v>12393</v>
-      </c>
-      <c r="I152" s="2">
-        <v>12394</v>
-      </c>
-      <c r="J152" s="2">
-        <v>12395</v>
-      </c>
-      <c r="K152" s="2">
-        <v>12396</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="C152">
+        <v>1230</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="153" customFormat="1" spans="1:6">
       <c r="A153">
-        <v>1100</v>
+        <v>1004</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C153" s="36">
+      <c r="C153">
+        <v>1087</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" spans="1:11">
+      <c r="A154" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" s="35">
+        <v>261</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <v>12391</v>
+      </c>
+      <c r="G154" s="2">
+        <v>12392</v>
+      </c>
+      <c r="H154" s="2">
+        <v>12393</v>
+      </c>
+      <c r="I154" s="2">
+        <v>12394</v>
+      </c>
+      <c r="J154" s="2">
+        <v>12395</v>
+      </c>
+      <c r="K154" s="2">
+        <v>12396</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>1100</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" s="36">
         <v>1010</v>
       </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153">
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
         <v>11000</v>
       </c>
-      <c r="G153">
+      <c r="G155">
         <v>11001</v>
       </c>
-      <c r="H153">
+      <c r="H155">
         <v>11002</v>
       </c>
-      <c r="I153">
+      <c r="I155">
         <v>11003</v>
       </c>
-      <c r="J153">
+      <c r="J155">
         <v>11004</v>
       </c>
-      <c r="K153">
+      <c r="K155">
         <v>11005</v>
       </c>
-      <c r="L153">
+      <c r="L155">
         <v>11006</v>
       </c>
-      <c r="M153" s="39">
+      <c r="M155" s="39">
         <v>12411</v>
       </c>
-      <c r="N153" s="39">
+      <c r="N155" s="39">
         <v>12412</v>
       </c>
-      <c r="O153" s="39">
+      <c r="O155" s="39">
         <v>12413</v>
       </c>
     </row>
-    <row r="154" s="3" customFormat="1" ht="16" customHeight="1" spans="1:21">
-      <c r="A154" s="3">
+    <row r="156" s="3" customFormat="1" ht="16" customHeight="1" spans="1:21">
+      <c r="A156" s="3">
         <v>1101</v>
-      </c>
-      <c r="B154" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C154" s="38">
-        <v>1009</v>
-      </c>
-      <c r="D154" s="3">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>11007</v>
-      </c>
-      <c r="G154">
-        <v>11008</v>
-      </c>
-      <c r="H154">
-        <v>11009</v>
-      </c>
-      <c r="I154">
-        <v>11010</v>
-      </c>
-      <c r="J154">
-        <v>11011</v>
-      </c>
-      <c r="K154">
-        <v>11012</v>
-      </c>
-      <c r="L154">
-        <v>11013</v>
-      </c>
-      <c r="M154">
-        <v>11014</v>
-      </c>
-      <c r="N154">
-        <v>11015</v>
-      </c>
-      <c r="O154">
-        <v>11016</v>
-      </c>
-      <c r="P154">
-        <v>11017</v>
-      </c>
-      <c r="Q154">
-        <v>11018</v>
-      </c>
-      <c r="R154">
-        <v>11019</v>
-      </c>
-      <c r="S154">
-        <v>11020</v>
-      </c>
-      <c r="T154">
-        <v>11021</v>
-      </c>
-      <c r="U154">
-        <v>11022</v>
-      </c>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:21">
-      <c r="A155" s="3">
-        <v>1102</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C155" s="38">
-        <v>1031</v>
-      </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" s="3">
-        <v>11023</v>
-      </c>
-      <c r="G155" s="3">
-        <v>11024</v>
-      </c>
-      <c r="H155" s="3">
-        <v>11025</v>
-      </c>
-      <c r="I155" s="3">
-        <v>11026</v>
-      </c>
-      <c r="J155" s="3">
-        <v>11027</v>
-      </c>
-      <c r="K155" s="3">
-        <v>11028</v>
-      </c>
-      <c r="L155" s="3">
-        <v>11029</v>
-      </c>
-      <c r="M155" s="3">
-        <v>11030</v>
-      </c>
-      <c r="N155" s="3">
-        <v>11031</v>
-      </c>
-      <c r="O155" s="3">
-        <v>11032</v>
-      </c>
-      <c r="P155" s="3">
-        <v>11033</v>
-      </c>
-      <c r="Q155" s="3">
-        <v>11034</v>
-      </c>
-      <c r="R155" s="3">
-        <v>11035</v>
-      </c>
-      <c r="S155" s="3">
-        <v>11036</v>
-      </c>
-      <c r="T155" s="3">
-        <v>11037</v>
-      </c>
-      <c r="U155" s="3">
-        <v>11038</v>
-      </c>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:21">
-      <c r="A156" s="3">
-        <v>1103</v>
       </c>
       <c r="B156" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C156" s="37">
-        <v>1033</v>
+      <c r="C156" s="38">
+        <v>1009</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
@@ -6880,63 +7079,63 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>11039</v>
+        <v>11007</v>
       </c>
       <c r="G156">
-        <v>11040</v>
+        <v>11008</v>
       </c>
       <c r="H156">
-        <v>11041</v>
+        <v>11009</v>
       </c>
       <c r="I156">
-        <v>11042</v>
+        <v>11010</v>
       </c>
       <c r="J156">
-        <v>11043</v>
+        <v>11011</v>
       </c>
       <c r="K156">
-        <v>11044</v>
+        <v>11012</v>
       </c>
       <c r="L156">
-        <v>11045</v>
+        <v>11013</v>
       </c>
       <c r="M156">
-        <v>11046</v>
+        <v>11014</v>
       </c>
       <c r="N156">
-        <v>11047</v>
+        <v>11015</v>
       </c>
       <c r="O156">
-        <v>11048</v>
+        <v>11016</v>
       </c>
       <c r="P156">
-        <v>11049</v>
+        <v>11017</v>
       </c>
       <c r="Q156">
-        <v>11050</v>
+        <v>11018</v>
       </c>
       <c r="R156">
-        <v>11051</v>
+        <v>11019</v>
       </c>
       <c r="S156">
-        <v>11052</v>
+        <v>11020</v>
       </c>
       <c r="T156">
-        <v>11053</v>
+        <v>11021</v>
       </c>
       <c r="U156">
-        <v>11054</v>
+        <v>11022</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1" spans="1:21">
       <c r="A157" s="3">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B157" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C157" s="37">
-        <v>1143</v>
+      <c r="C157" s="38">
+        <v>1031</v>
       </c>
       <c r="D157" s="3">
         <v>1</v>
@@ -6945,63 +7144,63 @@
         <v>1</v>
       </c>
       <c r="F157" s="3">
-        <v>11055</v>
+        <v>11023</v>
       </c>
       <c r="G157" s="3">
-        <v>11056</v>
+        <v>11024</v>
       </c>
       <c r="H157" s="3">
-        <v>11057</v>
+        <v>11025</v>
       </c>
       <c r="I157" s="3">
-        <v>11058</v>
+        <v>11026</v>
       </c>
       <c r="J157" s="3">
-        <v>11059</v>
+        <v>11027</v>
       </c>
       <c r="K157" s="3">
-        <v>11060</v>
+        <v>11028</v>
       </c>
       <c r="L157" s="3">
-        <v>11061</v>
+        <v>11029</v>
       </c>
       <c r="M157" s="3">
-        <v>11062</v>
+        <v>11030</v>
       </c>
       <c r="N157" s="3">
-        <v>11063</v>
+        <v>11031</v>
       </c>
       <c r="O157" s="3">
-        <v>11064</v>
+        <v>11032</v>
       </c>
       <c r="P157" s="3">
-        <v>11065</v>
+        <v>11033</v>
       </c>
       <c r="Q157" s="3">
-        <v>11066</v>
+        <v>11034</v>
       </c>
       <c r="R157" s="3">
-        <v>11067</v>
+        <v>11035</v>
       </c>
       <c r="S157" s="3">
-        <v>11068</v>
+        <v>11036</v>
       </c>
       <c r="T157" s="3">
-        <v>11069</v>
+        <v>11037</v>
       </c>
       <c r="U157" s="3">
-        <v>11070</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="1" spans="1:21">
       <c r="A158" s="3">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B158" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C158" s="38">
-        <v>1035</v>
+      <c r="C158" s="37">
+        <v>1033</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
@@ -7010,63 +7209,63 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>11071</v>
+        <v>11039</v>
       </c>
       <c r="G158">
-        <v>11072</v>
+        <v>11040</v>
       </c>
       <c r="H158">
-        <v>11073</v>
+        <v>11041</v>
       </c>
       <c r="I158">
-        <v>11074</v>
+        <v>11042</v>
       </c>
       <c r="J158">
-        <v>11075</v>
+        <v>11043</v>
       </c>
       <c r="K158">
-        <v>11076</v>
+        <v>11044</v>
       </c>
       <c r="L158">
-        <v>11077</v>
+        <v>11045</v>
       </c>
       <c r="M158">
-        <v>11078</v>
+        <v>11046</v>
       </c>
       <c r="N158">
-        <v>11079</v>
+        <v>11047</v>
       </c>
       <c r="O158">
-        <v>11080</v>
+        <v>11048</v>
       </c>
       <c r="P158">
-        <v>11081</v>
+        <v>11049</v>
       </c>
       <c r="Q158">
-        <v>11082</v>
+        <v>11050</v>
       </c>
       <c r="R158">
-        <v>11083</v>
+        <v>11051</v>
       </c>
       <c r="S158">
-        <v>11084</v>
+        <v>11052</v>
       </c>
       <c r="T158">
-        <v>11085</v>
+        <v>11053</v>
       </c>
       <c r="U158">
-        <v>11086</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="159" s="3" customFormat="1" spans="1:21">
       <c r="A159" s="3">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B159" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C159" s="38">
-        <v>1042</v>
+      <c r="C159" s="37">
+        <v>1143</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
@@ -7075,63 +7274,63 @@
         <v>1</v>
       </c>
       <c r="F159" s="3">
-        <v>11087</v>
+        <v>11055</v>
       </c>
       <c r="G159" s="3">
-        <v>11088</v>
+        <v>11056</v>
       </c>
       <c r="H159" s="3">
-        <v>11089</v>
+        <v>11057</v>
       </c>
       <c r="I159" s="3">
-        <v>11090</v>
+        <v>11058</v>
       </c>
       <c r="J159" s="3">
-        <v>11091</v>
+        <v>11059</v>
       </c>
       <c r="K159" s="3">
-        <v>11092</v>
+        <v>11060</v>
       </c>
       <c r="L159" s="3">
-        <v>11093</v>
+        <v>11061</v>
       </c>
       <c r="M159" s="3">
-        <v>11094</v>
+        <v>11062</v>
       </c>
       <c r="N159" s="3">
-        <v>11095</v>
+        <v>11063</v>
       </c>
       <c r="O159" s="3">
-        <v>11096</v>
+        <v>11064</v>
       </c>
       <c r="P159" s="3">
-        <v>11097</v>
+        <v>11065</v>
       </c>
       <c r="Q159" s="3">
-        <v>11098</v>
+        <v>11066</v>
       </c>
       <c r="R159" s="3">
-        <v>11099</v>
+        <v>11067</v>
       </c>
       <c r="S159" s="3">
-        <v>11100</v>
+        <v>11068</v>
       </c>
       <c r="T159" s="3">
-        <v>11101</v>
+        <v>11069</v>
       </c>
       <c r="U159" s="3">
-        <v>11102</v>
-      </c>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:28">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:21">
       <c r="A160" s="3">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B160" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C160" s="38">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D160" s="3">
         <v>1</v>
@@ -7139,65 +7338,58 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="39">
-        <v>12414</v>
-      </c>
-      <c r="G160" s="39">
-        <v>12415</v>
-      </c>
-      <c r="H160" s="39">
-        <v>12416</v>
-      </c>
-      <c r="I160" s="39">
-        <v>12417</v>
-      </c>
-      <c r="J160" s="39">
-        <v>12418</v>
-      </c>
-      <c r="K160" s="39">
-        <v>12419</v>
-      </c>
-      <c r="L160" s="39">
-        <v>12420</v>
-      </c>
-      <c r="M160" s="39">
-        <v>12421</v>
-      </c>
-      <c r="N160" s="39">
-        <v>12422</v>
-      </c>
-      <c r="O160" s="39">
-        <v>12423</v>
-      </c>
-      <c r="P160" s="39">
-        <v>12424</v>
-      </c>
-      <c r="Q160" s="39">
-        <v>12425</v>
-      </c>
-      <c r="R160" s="39">
-        <v>12426</v>
-      </c>
-      <c r="S160" s="39">
-        <v>12427</v>
-      </c>
-      <c r="T160" s="39">
-        <v>12428</v>
-      </c>
-      <c r="U160" s="39">
-        <v>12429</v>
-      </c>
-      <c r="V160"/>
-      <c r="W160"/>
-      <c r="X160"/>
-      <c r="Y160"/>
-      <c r="Z160"/>
-      <c r="AA160"/>
-      <c r="AB160"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:28">
+      <c r="F160">
+        <v>11071</v>
+      </c>
+      <c r="G160">
+        <v>11072</v>
+      </c>
+      <c r="H160">
+        <v>11073</v>
+      </c>
+      <c r="I160">
+        <v>11074</v>
+      </c>
+      <c r="J160">
+        <v>11075</v>
+      </c>
+      <c r="K160">
+        <v>11076</v>
+      </c>
+      <c r="L160">
+        <v>11077</v>
+      </c>
+      <c r="M160">
+        <v>11078</v>
+      </c>
+      <c r="N160">
+        <v>11079</v>
+      </c>
+      <c r="O160">
+        <v>11080</v>
+      </c>
+      <c r="P160">
+        <v>11081</v>
+      </c>
+      <c r="Q160">
+        <v>11082</v>
+      </c>
+      <c r="R160">
+        <v>11083</v>
+      </c>
+      <c r="S160">
+        <v>11084</v>
+      </c>
+      <c r="T160">
+        <v>11085</v>
+      </c>
+      <c r="U160">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:21">
       <c r="A161" s="3">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B161" s="37" t="s">
         <v>202</v>
@@ -7211,65 +7403,58 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" s="39">
-        <v>12430</v>
-      </c>
-      <c r="G161" s="39">
-        <v>12431</v>
-      </c>
-      <c r="H161" s="39">
-        <v>12432</v>
-      </c>
-      <c r="I161" s="39">
-        <v>12433</v>
-      </c>
-      <c r="J161" s="39">
-        <v>12434</v>
-      </c>
-      <c r="K161" s="39">
-        <v>12435</v>
-      </c>
-      <c r="L161" s="39">
-        <v>12436</v>
-      </c>
-      <c r="M161" s="39">
-        <v>12437</v>
-      </c>
-      <c r="N161" s="39">
-        <v>12438</v>
-      </c>
-      <c r="O161" s="39">
-        <v>12439</v>
-      </c>
-      <c r="P161" s="39">
-        <v>12440</v>
-      </c>
-      <c r="Q161" s="39">
-        <v>12441</v>
-      </c>
-      <c r="R161" s="39">
-        <v>12442</v>
-      </c>
-      <c r="S161" s="39">
-        <v>12443</v>
-      </c>
-      <c r="T161" s="39">
-        <v>12444</v>
-      </c>
-      <c r="U161" s="39">
-        <v>12445</v>
-      </c>
-      <c r="V161"/>
-      <c r="W161"/>
-      <c r="X161"/>
-      <c r="Y161"/>
-      <c r="Z161"/>
-      <c r="AA161"/>
-      <c r="AB161"/>
+      <c r="F161" s="3">
+        <v>11087</v>
+      </c>
+      <c r="G161" s="3">
+        <v>11088</v>
+      </c>
+      <c r="H161" s="3">
+        <v>11089</v>
+      </c>
+      <c r="I161" s="3">
+        <v>11090</v>
+      </c>
+      <c r="J161" s="3">
+        <v>11091</v>
+      </c>
+      <c r="K161" s="3">
+        <v>11092</v>
+      </c>
+      <c r="L161" s="3">
+        <v>11093</v>
+      </c>
+      <c r="M161" s="3">
+        <v>11094</v>
+      </c>
+      <c r="N161" s="3">
+        <v>11095</v>
+      </c>
+      <c r="O161" s="3">
+        <v>11096</v>
+      </c>
+      <c r="P161" s="3">
+        <v>11097</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>11098</v>
+      </c>
+      <c r="R161" s="3">
+        <v>11099</v>
+      </c>
+      <c r="S161" s="3">
+        <v>11100</v>
+      </c>
+      <c r="T161" s="3">
+        <v>11101</v>
+      </c>
+      <c r="U161" s="3">
+        <v>11102</v>
+      </c>
     </row>
     <row r="162" s="3" customFormat="1" spans="1:28">
       <c r="A162" s="3">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B162" s="37" t="s">
         <v>203</v>
@@ -7284,52 +7469,52 @@
         <v>1</v>
       </c>
       <c r="F162" s="39">
-        <v>12446</v>
+        <v>12414</v>
       </c>
       <c r="G162" s="39">
-        <v>12447</v>
+        <v>12415</v>
       </c>
       <c r="H162" s="39">
-        <v>12448</v>
+        <v>12416</v>
       </c>
       <c r="I162" s="39">
-        <v>12449</v>
+        <v>12417</v>
       </c>
       <c r="J162" s="39">
-        <v>12450</v>
+        <v>12418</v>
       </c>
       <c r="K162" s="39">
-        <v>12451</v>
+        <v>12419</v>
       </c>
       <c r="L162" s="39">
-        <v>12452</v>
+        <v>12420</v>
       </c>
       <c r="M162" s="39">
-        <v>12453</v>
+        <v>12421</v>
       </c>
       <c r="N162" s="39">
-        <v>12454</v>
+        <v>12422</v>
       </c>
       <c r="O162" s="39">
-        <v>12455</v>
+        <v>12423</v>
       </c>
       <c r="P162" s="39">
-        <v>12456</v>
+        <v>12424</v>
       </c>
       <c r="Q162" s="39">
-        <v>12457</v>
+        <v>12425</v>
       </c>
       <c r="R162" s="39">
-        <v>12458</v>
+        <v>12426</v>
       </c>
       <c r="S162" s="39">
-        <v>12459</v>
+        <v>12427</v>
       </c>
       <c r="T162" s="39">
-        <v>12460</v>
+        <v>12428</v>
       </c>
       <c r="U162" s="39">
-        <v>12461</v>
+        <v>12429</v>
       </c>
       <c r="V162"/>
       <c r="W162"/>
@@ -7339,55 +7524,159 @@
       <c r="AA162"/>
       <c r="AB162"/>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>1114</v>
-      </c>
-      <c r="B163" s="40" t="s">
+    <row r="163" s="3" customFormat="1" spans="1:28">
+      <c r="A163" s="3">
+        <v>1108</v>
+      </c>
+      <c r="B163" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C163" s="41">
-        <v>40288</v>
-      </c>
-      <c r="D163">
+      <c r="C163" s="38">
+        <v>1042</v>
+      </c>
+      <c r="D163" s="3">
         <v>1</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163">
-        <v>12001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>1115</v>
-      </c>
-      <c r="B164" s="40" t="s">
+      <c r="F163" s="39">
+        <v>12430</v>
+      </c>
+      <c r="G163" s="39">
+        <v>12431</v>
+      </c>
+      <c r="H163" s="39">
+        <v>12432</v>
+      </c>
+      <c r="I163" s="39">
+        <v>12433</v>
+      </c>
+      <c r="J163" s="39">
+        <v>12434</v>
+      </c>
+      <c r="K163" s="39">
+        <v>12435</v>
+      </c>
+      <c r="L163" s="39">
+        <v>12436</v>
+      </c>
+      <c r="M163" s="39">
+        <v>12437</v>
+      </c>
+      <c r="N163" s="39">
+        <v>12438</v>
+      </c>
+      <c r="O163" s="39">
+        <v>12439</v>
+      </c>
+      <c r="P163" s="39">
+        <v>12440</v>
+      </c>
+      <c r="Q163" s="39">
+        <v>12441</v>
+      </c>
+      <c r="R163" s="39">
+        <v>12442</v>
+      </c>
+      <c r="S163" s="39">
+        <v>12443</v>
+      </c>
+      <c r="T163" s="39">
+        <v>12444</v>
+      </c>
+      <c r="U163" s="39">
+        <v>12445</v>
+      </c>
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+      <c r="Y163"/>
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:28">
+      <c r="A164" s="3">
+        <v>1109</v>
+      </c>
+      <c r="B164" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C164" s="41">
-        <v>40290</v>
-      </c>
-      <c r="D164">
+      <c r="C164" s="38">
+        <v>1042</v>
+      </c>
+      <c r="D164" s="3">
         <v>1</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164">
-        <v>12002</v>
-      </c>
+      <c r="F164" s="39">
+        <v>12446</v>
+      </c>
+      <c r="G164" s="39">
+        <v>12447</v>
+      </c>
+      <c r="H164" s="39">
+        <v>12448</v>
+      </c>
+      <c r="I164" s="39">
+        <v>12449</v>
+      </c>
+      <c r="J164" s="39">
+        <v>12450</v>
+      </c>
+      <c r="K164" s="39">
+        <v>12451</v>
+      </c>
+      <c r="L164" s="39">
+        <v>12452</v>
+      </c>
+      <c r="M164" s="39">
+        <v>12453</v>
+      </c>
+      <c r="N164" s="39">
+        <v>12454</v>
+      </c>
+      <c r="O164" s="39">
+        <v>12455</v>
+      </c>
+      <c r="P164" s="39">
+        <v>12456</v>
+      </c>
+      <c r="Q164" s="39">
+        <v>12457</v>
+      </c>
+      <c r="R164" s="39">
+        <v>12458</v>
+      </c>
+      <c r="S164" s="39">
+        <v>12459</v>
+      </c>
+      <c r="T164" s="39">
+        <v>12460</v>
+      </c>
+      <c r="U164" s="39">
+        <v>12461</v>
+      </c>
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+      <c r="Y164"/>
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>206</v>
       </c>
       <c r="C165" s="41">
-        <v>40303</v>
+        <v>40288</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -7396,18 +7685,18 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>12003</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B166" s="40" t="s">
         <v>207</v>
       </c>
       <c r="C166" s="41">
-        <v>40294</v>
+        <v>40290</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -7416,18 +7705,18 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>12004</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>208</v>
       </c>
       <c r="C167" s="41">
-        <v>40295</v>
+        <v>40303</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -7436,18 +7725,18 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>12005</v>
+        <v>12003</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>209</v>
       </c>
       <c r="C168" s="41">
-        <v>40289</v>
+        <v>40294</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7456,18 +7745,18 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>12006</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B169" s="40" t="s">
         <v>210</v>
       </c>
       <c r="C169" s="41">
-        <v>40298</v>
+        <v>40295</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -7476,18 +7765,18 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>12007</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B170" s="40" t="s">
         <v>211</v>
       </c>
       <c r="C170" s="41">
-        <v>40306</v>
+        <v>40289</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7496,18 +7785,18 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>12008</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>212</v>
       </c>
       <c r="C171" s="41">
-        <v>40302</v>
+        <v>40298</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7516,18 +7805,18 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>12009</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C172" s="41">
-        <v>40281</v>
+        <v>40306</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7536,18 +7825,18 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>12010</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C173" s="41">
-        <v>40292</v>
+        <v>40302</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7556,18 +7845,18 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>12011</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C174" s="41">
-        <v>40291</v>
+        <v>40281</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7576,18 +7865,18 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>12012</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>215</v>
       </c>
       <c r="C175" s="41">
-        <v>40299</v>
+        <v>40292</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -7596,18 +7885,18 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>12013</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>216</v>
       </c>
       <c r="C176" s="41">
-        <v>40305</v>
+        <v>40291</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -7616,18 +7905,18 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>12014</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>217</v>
       </c>
       <c r="C177" s="41">
-        <v>40301</v>
+        <v>40299</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -7636,18 +7925,18 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>12015</v>
-      </c>
-    </row>
-    <row r="178" customFormat="1" spans="1:6">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B178" s="40" t="s">
         <v>218</v>
       </c>
       <c r="C178" s="41">
-        <v>40293</v>
+        <v>40305</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -7656,18 +7945,18 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>12016</v>
-      </c>
-    </row>
-    <row r="179" customFormat="1" spans="1:6">
+        <v>12014</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B179" s="40" t="s">
         <v>219</v>
       </c>
       <c r="C179" s="41">
-        <v>40284</v>
+        <v>40301</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7676,75 +7965,75 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>12017</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="1:6">
       <c r="A180">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B180" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C180" s="41">
+        <v>40293</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="181" customFormat="1" spans="1:6">
+      <c r="A181">
+        <v>1130</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C181" s="41">
+        <v>40284</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>12017</v>
+      </c>
+    </row>
+    <row r="182" customFormat="1" spans="1:6">
+      <c r="A182">
+        <v>1131</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C182" s="41">
         <v>40282</v>
       </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
         <v>12018</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>1132</v>
-      </c>
-      <c r="B181" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C181">
-        <v>1095</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" s="1">
-        <v>12076</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>1133</v>
-      </c>
-      <c r="B182" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C182">
-        <v>1095</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182" s="1">
-        <v>12108</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>1134</v>
-      </c>
-      <c r="B183" s="43" t="s">
-        <v>222</v>
+        <v>1132</v>
+      </c>
+      <c r="B183" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="C183">
         <v>1095</v>
@@ -7756,14 +8045,14 @@
         <v>1</v>
       </c>
       <c r="F183" s="1">
-        <v>12109</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>1135</v>
-      </c>
-      <c r="B184" s="42" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B184" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C184">
@@ -7776,14 +8065,14 @@
         <v>1</v>
       </c>
       <c r="F184" s="1">
-        <v>12110</v>
+        <v>12108</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>1136</v>
-      </c>
-      <c r="B185" s="42" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B185" s="43" t="s">
         <v>224</v>
       </c>
       <c r="C185">
@@ -7796,12 +8085,12 @@
         <v>1</v>
       </c>
       <c r="F185" s="1">
-        <v>12111</v>
+        <v>12109</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B186" s="42" t="s">
         <v>225</v>
@@ -7816,12 +8105,12 @@
         <v>1</v>
       </c>
       <c r="F186" s="1">
-        <v>12112</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B187" s="42" t="s">
         <v>226</v>
@@ -7836,14 +8125,14 @@
         <v>1</v>
       </c>
       <c r="F187" s="1">
-        <v>12113</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>1139</v>
-      </c>
-      <c r="B188" s="44" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B188" s="42" t="s">
         <v>227</v>
       </c>
       <c r="C188">
@@ -7856,14 +8145,14 @@
         <v>1</v>
       </c>
       <c r="F188" s="1">
-        <v>12114</v>
+        <v>12112</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>1140</v>
-      </c>
-      <c r="B189" s="44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B189" s="42" t="s">
         <v>228</v>
       </c>
       <c r="C189">
@@ -7876,158 +8165,140 @@
         <v>1</v>
       </c>
       <c r="F189" s="1">
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>1139</v>
+      </c>
+      <c r="B190" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C190">
+        <v>1095</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>1140</v>
+      </c>
+      <c r="B191" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C191">
+        <v>1095</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
         <v>12115</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:13">
-      <c r="A190">
+    <row r="192" ht="15" spans="1:13">
+      <c r="A192">
         <v>1141</v>
       </c>
-      <c r="B190" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="C190" s="46">
+      <c r="B192" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="46">
         <v>1218</v>
       </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190">
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
         <v>12116</v>
       </c>
-      <c r="G190">
+      <c r="G192">
         <v>12117</v>
       </c>
-      <c r="H190">
+      <c r="H192">
         <v>12118</v>
       </c>
-      <c r="I190">
+      <c r="I192">
         <v>12119</v>
       </c>
-      <c r="J190">
+      <c r="J192">
         <v>12120</v>
       </c>
-      <c r="K190">
+      <c r="K192">
         <v>12121</v>
       </c>
-      <c r="L190">
+      <c r="L192">
         <v>12122</v>
       </c>
-      <c r="M190">
+      <c r="M192">
         <v>12123</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:13">
-      <c r="A191">
+    <row r="193" ht="15" spans="1:13">
+      <c r="A193">
         <v>1142</v>
       </c>
-      <c r="B191" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="C191" s="46">
+      <c r="B193" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C193" s="46">
         <v>1217</v>
       </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191">
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
         <v>12124</v>
       </c>
-      <c r="G191">
+      <c r="G193">
         <v>12125</v>
       </c>
-      <c r="H191">
+      <c r="H193">
         <v>12126</v>
       </c>
-      <c r="I191">
+      <c r="I193">
         <v>12127</v>
       </c>
-      <c r="J191">
+      <c r="J193">
         <v>12128</v>
       </c>
-      <c r="K191">
+      <c r="K193">
         <v>12129</v>
       </c>
-      <c r="L191">
+      <c r="L193">
         <v>12130</v>
       </c>
-      <c r="M191">
+      <c r="M193">
         <v>12131</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192">
-        <v>1143</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C192" s="47">
-        <v>1657</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-      <c r="F192">
-        <v>12132</v>
-      </c>
-      <c r="G192">
-        <v>12133</v>
-      </c>
-      <c r="H192">
-        <v>12134</v>
-      </c>
-      <c r="I192">
-        <v>12135</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193">
-        <v>1144</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C193" s="47">
-        <v>1656</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193">
-        <v>12136</v>
-      </c>
-      <c r="G193">
-        <v>12137</v>
-      </c>
-      <c r="H193">
-        <v>12138</v>
-      </c>
-      <c r="I193">
-        <v>12139</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C194" s="47">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -8036,27 +8307,27 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>12140</v>
+        <v>12132</v>
       </c>
       <c r="G194">
-        <v>12141</v>
+        <v>12133</v>
       </c>
       <c r="H194">
-        <v>12142</v>
+        <v>12134</v>
       </c>
       <c r="I194">
-        <v>12143</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C195" s="47">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -8065,27 +8336,27 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>12144</v>
+        <v>12136</v>
       </c>
       <c r="G195">
-        <v>12145</v>
+        <v>12137</v>
       </c>
       <c r="H195">
-        <v>12146</v>
+        <v>12138</v>
       </c>
       <c r="I195">
-        <v>12147</v>
+        <v>12139</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B196" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C196" s="47">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -8094,27 +8365,27 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>12148</v>
+        <v>12140</v>
       </c>
       <c r="G196">
-        <v>12149</v>
+        <v>12141</v>
       </c>
       <c r="H196">
-        <v>12150</v>
+        <v>12142</v>
       </c>
       <c r="I196">
-        <v>12151</v>
+        <v>12143</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B197" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C197" s="47">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -8123,27 +8394,27 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>12152</v>
+        <v>12144</v>
       </c>
       <c r="G197">
-        <v>12153</v>
+        <v>12145</v>
       </c>
       <c r="H197">
-        <v>12154</v>
+        <v>12146</v>
       </c>
       <c r="I197">
-        <v>12155</v>
+        <v>12147</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C198" s="47">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -8152,27 +8423,27 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>12156</v>
+        <v>12148</v>
       </c>
       <c r="G198">
-        <v>12157</v>
+        <v>12149</v>
       </c>
       <c r="H198">
-        <v>12158</v>
+        <v>12150</v>
       </c>
       <c r="I198">
-        <v>12159</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>237</v>
       </c>
       <c r="C199" s="47">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -8181,81 +8452,99 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>12160</v>
+        <v>12152</v>
       </c>
       <c r="G199">
-        <v>12161</v>
+        <v>12153</v>
       </c>
       <c r="H199">
-        <v>12162</v>
+        <v>12154</v>
       </c>
       <c r="I199">
-        <v>12163</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" spans="1:6">
+        <v>12155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C200" s="46">
+      <c r="C200" s="47">
+        <v>1661</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>12156</v>
+      </c>
+      <c r="G200">
+        <v>12157</v>
+      </c>
+      <c r="H200">
+        <v>12158</v>
+      </c>
+      <c r="I200">
+        <v>12159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>1150</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C201" s="47">
+        <v>1660</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>12160</v>
+      </c>
+      <c r="G201">
+        <v>12161</v>
+      </c>
+      <c r="H201">
+        <v>12162</v>
+      </c>
+      <c r="I201">
+        <v>12163</v>
+      </c>
+    </row>
+    <row r="202" ht="15" spans="1:6">
+      <c r="A202">
+        <v>1151</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C202" s="46">
         <v>1126</v>
       </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200">
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
         <v>12164</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>1152</v>
-      </c>
-      <c r="B201" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="C201">
-        <v>1005</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201">
-        <v>12165</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>1153</v>
-      </c>
-      <c r="B202" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C202">
-        <v>1005</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202">
-        <v>12166</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B203" s="48" t="s">
         <v>241</v>
@@ -8270,12 +8559,12 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>12167</v>
+        <v>12165</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>242</v>
@@ -8290,12 +8579,12 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>12168</v>
+        <v>12166</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B205" s="48" t="s">
         <v>243</v>
@@ -8310,12 +8599,12 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>12169</v>
+        <v>12167</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B206" s="48" t="s">
         <v>244</v>
@@ -8330,12 +8619,12 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>12170</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B207" s="48" t="s">
         <v>245</v>
@@ -8350,12 +8639,12 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>12171</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B208" s="48" t="s">
         <v>246</v>
@@ -8370,12 +8659,12 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>12172</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B209" s="48" t="s">
         <v>247</v>
@@ -8390,12 +8679,12 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>12173</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B210" s="48" t="s">
         <v>248</v>
@@ -8410,12 +8699,12 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>12174</v>
+        <v>12172</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B211" s="48" t="s">
         <v>249</v>
@@ -8430,12 +8719,12 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>12175</v>
+        <v>12173</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B212" s="48" t="s">
         <v>250</v>
@@ -8450,12 +8739,12 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>12176</v>
+        <v>12174</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B213" s="48" t="s">
         <v>251</v>
@@ -8470,12 +8759,12 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>12177</v>
+        <v>12175</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B214" s="48" t="s">
         <v>252</v>
@@ -8490,12 +8779,12 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>12178</v>
+        <v>12176</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B215" s="48" t="s">
         <v>253</v>
@@ -8510,12 +8799,12 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>12179</v>
+        <v>12177</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>254</v>
@@ -8530,12 +8819,12 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>12180</v>
+        <v>12178</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B217" s="48" t="s">
         <v>255</v>
@@ -8550,12 +8839,12 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>12181</v>
+        <v>12179</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B218" s="48" t="s">
         <v>256</v>
@@ -8570,12 +8859,12 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>12182</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B219" s="48" t="s">
         <v>257</v>
@@ -8590,12 +8879,12 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>12183</v>
+        <v>12181</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B220" s="48" t="s">
         <v>258</v>
@@ -8610,106 +8899,58 @@
         <v>1</v>
       </c>
       <c r="F220">
+        <v>12182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>1170</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C221">
+        <v>1005</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>12183</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>1171</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C222">
+        <v>1005</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
         <v>12184</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
-      <c r="A221">
-        <v>1172</v>
-      </c>
-      <c r="B221" t="s">
-        <v>259</v>
-      </c>
-      <c r="C221" s="49">
-        <v>1149</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221" s="2">
-        <v>12185</v>
-      </c>
-      <c r="G221" s="2">
-        <v>12186</v>
-      </c>
-      <c r="H221" s="2">
-        <v>12187</v>
-      </c>
-      <c r="I221" s="2">
-        <v>12188</v>
-      </c>
-      <c r="J221" s="2">
-        <v>12189</v>
-      </c>
-      <c r="K221" s="2">
-        <v>12190</v>
-      </c>
-      <c r="L221" s="2">
-        <v>12191</v>
-      </c>
-      <c r="M221" s="2">
-        <v>12192</v>
-      </c>
-      <c r="N221" s="2">
-        <v>12193</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
-      <c r="A222">
-        <v>1173</v>
-      </c>
-      <c r="B222" t="s">
-        <v>260</v>
-      </c>
-      <c r="C222" s="49">
-        <v>1148</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" s="2">
-        <v>12194</v>
-      </c>
-      <c r="G222" s="2">
-        <v>12195</v>
-      </c>
-      <c r="H222" s="2">
-        <v>12196</v>
-      </c>
-      <c r="I222" s="2">
-        <v>12197</v>
-      </c>
-      <c r="J222" s="2">
-        <v>12198</v>
-      </c>
-      <c r="K222" s="2">
-        <v>12199</v>
-      </c>
-      <c r="L222" s="2">
-        <v>12200</v>
-      </c>
-      <c r="M222" s="2">
-        <v>12201</v>
-      </c>
-      <c r="N222" s="2">
-        <v>12202</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B223" t="s">
         <v>261</v>
       </c>
       <c r="C223" s="49">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8718,42 +8959,42 @@
         <v>1</v>
       </c>
       <c r="F223" s="2">
-        <v>12203</v>
+        <v>12185</v>
       </c>
       <c r="G223" s="2">
-        <v>12204</v>
+        <v>12186</v>
       </c>
       <c r="H223" s="2">
-        <v>12205</v>
+        <v>12187</v>
       </c>
       <c r="I223" s="2">
-        <v>12206</v>
+        <v>12188</v>
       </c>
       <c r="J223" s="2">
-        <v>12207</v>
+        <v>12189</v>
       </c>
       <c r="K223" s="2">
-        <v>12208</v>
+        <v>12190</v>
       </c>
       <c r="L223" s="2">
-        <v>12209</v>
+        <v>12191</v>
       </c>
       <c r="M223" s="2">
-        <v>12210</v>
+        <v>12192</v>
       </c>
       <c r="N223" s="2">
-        <v>12211</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B224" t="s">
         <v>262</v>
       </c>
       <c r="C224" s="49">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -8762,42 +9003,42 @@
         <v>1</v>
       </c>
       <c r="F224" s="2">
-        <v>12212</v>
+        <v>12194</v>
       </c>
       <c r="G224" s="2">
-        <v>12213</v>
+        <v>12195</v>
       </c>
       <c r="H224" s="2">
-        <v>12214</v>
+        <v>12196</v>
       </c>
       <c r="I224" s="2">
-        <v>12215</v>
+        <v>12197</v>
       </c>
       <c r="J224" s="2">
-        <v>12216</v>
+        <v>12198</v>
       </c>
       <c r="K224" s="2">
-        <v>12217</v>
+        <v>12199</v>
       </c>
       <c r="L224" s="2">
-        <v>12218</v>
+        <v>12200</v>
       </c>
       <c r="M224" s="2">
-        <v>12219</v>
+        <v>12201</v>
       </c>
       <c r="N224" s="2">
-        <v>12220</v>
+        <v>12202</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B225" t="s">
         <v>263</v>
       </c>
       <c r="C225" s="49">
-        <v>1029</v>
+        <v>1147</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -8806,42 +9047,42 @@
         <v>1</v>
       </c>
       <c r="F225" s="2">
-        <v>12221</v>
+        <v>12203</v>
       </c>
       <c r="G225" s="2">
-        <v>12222</v>
+        <v>12204</v>
       </c>
       <c r="H225" s="2">
-        <v>12223</v>
+        <v>12205</v>
       </c>
       <c r="I225" s="2">
-        <v>12224</v>
+        <v>12206</v>
       </c>
       <c r="J225" s="2">
-        <v>12225</v>
+        <v>12207</v>
       </c>
       <c r="K225" s="2">
-        <v>12226</v>
+        <v>12208</v>
       </c>
       <c r="L225" s="2">
-        <v>12227</v>
+        <v>12209</v>
       </c>
       <c r="M225" s="2">
-        <v>12228</v>
+        <v>12210</v>
       </c>
       <c r="N225" s="2">
-        <v>12229</v>
+        <v>12211</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B226" t="s">
         <v>264</v>
       </c>
       <c r="C226" s="49">
-        <v>1028</v>
+        <v>1146</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -8850,42 +9091,42 @@
         <v>1</v>
       </c>
       <c r="F226" s="2">
-        <v>12230</v>
+        <v>12212</v>
       </c>
       <c r="G226" s="2">
-        <v>12231</v>
+        <v>12213</v>
       </c>
       <c r="H226" s="2">
-        <v>12232</v>
+        <v>12214</v>
       </c>
       <c r="I226" s="2">
-        <v>12233</v>
+        <v>12215</v>
       </c>
       <c r="J226" s="2">
-        <v>12234</v>
+        <v>12216</v>
       </c>
       <c r="K226" s="2">
-        <v>12235</v>
+        <v>12217</v>
       </c>
       <c r="L226" s="2">
-        <v>12236</v>
+        <v>12218</v>
       </c>
       <c r="M226" s="2">
-        <v>12237</v>
+        <v>12219</v>
       </c>
       <c r="N226" s="2">
-        <v>12238</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="227" spans="1:14">
       <c r="A227">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B227" t="s">
         <v>265</v>
       </c>
       <c r="C227" s="49">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8894,42 +9135,42 @@
         <v>1</v>
       </c>
       <c r="F227" s="2">
-        <v>12239</v>
+        <v>12221</v>
       </c>
       <c r="G227" s="2">
-        <v>12240</v>
+        <v>12222</v>
       </c>
       <c r="H227" s="2">
-        <v>12241</v>
+        <v>12223</v>
       </c>
       <c r="I227" s="2">
-        <v>12242</v>
+        <v>12224</v>
       </c>
       <c r="J227" s="2">
-        <v>12243</v>
+        <v>12225</v>
       </c>
       <c r="K227" s="2">
-        <v>12244</v>
+        <v>12226</v>
       </c>
       <c r="L227" s="2">
-        <v>12245</v>
+        <v>12227</v>
       </c>
       <c r="M227" s="2">
-        <v>12246</v>
+        <v>12228</v>
       </c>
       <c r="N227" s="2">
-        <v>12247</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B228" t="s">
         <v>266</v>
       </c>
       <c r="C228" s="49">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -8938,42 +9179,42 @@
         <v>1</v>
       </c>
       <c r="F228" s="2">
-        <v>12248</v>
+        <v>12230</v>
       </c>
       <c r="G228" s="2">
-        <v>12249</v>
+        <v>12231</v>
       </c>
       <c r="H228" s="2">
-        <v>12250</v>
+        <v>12232</v>
       </c>
       <c r="I228" s="2">
-        <v>12251</v>
+        <v>12233</v>
       </c>
       <c r="J228" s="2">
-        <v>12252</v>
+        <v>12234</v>
       </c>
       <c r="K228" s="2">
-        <v>12253</v>
+        <v>12235</v>
       </c>
       <c r="L228" s="2">
-        <v>12254</v>
+        <v>12236</v>
       </c>
       <c r="M228" s="2">
-        <v>12255</v>
+        <v>12237</v>
       </c>
       <c r="N228" s="2">
-        <v>12256</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="A229">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B229" t="s">
         <v>267</v>
       </c>
       <c r="C229" s="49">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -8982,42 +9223,42 @@
         <v>1</v>
       </c>
       <c r="F229" s="2">
-        <v>12257</v>
+        <v>12239</v>
       </c>
       <c r="G229" s="2">
-        <v>12258</v>
+        <v>12240</v>
       </c>
       <c r="H229" s="2">
-        <v>12259</v>
+        <v>12241</v>
       </c>
       <c r="I229" s="2">
-        <v>12260</v>
+        <v>12242</v>
       </c>
       <c r="J229" s="2">
-        <v>12261</v>
+        <v>12243</v>
       </c>
       <c r="K229" s="2">
-        <v>12262</v>
+        <v>12244</v>
       </c>
       <c r="L229" s="2">
-        <v>12263</v>
+        <v>12245</v>
       </c>
       <c r="M229" s="2">
-        <v>12264</v>
+        <v>12246</v>
       </c>
       <c r="N229" s="2">
-        <v>12265</v>
+        <v>12247</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B230" t="s">
         <v>268</v>
       </c>
       <c r="C230" s="49">
-        <v>1149</v>
+        <v>1026</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -9026,42 +9267,42 @@
         <v>1</v>
       </c>
       <c r="F230" s="2">
-        <v>12266</v>
+        <v>12248</v>
       </c>
       <c r="G230" s="2">
-        <v>12267</v>
+        <v>12249</v>
       </c>
       <c r="H230" s="2">
-        <v>12268</v>
+        <v>12250</v>
       </c>
       <c r="I230" s="2">
-        <v>12269</v>
+        <v>12251</v>
       </c>
       <c r="J230" s="2">
-        <v>12270</v>
+        <v>12252</v>
       </c>
       <c r="K230" s="2">
-        <v>12271</v>
+        <v>12253</v>
       </c>
       <c r="L230" s="2">
-        <v>12272</v>
+        <v>12254</v>
       </c>
       <c r="M230" s="2">
-        <v>12273</v>
+        <v>12255</v>
       </c>
       <c r="N230" s="2">
-        <v>12274</v>
+        <v>12256</v>
       </c>
     </row>
     <row r="231" spans="1:14">
       <c r="A231">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B231" t="s">
         <v>269</v>
       </c>
       <c r="C231" s="49">
-        <v>1148</v>
+        <v>1025</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -9070,42 +9311,42 @@
         <v>1</v>
       </c>
       <c r="F231" s="2">
-        <v>12275</v>
+        <v>12257</v>
       </c>
       <c r="G231" s="2">
-        <v>12276</v>
+        <v>12258</v>
       </c>
       <c r="H231" s="2">
-        <v>12277</v>
+        <v>12259</v>
       </c>
       <c r="I231" s="2">
-        <v>12278</v>
+        <v>12260</v>
       </c>
       <c r="J231" s="2">
-        <v>12279</v>
+        <v>12261</v>
       </c>
       <c r="K231" s="2">
-        <v>12280</v>
+        <v>12262</v>
       </c>
       <c r="L231" s="2">
-        <v>12281</v>
+        <v>12263</v>
       </c>
       <c r="M231" s="2">
-        <v>12282</v>
+        <v>12264</v>
       </c>
       <c r="N231" s="2">
-        <v>12283</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="232" spans="1:14">
       <c r="A232">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B232" t="s">
         <v>270</v>
       </c>
       <c r="C232" s="49">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -9114,42 +9355,42 @@
         <v>1</v>
       </c>
       <c r="F232" s="2">
-        <v>12284</v>
+        <v>12266</v>
       </c>
       <c r="G232" s="2">
-        <v>12285</v>
+        <v>12267</v>
       </c>
       <c r="H232" s="2">
-        <v>12286</v>
+        <v>12268</v>
       </c>
       <c r="I232" s="2">
-        <v>12287</v>
+        <v>12269</v>
       </c>
       <c r="J232" s="2">
-        <v>12288</v>
+        <v>12270</v>
       </c>
       <c r="K232" s="2">
-        <v>12289</v>
+        <v>12271</v>
       </c>
       <c r="L232" s="2">
-        <v>12290</v>
+        <v>12272</v>
       </c>
       <c r="M232" s="2">
-        <v>12291</v>
+        <v>12273</v>
       </c>
       <c r="N232" s="2">
-        <v>12292</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="233" spans="1:14">
       <c r="A233">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B233" t="s">
         <v>271</v>
       </c>
       <c r="C233" s="49">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -9158,42 +9399,42 @@
         <v>1</v>
       </c>
       <c r="F233" s="2">
-        <v>12293</v>
+        <v>12275</v>
       </c>
       <c r="G233" s="2">
-        <v>12294</v>
+        <v>12276</v>
       </c>
       <c r="H233" s="2">
-        <v>12295</v>
+        <v>12277</v>
       </c>
       <c r="I233" s="2">
-        <v>12296</v>
+        <v>12278</v>
       </c>
       <c r="J233" s="2">
-        <v>12297</v>
+        <v>12279</v>
       </c>
       <c r="K233" s="2">
-        <v>12298</v>
+        <v>12280</v>
       </c>
       <c r="L233" s="2">
-        <v>12299</v>
+        <v>12281</v>
       </c>
       <c r="M233" s="2">
-        <v>12300</v>
+        <v>12282</v>
       </c>
       <c r="N233" s="2">
-        <v>12301</v>
+        <v>12283</v>
       </c>
     </row>
     <row r="234" spans="1:14">
       <c r="A234">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B234" t="s">
         <v>272</v>
       </c>
       <c r="C234" s="49">
-        <v>1029</v>
+        <v>1147</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -9202,42 +9443,42 @@
         <v>1</v>
       </c>
       <c r="F234" s="2">
-        <v>12302</v>
+        <v>12284</v>
       </c>
       <c r="G234" s="2">
-        <v>12303</v>
+        <v>12285</v>
       </c>
       <c r="H234" s="2">
-        <v>12304</v>
+        <v>12286</v>
       </c>
       <c r="I234" s="2">
-        <v>12305</v>
+        <v>12287</v>
       </c>
       <c r="J234" s="2">
-        <v>12306</v>
+        <v>12288</v>
       </c>
       <c r="K234" s="2">
-        <v>12307</v>
+        <v>12289</v>
       </c>
       <c r="L234" s="2">
-        <v>12308</v>
+        <v>12290</v>
       </c>
       <c r="M234" s="2">
-        <v>12309</v>
+        <v>12291</v>
       </c>
       <c r="N234" s="2">
-        <v>12310</v>
+        <v>12292</v>
       </c>
     </row>
     <row r="235" spans="1:14">
       <c r="A235">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B235" t="s">
         <v>273</v>
       </c>
       <c r="C235" s="49">
-        <v>1028</v>
+        <v>1146</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -9246,42 +9487,42 @@
         <v>1</v>
       </c>
       <c r="F235" s="2">
-        <v>12311</v>
+        <v>12293</v>
       </c>
       <c r="G235" s="2">
-        <v>12312</v>
+        <v>12294</v>
       </c>
       <c r="H235" s="2">
-        <v>12313</v>
+        <v>12295</v>
       </c>
       <c r="I235" s="2">
-        <v>12314</v>
+        <v>12296</v>
       </c>
       <c r="J235" s="2">
-        <v>12315</v>
+        <v>12297</v>
       </c>
       <c r="K235" s="2">
-        <v>12316</v>
+        <v>12298</v>
       </c>
       <c r="L235" s="2">
-        <v>12317</v>
+        <v>12299</v>
       </c>
       <c r="M235" s="2">
-        <v>12318</v>
+        <v>12300</v>
       </c>
       <c r="N235" s="2">
-        <v>12319</v>
+        <v>12301</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="A236">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B236" t="s">
         <v>274</v>
       </c>
       <c r="C236" s="49">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -9290,42 +9531,42 @@
         <v>1</v>
       </c>
       <c r="F236" s="2">
-        <v>12320</v>
+        <v>12302</v>
       </c>
       <c r="G236" s="2">
-        <v>12321</v>
+        <v>12303</v>
       </c>
       <c r="H236" s="2">
-        <v>12322</v>
+        <v>12304</v>
       </c>
       <c r="I236" s="2">
-        <v>12323</v>
+        <v>12305</v>
       </c>
       <c r="J236" s="2">
-        <v>12324</v>
+        <v>12306</v>
       </c>
       <c r="K236" s="2">
-        <v>12325</v>
+        <v>12307</v>
       </c>
       <c r="L236" s="2">
-        <v>12326</v>
+        <v>12308</v>
       </c>
       <c r="M236" s="2">
-        <v>12327</v>
+        <v>12309</v>
       </c>
       <c r="N236" s="2">
-        <v>12328</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="237" spans="1:14">
       <c r="A237">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B237" t="s">
         <v>275</v>
       </c>
       <c r="C237" s="49">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -9334,42 +9575,42 @@
         <v>1</v>
       </c>
       <c r="F237" s="2">
-        <v>12329</v>
+        <v>12311</v>
       </c>
       <c r="G237" s="2">
-        <v>12330</v>
+        <v>12312</v>
       </c>
       <c r="H237" s="2">
-        <v>12331</v>
+        <v>12313</v>
       </c>
       <c r="I237" s="2">
-        <v>12332</v>
+        <v>12314</v>
       </c>
       <c r="J237" s="2">
-        <v>12333</v>
+        <v>12315</v>
       </c>
       <c r="K237" s="2">
-        <v>12334</v>
+        <v>12316</v>
       </c>
       <c r="L237" s="2">
-        <v>12335</v>
+        <v>12317</v>
       </c>
       <c r="M237" s="2">
-        <v>12336</v>
+        <v>12318</v>
       </c>
       <c r="N237" s="2">
-        <v>12337</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="238" spans="1:14">
       <c r="A238">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B238" t="s">
         <v>276</v>
       </c>
       <c r="C238" s="49">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -9378,126 +9619,174 @@
         <v>1</v>
       </c>
       <c r="F238" s="2">
-        <v>12338</v>
+        <v>12320</v>
       </c>
       <c r="G238" s="2">
-        <v>12339</v>
+        <v>12321</v>
       </c>
       <c r="H238" s="2">
-        <v>12340</v>
+        <v>12322</v>
       </c>
       <c r="I238" s="2">
-        <v>12341</v>
+        <v>12323</v>
       </c>
       <c r="J238" s="2">
-        <v>12342</v>
+        <v>12324</v>
       </c>
       <c r="K238" s="2">
-        <v>12343</v>
+        <v>12325</v>
       </c>
       <c r="L238" s="2">
-        <v>12344</v>
+        <v>12326</v>
       </c>
       <c r="M238" s="2">
-        <v>12345</v>
+        <v>12327</v>
       </c>
       <c r="N238" s="2">
-        <v>12346</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="239" spans="1:14">
       <c r="A239">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B239" t="s">
         <v>277</v>
       </c>
       <c r="C239" s="49">
+        <v>1026</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="2">
+        <v>12329</v>
+      </c>
+      <c r="G239" s="2">
+        <v>12330</v>
+      </c>
+      <c r="H239" s="2">
+        <v>12331</v>
+      </c>
+      <c r="I239" s="2">
+        <v>12332</v>
+      </c>
+      <c r="J239" s="2">
+        <v>12333</v>
+      </c>
+      <c r="K239" s="2">
+        <v>12334</v>
+      </c>
+      <c r="L239" s="2">
+        <v>12335</v>
+      </c>
+      <c r="M239" s="2">
+        <v>12336</v>
+      </c>
+      <c r="N239" s="2">
+        <v>12337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240">
+        <v>1189</v>
+      </c>
+      <c r="B240" t="s">
+        <v>278</v>
+      </c>
+      <c r="C240" s="49">
         <v>1025</v>
       </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239" s="2">
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" s="2">
+        <v>12338</v>
+      </c>
+      <c r="G240" s="2">
+        <v>12339</v>
+      </c>
+      <c r="H240" s="2">
+        <v>12340</v>
+      </c>
+      <c r="I240" s="2">
+        <v>12341</v>
+      </c>
+      <c r="J240" s="2">
+        <v>12342</v>
+      </c>
+      <c r="K240" s="2">
+        <v>12343</v>
+      </c>
+      <c r="L240" s="2">
+        <v>12344</v>
+      </c>
+      <c r="M240" s="2">
+        <v>12345</v>
+      </c>
+      <c r="N240" s="2">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241">
+        <v>1190</v>
+      </c>
+      <c r="B241" t="s">
+        <v>279</v>
+      </c>
+      <c r="C241" s="49">
+        <v>1025</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2">
         <v>12347</v>
       </c>
-      <c r="G239" s="2">
+      <c r="G241" s="2">
         <v>12348</v>
       </c>
-      <c r="H239" s="2">
+      <c r="H241" s="2">
         <v>12349</v>
       </c>
-      <c r="I239" s="2">
+      <c r="I241" s="2">
         <v>12350</v>
       </c>
-      <c r="J239" s="2">
+      <c r="J241" s="2">
         <v>12351</v>
       </c>
-      <c r="K239" s="2">
+      <c r="K241" s="2">
         <v>12352</v>
       </c>
-      <c r="L239" s="2">
+      <c r="L241" s="2">
         <v>12353</v>
       </c>
-      <c r="M239" s="2">
+      <c r="M241" s="2">
         <v>12354</v>
       </c>
-      <c r="N239" s="2">
+      <c r="N241" s="2">
         <v>12355</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>1191</v>
-      </c>
-      <c r="B240" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C240" s="51">
-        <v>1688</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240" s="1">
-        <v>12356</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>1192</v>
-      </c>
-      <c r="B241" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="C241" s="51">
-        <v>1689</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241" s="1">
-        <v>12357</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>1193</v>
-      </c>
-      <c r="B242" s="52" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B242" s="50" t="s">
         <v>280</v>
       </c>
       <c r="C242" s="51">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -9506,18 +9795,18 @@
         <v>1</v>
       </c>
       <c r="F242" s="1">
-        <v>12358</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B243" s="52" t="s">
         <v>281</v>
       </c>
       <c r="C243" s="51">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -9526,18 +9815,18 @@
         <v>1</v>
       </c>
       <c r="F243" s="1">
-        <v>12359</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B244" s="52" t="s">
         <v>282</v>
       </c>
       <c r="C244" s="51">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -9546,18 +9835,18 @@
         <v>1</v>
       </c>
       <c r="F244" s="1">
-        <v>12360</v>
+        <v>12358</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B245" s="52" t="s">
         <v>283</v>
       </c>
       <c r="C245" s="51">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -9566,18 +9855,18 @@
         <v>1</v>
       </c>
       <c r="F245" s="1">
-        <v>12361</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B246" s="52" t="s">
         <v>284</v>
       </c>
       <c r="C246" s="51">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -9586,18 +9875,18 @@
         <v>1</v>
       </c>
       <c r="F246" s="1">
-        <v>12362</v>
+        <v>12360</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B247" s="52" t="s">
         <v>285</v>
       </c>
       <c r="C247" s="51">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -9606,18 +9895,18 @@
         <v>1</v>
       </c>
       <c r="F247" s="1">
-        <v>12363</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B248" s="52" t="s">
         <v>286</v>
       </c>
       <c r="C248" s="51">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -9626,18 +9915,18 @@
         <v>1</v>
       </c>
       <c r="F248" s="1">
-        <v>12364</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B249" s="52" t="s">
         <v>287</v>
       </c>
       <c r="C249" s="51">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -9646,18 +9935,18 @@
         <v>1</v>
       </c>
       <c r="F249" s="1">
-        <v>12365</v>
+        <v>12363</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B250" s="52" t="s">
         <v>288</v>
       </c>
       <c r="C250" s="51">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -9666,18 +9955,18 @@
         <v>1</v>
       </c>
       <c r="F250" s="1">
-        <v>12366</v>
+        <v>12364</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B251" s="52" t="s">
         <v>289</v>
       </c>
       <c r="C251" s="51">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -9686,18 +9975,18 @@
         <v>1</v>
       </c>
       <c r="F251" s="1">
-        <v>12367</v>
+        <v>12365</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B252" s="52" t="s">
         <v>290</v>
       </c>
       <c r="C252" s="51">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -9706,18 +9995,18 @@
         <v>1</v>
       </c>
       <c r="F252" s="1">
-        <v>12368</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B253" s="52" t="s">
         <v>291</v>
       </c>
       <c r="C253" s="51">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -9726,18 +10015,18 @@
         <v>1</v>
       </c>
       <c r="F253" s="1">
-        <v>12369</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B254" s="52" t="s">
         <v>292</v>
       </c>
       <c r="C254" s="51">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -9746,18 +10035,18 @@
         <v>1</v>
       </c>
       <c r="F254" s="1">
-        <v>12370</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B255" s="52" t="s">
         <v>293</v>
       </c>
       <c r="C255" s="51">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -9766,18 +10055,18 @@
         <v>1</v>
       </c>
       <c r="F255" s="1">
-        <v>12371</v>
+        <v>12369</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B256" s="52" t="s">
         <v>294</v>
       </c>
       <c r="C256" s="51">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -9786,18 +10075,18 @@
         <v>1</v>
       </c>
       <c r="F256" s="1">
-        <v>12372</v>
+        <v>12370</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B257" s="52" t="s">
         <v>295</v>
       </c>
       <c r="C257" s="51">
-        <v>1681</v>
+        <v>1703</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -9806,18 +10095,18 @@
         <v>1</v>
       </c>
       <c r="F257" s="1">
-        <v>12373</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B258" s="52" t="s">
         <v>296</v>
       </c>
       <c r="C258" s="51">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -9826,18 +10115,18 @@
         <v>1</v>
       </c>
       <c r="F258" s="1">
-        <v>12374</v>
+        <v>12372</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>1210</v>
-      </c>
-      <c r="B259" s="50" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B259" s="52" t="s">
         <v>297</v>
       </c>
       <c r="C259" s="51">
-        <v>1704</v>
+        <v>1681</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -9846,18 +10135,18 @@
         <v>1</v>
       </c>
       <c r="F259" s="1">
-        <v>12375</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B260" s="52" t="s">
         <v>298</v>
       </c>
       <c r="C260" s="51">
-        <v>1705</v>
+        <v>1686</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -9866,18 +10155,18 @@
         <v>1</v>
       </c>
       <c r="F260" s="1">
-        <v>12376</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>1212</v>
-      </c>
-      <c r="B261" s="52" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B261" s="50" t="s">
         <v>299</v>
       </c>
       <c r="C261" s="51">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -9886,18 +10175,18 @@
         <v>1</v>
       </c>
       <c r="F261" s="1">
-        <v>12377</v>
+        <v>12375</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B262" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C262" s="51">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -9906,18 +10195,18 @@
         <v>1</v>
       </c>
       <c r="F262" s="1">
-        <v>12378</v>
+        <v>12376</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B263" s="52" t="s">
         <v>301</v>
       </c>
       <c r="C263" s="51">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -9926,18 +10215,18 @@
         <v>1</v>
       </c>
       <c r="F263" s="1">
-        <v>12379</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B264" s="52" t="s">
         <v>302</v>
       </c>
       <c r="C264" s="51">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -9946,18 +10235,18 @@
         <v>1</v>
       </c>
       <c r="F264" s="1">
-        <v>12380</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B265" s="52" t="s">
         <v>303</v>
       </c>
       <c r="C265" s="51">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -9966,18 +10255,18 @@
         <v>1</v>
       </c>
       <c r="F265" s="1">
-        <v>12381</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B266" s="52" t="s">
         <v>304</v>
       </c>
       <c r="C266" s="51">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -9986,18 +10275,18 @@
         <v>1</v>
       </c>
       <c r="F266" s="1">
-        <v>12382</v>
+        <v>12380</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B267" s="52" t="s">
         <v>305</v>
       </c>
       <c r="C267" s="51">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -10006,18 +10295,18 @@
         <v>1</v>
       </c>
       <c r="F267" s="1">
-        <v>12383</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B268" s="52" t="s">
         <v>306</v>
       </c>
       <c r="C268" s="51">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -10026,18 +10315,18 @@
         <v>1</v>
       </c>
       <c r="F268" s="1">
-        <v>12384</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B269" s="52" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="C269" s="51">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -10046,18 +10335,18 @@
         <v>1</v>
       </c>
       <c r="F269" s="1">
-        <v>12385</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B270" s="52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C270" s="51">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -10066,18 +10355,18 @@
         <v>1</v>
       </c>
       <c r="F270" s="1">
-        <v>12386</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B271" s="52" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="C271" s="51">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -10086,18 +10375,18 @@
         <v>1</v>
       </c>
       <c r="F271" s="1">
-        <v>12387</v>
+        <v>12385</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B272" s="52" t="s">
         <v>309</v>
       </c>
       <c r="C272" s="51">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -10106,18 +10395,18 @@
         <v>1</v>
       </c>
       <c r="F272" s="1">
-        <v>12388</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B273" s="52" t="s">
         <v>310</v>
       </c>
       <c r="C273" s="51">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -10126,18 +10415,18 @@
         <v>1</v>
       </c>
       <c r="F273" s="1">
-        <v>12389</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B274" s="52" t="s">
         <v>311</v>
       </c>
       <c r="C274" s="51">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -10146,18 +10435,18 @@
         <v>1</v>
       </c>
       <c r="F274" s="1">
-        <v>12390</v>
+        <v>12388</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>1226</v>
-      </c>
-      <c r="B275" s="29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B275" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="C275" s="30">
-        <v>1037</v>
+      <c r="C275" s="51">
+        <v>1718</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -10165,19 +10454,19 @@
       <c r="E275">
         <v>1</v>
       </c>
-      <c r="F275" s="39">
-        <v>12397</v>
+      <c r="F275" s="1">
+        <v>12389</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>1227</v>
-      </c>
-      <c r="B276" s="29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B276" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C276" s="28">
-        <v>1007</v>
+      <c r="C276" s="51">
+        <v>1719</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -10185,19 +10474,19 @@
       <c r="E276">
         <v>1</v>
       </c>
-      <c r="F276" s="39">
-        <v>12398</v>
+      <c r="F276" s="1">
+        <v>12390</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B277" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C277" s="30">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -10206,18 +10495,18 @@
         <v>1</v>
       </c>
       <c r="F277" s="39">
-        <v>12399</v>
+        <v>12397</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B278" s="29" t="s">
         <v>315</v>
       </c>
       <c r="C278" s="28">
-        <v>1062</v>
+        <v>1007</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -10226,18 +10515,18 @@
         <v>1</v>
       </c>
       <c r="F278" s="39">
-        <v>12400</v>
+        <v>12398</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B279" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C279" s="28">
-        <v>1072</v>
+      <c r="C279" s="30">
+        <v>1051</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -10246,18 +10535,18 @@
         <v>1</v>
       </c>
       <c r="F279" s="39">
-        <v>12401</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B280" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C280" s="28">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -10266,18 +10555,18 @@
         <v>1</v>
       </c>
       <c r="F280" s="39">
-        <v>12402</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B281" s="29" t="s">
         <v>318</v>
       </c>
       <c r="C281" s="28">
-        <v>1152</v>
+        <v>1072</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -10286,18 +10575,18 @@
         <v>1</v>
       </c>
       <c r="F281" s="39">
-        <v>12403</v>
+        <v>12401</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>1233</v>
-      </c>
-      <c r="B282" s="20" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B282" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C282" s="21">
-        <v>1012</v>
+      <c r="C282" s="28">
+        <v>1081</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -10306,18 +10595,18 @@
         <v>1</v>
       </c>
       <c r="F282" s="39">
-        <v>12404</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>1234</v>
-      </c>
-      <c r="B283" s="20" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B283" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C283" s="21">
-        <v>1017</v>
+      <c r="C283" s="28">
+        <v>1152</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -10326,18 +10615,18 @@
         <v>1</v>
       </c>
       <c r="F283" s="39">
-        <v>12405</v>
+        <v>12403</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B284" s="20" t="s">
         <v>321</v>
       </c>
       <c r="C284" s="21">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -10346,18 +10635,18 @@
         <v>1</v>
       </c>
       <c r="F284" s="39">
-        <v>12406</v>
+        <v>12404</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B285" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C285" s="21">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -10366,18 +10655,18 @@
         <v>1</v>
       </c>
       <c r="F285" s="39">
-        <v>12407</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C286" s="21">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -10386,18 +10675,18 @@
         <v>1</v>
       </c>
       <c r="F286" s="39">
-        <v>12408</v>
+        <v>12406</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B287" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C287" s="21">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -10406,40 +10695,80 @@
         <v>1</v>
       </c>
       <c r="F287" s="39">
-        <v>12409</v>
+        <v>12407</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
+        <v>1237</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C288" s="21">
+        <v>1013</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>12408</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>1238</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C289" s="21">
+        <v>1011</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" s="39">
+        <v>12409</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
         <v>1239</v>
       </c>
-      <c r="B288" s="20" t="s">
+      <c r="B290" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C288" s="21">
+      <c r="C290" s="21">
         <v>1181</v>
       </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
         <v>12410</v>
       </c>
-    </row>
-    <row r="289" spans="3:3">
-      <c r="C289" s="41"/>
-    </row>
-    <row r="290" spans="3:3">
-      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" s="41"/>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" s="41"/>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="41"/>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,11 +24,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 主要针对装备的不同品质分为X个组，添加装备或者减少装备都要调整组
 （每个品质是一个组）</t>
         </r>
@@ -39,8 +39,8 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">user:
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
   <si>
     <t>ID</t>
   </si>
@@ -222,6 +222,33 @@
     <t>稀有宝宝</t>
   </si>
   <si>
+    <t>剑侠客剑</t>
+  </si>
+  <si>
+    <t>龙太子枪</t>
+  </si>
+  <si>
+    <t>虎头怪锤</t>
+  </si>
+  <si>
+    <t>逍遥生扇</t>
+  </si>
+  <si>
+    <t>玄彩娥棒</t>
+  </si>
+  <si>
+    <t>骨精灵爪</t>
+  </si>
+  <si>
+    <t>神天兵枪</t>
+  </si>
+  <si>
+    <t>巨魔王镰</t>
+  </si>
+  <si>
+    <t>飞燕女环</t>
+  </si>
+  <si>
     <t>甲</t>
   </si>
   <si>
@@ -243,6 +270,33 @@
     <t>履</t>
   </si>
   <si>
+    <t>舞天姬飘带</t>
+  </si>
+  <si>
+    <t>桃夭夭灯笼</t>
+  </si>
+  <si>
+    <t>狐美人鞭子</t>
+  </si>
+  <si>
+    <t>杀破狼弓</t>
+  </si>
+  <si>
+    <t>偃无师剑</t>
+  </si>
+  <si>
+    <t>羽灵神法杖</t>
+  </si>
+  <si>
+    <t>巫蛮儿法杖</t>
+  </si>
+  <si>
+    <t>鬼潇潇伞</t>
+  </si>
+  <si>
+    <t>英女侠双剑</t>
+  </si>
+  <si>
     <t>高级必杀</t>
   </si>
   <si>
@@ -1009,69 +1063,19 @@
   </si>
   <si>
     <t>佛光舍利子</t>
-  </si>
-  <si>
-    <t>舞天姬飘带</t>
-  </si>
-  <si>
-    <t>桃夭夭飘带</t>
-  </si>
-  <si>
-    <t>狐美人鞭子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀破狼弓</t>
-  </si>
-  <si>
-    <t>偃无师剑</t>
-  </si>
-  <si>
-    <t>羽灵神法杖</t>
-  </si>
-  <si>
-    <t>巫蛮儿法杖</t>
-  </si>
-  <si>
-    <t>鬼潇潇爪刺</t>
-  </si>
-  <si>
-    <t>英女侠双剑</t>
-  </si>
-  <si>
-    <t>剑侠客剑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙太子枪</t>
-  </si>
-  <si>
-    <t>虎头怪锤</t>
-  </si>
-  <si>
-    <t>逍遥生扇</t>
-  </si>
-  <si>
-    <t>玄彩娥棒</t>
-  </si>
-  <si>
-    <t>骨精灵爪</t>
-  </si>
-  <si>
-    <t>神天兵枪</t>
-  </si>
-  <si>
-    <t>巨魔王镰</t>
-  </si>
-  <si>
-    <t>飞燕女环</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1080,36 +1084,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1117,37 +1121,33 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1155,45 +1155,161 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,7 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,13 +1336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,19 +1354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,12 +1402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1304,17 +1414,271 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1332,22 +1696,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,126 +1890,164 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1827,15 +2379,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AR303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R181" sqref="R181"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
@@ -1847,7 +2401,7 @@
     <col min="31" max="31" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +2535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2061,7 +2615,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>101</v>
       </c>
@@ -2141,7 +2695,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>102</v>
       </c>
@@ -2221,7 +2775,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>103</v>
       </c>
@@ -2301,7 +2855,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>104</v>
       </c>
@@ -2381,7 +2935,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2461,7 +3015,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2541,7 +3095,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>107</v>
       </c>
@@ -2621,7 +3175,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>108</v>
       </c>
@@ -2710,7 +3264,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>109</v>
       </c>
@@ -2802,7 +3356,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>110</v>
       </c>
@@ -2886,15 +3440,15 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A13" s="1">
         <v>200</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>327</v>
+      <c r="B13" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="11">
-        <v>87</v>
+        <v>1531</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2927,15 +3481,15 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A14" s="1">
         <v>201</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>328</v>
+      <c r="B14" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="11">
-        <v>131</v>
+        <v>1531</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2968,15 +3522,15 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A15" s="1">
         <v>202</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>329</v>
+      <c r="B15" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="11">
-        <v>89</v>
+        <v>1531</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3009,15 +3563,15 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A16" s="1">
         <v>203</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>330</v>
+      <c r="B16" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C16" s="11">
-        <v>98</v>
+        <v>1531</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3050,15 +3604,15 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A17" s="1">
         <v>204</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>331</v>
+      <c r="B17" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="11">
-        <v>84</v>
+        <v>1531</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -3091,15 +3645,15 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A18" s="1">
         <v>205</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1627</v>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1531</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3132,15 +3686,15 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A19" s="1">
         <v>206</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>333</v>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="11">
-        <v>89</v>
+        <v>1531</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3173,15 +3727,15 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A20" s="1">
         <v>207</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>334</v>
+      <c r="B20" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="11">
-        <v>88</v>
+        <v>1531</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -3214,15 +3768,15 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A21" s="1">
         <v>208</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>335</v>
+      <c r="B21" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="11">
-        <v>130</v>
+        <v>1531</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3255,12 +3809,12 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" spans="1:13">
       <c r="A22" s="1">
         <v>209</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>55</v>
+      <c r="B22" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="13">
         <v>141</v>
@@ -3296,14 +3850,14 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="14">
         <v>1629</v>
       </c>
       <c r="D23" s="1">
@@ -3337,12 +3891,12 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" spans="1:13">
       <c r="A24" s="1">
         <v>211</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>57</v>
+      <c r="B24" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="13">
         <v>85</v>
@@ -3378,12 +3932,12 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" spans="1:13">
       <c r="A25" s="1">
         <v>212</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>58</v>
+      <c r="B25" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="13">
         <v>86</v>
@@ -3419,12 +3973,12 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" spans="1:13">
       <c r="A26" s="1">
         <v>213</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>59</v>
+      <c r="B26" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="13">
         <v>93</v>
@@ -3460,12 +4014,12 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" spans="1:13">
       <c r="A27" s="1">
         <v>214</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>60</v>
+      <c r="B27" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="13">
         <v>94</v>
@@ -3501,12 +4055,12 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" spans="1:13">
       <c r="A28" s="1">
         <v>215</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>61</v>
+      <c r="B28" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="13">
         <v>92</v>
@@ -3542,15 +4096,15 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A29" s="1">
         <v>216</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>318</v>
+      <c r="B29" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="11">
-        <v>87</v>
+        <v>1531</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3558,40 +4112,40 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="15">
         <v>12462</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="15">
         <v>12463</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="15">
         <v>12464</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="15">
         <v>12465</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="15">
         <v>12466</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="15">
         <v>12467</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="15">
         <v>12468</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="15">
         <v>12469</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A30" s="1">
         <v>217</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>319</v>
+      <c r="B30" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="11">
-        <v>131</v>
+        <v>1531</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3599,40 +4153,40 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="15">
         <v>12470</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="15">
         <v>12471</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="15">
         <v>12472</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="15">
         <v>12473</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="15">
         <v>12474</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="15">
         <v>12475</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="15">
         <v>12476</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="15">
         <v>12477</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A31" s="1">
         <v>218</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>320</v>
+      <c r="B31" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C31" s="11">
-        <v>89</v>
+        <v>1531</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -3640,40 +4194,40 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="15">
         <v>12478</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="15">
         <v>12479</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="15">
         <v>12480</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="15">
         <v>12481</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="15">
         <v>12482</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="15">
         <v>12483</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="15">
         <v>12484</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="15">
         <v>12485</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A32" s="1">
         <v>219</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>321</v>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C32" s="11">
-        <v>98</v>
+        <v>1531</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3681,40 +4235,40 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="15">
         <v>12486</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="15">
         <v>12487</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="15">
         <v>12488</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="15">
         <v>12489</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="15">
         <v>12490</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="15">
         <v>12491</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="15">
         <v>12492</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="15">
         <v>12493</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A33" s="1">
         <v>220</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>322</v>
+      <c r="B33" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C33" s="11">
-        <v>87</v>
+        <v>1531</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -3722,40 +4276,40 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="15">
         <v>12494</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="15">
         <v>12495</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="15">
         <v>12496</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="15">
         <v>12497</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="15">
         <v>12498</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="15">
         <v>12499</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="15">
         <v>12500</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="15">
         <v>12501</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A34" s="1">
         <v>221</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1627</v>
+      <c r="B34" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1531</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -3763,40 +4317,40 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="15">
         <v>12502</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="15">
         <v>12503</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="15">
         <v>12504</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="15">
         <v>12505</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="15">
         <v>12506</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="15">
         <v>12507</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="15">
         <v>12508</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="15">
         <v>12509</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A35" s="1">
         <v>222</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>324</v>
+      <c r="B35" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="11">
-        <v>89</v>
+        <v>1531</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -3804,40 +4358,40 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="15">
         <v>12510</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="15">
         <v>12511</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="15">
         <v>12512</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="15">
         <v>12513</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="15">
         <v>12514</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="15">
         <v>12515</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="15">
         <v>12516</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="15">
         <v>12517</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A36" s="1">
         <v>223</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1627</v>
+      <c r="B36" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1531</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3845,40 +4399,40 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="15">
         <v>12518</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="15">
         <v>12519</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="15">
         <v>12520</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="15">
         <v>12521</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="15">
         <v>12522</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="15">
         <v>12523</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="15">
         <v>12524</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="15">
         <v>12525</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A37" s="1">
         <v>224</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>326</v>
+      <c r="B37" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="11">
-        <v>130</v>
+        <v>1531</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -3886,37 +4440,37 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="15">
         <v>12526</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="15">
         <v>12527</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="15">
         <v>12528</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="15">
         <v>12529</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="15">
         <v>12530</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="15">
         <v>12531</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="15">
         <v>12532</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="15">
         <v>12533</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>300</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>62</v>
+      <c r="B38" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1095</v>
@@ -3931,12 +4485,12 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>301</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>63</v>
+      <c r="B39" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C39">
         <v>1095</v>
@@ -3951,12 +4505,12 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>302</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>64</v>
+      <c r="B40" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C40">
         <v>1095</v>
@@ -3971,12 +4525,12 @@
         <v>7002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>303</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>65</v>
+      <c r="B41" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C41">
         <v>1095</v>
@@ -3991,12 +4545,12 @@
         <v>7003</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>304</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>66</v>
+      <c r="B42" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C42">
         <v>1095</v>
@@ -4012,12 +4566,12 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>305</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>67</v>
+      <c r="B43" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C43">
         <v>1095</v>
@@ -4033,12 +4587,12 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>306</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>68</v>
+      <c r="B44" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C44">
         <v>1095</v>
@@ -4054,12 +4608,12 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>307</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>69</v>
+      <c r="B45" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C45">
         <v>1095</v>
@@ -4074,12 +4628,12 @@
         <v>7007</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>308</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>70</v>
+      <c r="B46" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C46">
         <v>1095</v>
@@ -4095,12 +4649,12 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>309</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>71</v>
+      <c r="B47" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C47">
         <v>1095</v>
@@ -4116,12 +4670,12 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>310</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>72</v>
+      <c r="B48" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C48">
         <v>1095</v>
@@ -4137,12 +4691,12 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>311</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>73</v>
+      <c r="B49" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C49">
         <v>1095</v>
@@ -4157,12 +4711,12 @@
         <v>7011</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>312</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>74</v>
+      <c r="B50" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C50">
         <v>1095</v>
@@ -4177,12 +4731,12 @@
         <v>7012</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>313</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>75</v>
+      <c r="B51" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C51">
         <v>1095</v>
@@ -4197,12 +4751,12 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>314</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>76</v>
+      <c r="B52" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C52">
         <v>1095</v>
@@ -4217,12 +4771,12 @@
         <v>7014</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>315</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>77</v>
+      <c r="B53" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C53">
         <v>1095</v>
@@ -4237,12 +4791,12 @@
         <v>7015</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>316</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>78</v>
+      <c r="B54" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="C54">
         <v>1095</v>
@@ -4257,12 +4811,12 @@
         <v>7016</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>317</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>79</v>
+      <c r="B55" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C55">
         <v>1095</v>
@@ -4277,12 +4831,12 @@
         <v>7017</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>318</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>80</v>
+      <c r="B56" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="C56">
         <v>1095</v>
@@ -4297,12 +4851,12 @@
         <v>7018</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>319</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>81</v>
+      <c r="B57" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="C57">
         <v>1095</v>
@@ -4317,12 +4871,12 @@
         <v>7019</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>320</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>82</v>
+      <c r="B58" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="C58">
         <v>1095</v>
@@ -4337,12 +4891,12 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>321</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>83</v>
+      <c r="B59" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C59">
         <v>1095</v>
@@ -4357,12 +4911,12 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>322</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>84</v>
+      <c r="B60" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="C60">
         <v>1095</v>
@@ -4377,12 +4931,12 @@
         <v>7022</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>323</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>85</v>
+      <c r="B61" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C61">
         <v>1095</v>
@@ -4397,12 +4951,12 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>324</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>86</v>
+      <c r="B62" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C62">
         <v>1095</v>
@@ -4417,12 +4971,12 @@
         <v>7024</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>325</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>87</v>
+      <c r="B63" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C63">
         <v>1095</v>
@@ -4437,12 +4991,12 @@
         <v>7025</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>326</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>88</v>
+      <c r="B64" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="C64">
         <v>1095</v>
@@ -4457,12 +5011,12 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>327</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>89</v>
+      <c r="B65" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="C65">
         <v>1095</v>
@@ -4477,12 +5031,12 @@
         <v>7027</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>328</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>90</v>
+      <c r="B66" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C66">
         <v>1095</v>
@@ -4497,12 +5051,12 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>329</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>91</v>
+      <c r="B67" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C67">
         <v>1095</v>
@@ -4517,12 +5071,12 @@
         <v>7029</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>330</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>92</v>
+      <c r="B68" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C68">
         <v>1095</v>
@@ -4537,12 +5091,12 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>331</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>93</v>
+      <c r="B69" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C69">
         <v>1095</v>
@@ -4557,12 +5111,12 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>332</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>94</v>
+      <c r="B70" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C70">
         <v>1095</v>
@@ -4577,12 +5131,12 @@
         <v>7032</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>333</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>95</v>
+      <c r="B71" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="C71">
         <v>1095</v>
@@ -4597,12 +5151,12 @@
         <v>7033</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>334</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>96</v>
+      <c r="B72" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C72">
         <v>1095</v>
@@ -4617,12 +5171,12 @@
         <v>7034</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>335</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>97</v>
+      <c r="B73" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C73">
         <v>1095</v>
@@ -4637,12 +5191,12 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>336</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>98</v>
+      <c r="B74" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="C74">
         <v>1095</v>
@@ -4657,12 +5211,12 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>337</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>99</v>
+      <c r="B75" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C75">
         <v>1095</v>
@@ -4677,12 +5231,12 @@
         <v>7037</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>338</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>100</v>
+      <c r="B76" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C76">
         <v>1095</v>
@@ -4697,12 +5251,12 @@
         <v>7038</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>339</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>101</v>
+      <c r="B77" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C77">
         <v>1095</v>
@@ -4717,12 +5271,12 @@
         <v>7039</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>340</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>102</v>
+      <c r="B78" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C78">
         <v>1095</v>
@@ -4737,12 +5291,12 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>341</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>103</v>
+      <c r="B79" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C79">
         <v>1095</v>
@@ -4757,12 +5311,12 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>342</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>104</v>
+      <c r="B80" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C80">
         <v>1095</v>
@@ -4777,12 +5331,12 @@
         <v>7042</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>343</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>105</v>
+      <c r="B81" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C81">
         <v>1095</v>
@@ -4797,12 +5351,12 @@
         <v>7043</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>344</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>106</v>
+      <c r="B82" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C82">
         <v>1095</v>
@@ -4817,12 +5371,12 @@
         <v>7044</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>345</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>107</v>
+      <c r="B83" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C83">
         <v>1095</v>
@@ -4837,12 +5391,12 @@
         <v>7045</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>346</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>108</v>
+      <c r="B84" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C84">
         <v>1095</v>
@@ -4857,12 +5411,12 @@
         <v>7046</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>347</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>109</v>
+      <c r="B85" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C85">
         <v>1095</v>
@@ -4877,12 +5431,12 @@
         <v>7047</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>348</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>110</v>
+      <c r="B86" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C86">
         <v>1095</v>
@@ -4897,12 +5451,12 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>349</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>111</v>
+      <c r="B87" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="C87">
         <v>1095</v>
@@ -4917,12 +5471,12 @@
         <v>7049</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>350</v>
       </c>
-      <c r="B88" s="16" t="s">
-        <v>89</v>
+      <c r="B88" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="C88">
         <v>1095</v>
@@ -4937,12 +5491,12 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>351</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>112</v>
+      <c r="B89" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C89">
         <v>1095</v>
@@ -4957,12 +5511,12 @@
         <v>7051</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>352</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>113</v>
+      <c r="B90" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C90">
         <v>1095</v>
@@ -4977,12 +5531,12 @@
         <v>7052</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>400</v>
       </c>
-      <c r="B91" s="19" t="s">
-        <v>114</v>
+      <c r="B91" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C91">
         <v>1166</v>
@@ -4997,12 +5551,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>401</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>115</v>
+      <c r="B92" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C92">
         <v>1166</v>
@@ -5017,12 +5571,12 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>402</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>116</v>
+      <c r="B93" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C93">
         <v>1166</v>
@@ -5037,12 +5591,12 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>403</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>117</v>
+      <c r="B94" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C94">
         <v>1166</v>
@@ -5057,12 +5611,12 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>404</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>118</v>
+      <c r="B95" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C95">
         <v>1166</v>
@@ -5077,12 +5631,12 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>405</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>119</v>
+      <c r="B96" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C96">
         <v>1166</v>
@@ -5097,12 +5651,12 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>406</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>120</v>
+      <c r="B97" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="C97">
         <v>1166</v>
@@ -5117,12 +5671,12 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>407</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>121</v>
+      <c r="B98" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C98">
         <v>1166</v>
@@ -5137,12 +5691,12 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>408</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>122</v>
+      <c r="B99" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C99">
         <v>1166</v>
@@ -5157,12 +5711,12 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>409</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>123</v>
+      <c r="B100" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="C100">
         <v>1166</v>
@@ -5177,12 +5731,12 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>410</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>124</v>
+      <c r="B101" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="C101">
         <v>1166</v>
@@ -5197,12 +5751,12 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>411</v>
       </c>
-      <c r="B102" s="19" t="s">
-        <v>125</v>
+      <c r="B102" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="C102">
         <v>1166</v>
@@ -5217,12 +5771,12 @@
         <v>6011</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>412</v>
       </c>
-      <c r="B103" s="19" t="s">
-        <v>126</v>
+      <c r="B103" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="C103">
         <v>1166</v>
@@ -5237,12 +5791,12 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>413</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>127</v>
+      <c r="B104" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C104">
         <v>1166</v>
@@ -5257,12 +5811,12 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>414</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>128</v>
+      <c r="B105" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="C105">
         <v>1166</v>
@@ -5277,12 +5831,12 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>415</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>129</v>
+      <c r="B106" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="C106">
         <v>1166</v>
@@ -5297,12 +5851,12 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>416</v>
       </c>
-      <c r="B107" s="19" t="s">
-        <v>130</v>
+      <c r="B107" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C107">
         <v>1166</v>
@@ -5317,12 +5871,12 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>417</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>131</v>
+      <c r="B108" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C108">
         <v>1166</v>
@@ -5337,12 +5891,12 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>418</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>132</v>
+      <c r="B109" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="C109">
         <v>1166</v>
@@ -5357,12 +5911,12 @@
         <v>6018</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>419</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>133</v>
+      <c r="B110" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C110">
         <v>1166</v>
@@ -5377,12 +5931,12 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>420</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>134</v>
+      <c r="B111" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C111">
         <v>1166</v>
@@ -5397,12 +5951,12 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>421</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>135</v>
+      <c r="B112" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="C112">
         <v>1166</v>
@@ -5417,12 +5971,12 @@
         <v>6021</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>422</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>136</v>
+      <c r="B113" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C113">
         <v>1166</v>
@@ -5437,12 +5991,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>423</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>137</v>
+      <c r="B114" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="C114">
         <v>1166</v>
@@ -5457,12 +6011,12 @@
         <v>6023</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>424</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>138</v>
+      <c r="B115" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C115">
         <v>1166</v>
@@ -5477,12 +6031,12 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>425</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>139</v>
+      <c r="B116" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="C116">
         <v>1166</v>
@@ -5497,12 +6051,12 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>426</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>140</v>
+      <c r="B117" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="C117">
         <v>1166</v>
@@ -5517,12 +6071,12 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>427</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>141</v>
+      <c r="B118" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="C118">
         <v>1166</v>
@@ -5537,12 +6091,12 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>428</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>142</v>
+      <c r="B119" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="C119">
         <v>1166</v>
@@ -5557,12 +6111,12 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>429</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>143</v>
+      <c r="B120" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C120">
         <v>1095</v>
@@ -5577,12 +6131,12 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>430</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>144</v>
+      <c r="B121" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C121">
         <v>1095</v>
@@ -5597,12 +6151,12 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>431</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>145</v>
+      <c r="B122" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C122">
         <v>1095</v>
@@ -5617,12 +6171,12 @@
         <v>6031</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>432</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>146</v>
+      <c r="B123" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C123">
         <v>1095</v>
@@ -5637,12 +6191,12 @@
         <v>6032</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>433</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>147</v>
+      <c r="B124" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="C124">
         <v>1095</v>
@@ -5657,12 +6211,12 @@
         <v>6033</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>434</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>148</v>
+      <c r="B125" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C125">
         <v>1095</v>
@@ -5677,12 +6231,12 @@
         <v>6034</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>435</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>149</v>
+      <c r="B126" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C126">
         <v>1095</v>
@@ -5697,12 +6251,12 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>436</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>150</v>
+      <c r="B127" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C127">
         <v>1095</v>
@@ -5717,12 +6271,12 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>437</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>151</v>
+      <c r="B128" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C128">
         <v>1095</v>
@@ -5737,12 +6291,12 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>438</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>152</v>
+      <c r="B129" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C129">
         <v>1095</v>
@@ -5757,12 +6311,12 @@
         <v>6038</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>439</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>153</v>
+      <c r="B130" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="C130">
         <v>1095</v>
@@ -5777,12 +6331,12 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>440</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>154</v>
+      <c r="B131" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C131">
         <v>1095</v>
@@ -5797,14 +6351,14 @@
         <v>6040</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>500</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C132" s="21">
+      <c r="B132" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="22">
         <v>1017</v>
       </c>
       <c r="D132">
@@ -5817,14 +6371,14 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>501</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C133" s="21">
+      <c r="B133" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="22">
         <v>1015</v>
       </c>
       <c r="D133">
@@ -5837,14 +6391,14 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>502</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="21">
+      <c r="B134" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="22">
         <v>1016</v>
       </c>
       <c r="D134">
@@ -5857,14 +6411,14 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>503</v>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C135" s="21">
+      <c r="B135" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="22">
         <v>1013</v>
       </c>
       <c r="D135">
@@ -5877,78 +6431,78 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" ht="14.25" spans="1:18">
       <c r="A136">
         <v>504</v>
       </c>
-      <c r="B136" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C136" s="22">
+      <c r="B136" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="23">
         <v>1181</v>
       </c>
-      <c r="D136" s="22">
+      <c r="D136" s="23">
         <v>1</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="23">
         <v>4004</v>
       </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="22"/>
-      <c r="L136" s="22"/>
-      <c r="M136" s="22"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="27"/>
-      <c r="Q136" s="26"/>
-      <c r="R136" s="26"/>
-    </row>
-    <row r="137" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="23">
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
+      <c r="Q136" s="41"/>
+      <c r="R136" s="41"/>
+    </row>
+    <row r="137" ht="14.25" spans="1:18">
+      <c r="A137" s="24">
         <v>600</v>
       </c>
-      <c r="B137" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" s="25">
+      <c r="B137" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="26">
         <v>1037</v>
       </c>
-      <c r="D137" s="23">
+      <c r="D137" s="24">
         <v>1</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137" s="23">
+      <c r="F137" s="24">
         <v>5000</v>
       </c>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
-      <c r="Q137" s="26"/>
-      <c r="R137" s="26"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="41"/>
+      <c r="R137" s="41"/>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>601</v>
       </c>
-      <c r="B138" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C138" s="28">
+      <c r="B138" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="27">
         <v>1007</v>
       </c>
       <c r="D138">
@@ -5961,14 +6515,14 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>602</v>
       </c>
-      <c r="B139" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C139" s="30">
+      <c r="B139" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="29">
         <v>1051</v>
       </c>
       <c r="D139">
@@ -5981,14 +6535,14 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>603</v>
       </c>
-      <c r="B140" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C140" s="28">
+      <c r="B140" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="27">
         <v>1062</v>
       </c>
       <c r="D140">
@@ -6001,14 +6555,14 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>604</v>
       </c>
-      <c r="B141" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C141" s="28">
+      <c r="B141" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="27">
         <v>1072</v>
       </c>
       <c r="D141">
@@ -6021,14 +6575,14 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>605</v>
       </c>
-      <c r="B142" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C142" s="28">
+      <c r="B142" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="27">
         <v>1081</v>
       </c>
       <c r="D142">
@@ -6041,14 +6595,14 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>606</v>
       </c>
-      <c r="B143" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" s="28">
+      <c r="B143" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="27">
         <v>1152</v>
       </c>
       <c r="D143">
@@ -6061,12 +6615,12 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17">
       <c r="A144">
         <v>700</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C144">
         <v>1137</v>
@@ -6114,12 +6668,12 @@
         <v>8035</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:17">
       <c r="A145">
         <v>701</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C145">
         <v>1138</v>
@@ -6167,12 +6721,12 @@
         <v>8038</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:17">
       <c r="A146">
         <v>702</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C146">
         <v>1139</v>
@@ -6220,14 +6774,14 @@
         <v>8032</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>800</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C147" s="32">
+      <c r="B147" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="31">
         <v>1054</v>
       </c>
       <c r="D147">
@@ -6240,14 +6794,14 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>801</v>
       </c>
-      <c r="B148" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C148" s="32">
+      <c r="B148" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="31">
         <v>1225</v>
       </c>
       <c r="D148">
@@ -6260,14 +6814,14 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>802</v>
       </c>
-      <c r="B149" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C149" s="32">
+      <c r="B149" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" s="31">
         <v>1067</v>
       </c>
       <c r="D149">
@@ -6280,14 +6834,14 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>803</v>
       </c>
-      <c r="B150" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C150" s="32">
+      <c r="B150" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" s="31">
         <v>1068</v>
       </c>
       <c r="D150">
@@ -6300,14 +6854,14 @@
         <v>9003</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>804</v>
       </c>
-      <c r="B151" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C151" s="32">
+      <c r="B151" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C151" s="31">
         <v>1069</v>
       </c>
       <c r="D151">
@@ -6320,14 +6874,14 @@
         <v>9004</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>805</v>
       </c>
-      <c r="B152" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C152" s="32">
+      <c r="B152" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C152" s="31">
         <v>1070</v>
       </c>
       <c r="D152">
@@ -6340,14 +6894,14 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>806</v>
       </c>
-      <c r="B153" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C153" s="32">
+      <c r="B153" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" s="31">
         <v>1110</v>
       </c>
       <c r="D153">
@@ -6360,14 +6914,14 @@
         <v>9006</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>807</v>
       </c>
-      <c r="B154" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C154" s="32">
+      <c r="B154" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" s="31">
         <v>1109</v>
       </c>
       <c r="D154">
@@ -6380,14 +6934,14 @@
         <v>9007</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>808</v>
       </c>
-      <c r="B155" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C155" s="32">
+      <c r="B155" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" s="31">
         <v>1111</v>
       </c>
       <c r="D155">
@@ -6400,14 +6954,14 @@
         <v>9008</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:41">
       <c r="A156">
         <v>900</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C156" s="33">
+      <c r="B156" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" s="32">
         <v>1499</v>
       </c>
       <c r="D156">
@@ -6525,14 +7079,14 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:41">
       <c r="A157">
         <v>901</v>
       </c>
-      <c r="B157" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C157" s="33">
+      <c r="B157" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="32">
         <v>1532</v>
       </c>
       <c r="D157">
@@ -6650,12 +7204,12 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>1000</v>
       </c>
-      <c r="B158" s="33" t="s">
-        <v>181</v>
+      <c r="B158" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="C158">
         <v>1182</v>
@@ -6682,12 +7236,12 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>1001</v>
       </c>
-      <c r="B159" s="33" t="s">
-        <v>182</v>
+      <c r="B159" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="C159">
         <v>1090</v>
@@ -6708,12 +7262,12 @@
         <v>10013</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>1002</v>
       </c>
-      <c r="B160" s="33" t="s">
-        <v>183</v>
+      <c r="B160" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="C160">
         <v>1059</v>
@@ -6740,12 +7294,12 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>1003</v>
       </c>
-      <c r="B161" s="33" t="s">
-        <v>184</v>
+      <c r="B161" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="C161">
         <v>1230</v>
@@ -6760,12 +7314,12 @@
         <v>10016</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>1004</v>
       </c>
-      <c r="B162" s="33" t="s">
-        <v>185</v>
+      <c r="B162" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="C162">
         <v>1087</v>
@@ -6780,14 +7334,14 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="163" spans="1:30" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" s="2" customFormat="1" spans="1:11">
       <c r="A163" s="2">
         <v>1005</v>
       </c>
-      <c r="B163" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C163" s="35">
+      <c r="B163" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="34">
         <v>261</v>
       </c>
       <c r="D163" s="2">
@@ -6815,14 +7369,14 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15">
       <c r="A164">
         <v>1100</v>
       </c>
-      <c r="B164" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C164" s="36">
+      <c r="B164" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="35">
         <v>1010</v>
       </c>
       <c r="D164">
@@ -6852,24 +7406,24 @@
       <c r="L164">
         <v>11006</v>
       </c>
-      <c r="M164" s="39">
+      <c r="M164" s="15">
         <v>12411</v>
       </c>
-      <c r="N164" s="39">
+      <c r="N164" s="15">
         <v>12412</v>
       </c>
-      <c r="O164" s="39">
+      <c r="O164" s="15">
         <v>12413</v>
       </c>
     </row>
-    <row r="165" spans="1:30" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:30">
       <c r="A165" s="3">
         <v>1101</v>
       </c>
-      <c r="B165" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C165" s="38">
+      <c r="B165" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="37">
         <v>1009</v>
       </c>
       <c r="D165" s="3">
@@ -6954,14 +7508,14 @@
         <v>11022</v>
       </c>
     </row>
-    <row r="166" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" s="3" customFormat="1" spans="1:30">
       <c r="A166" s="3">
         <v>1102</v>
       </c>
-      <c r="B166" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C166" s="38">
+      <c r="B166" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166" s="37">
         <v>1031</v>
       </c>
       <c r="D166" s="3">
@@ -7046,14 +7600,14 @@
         <v>11038</v>
       </c>
     </row>
-    <row r="167" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" s="3" customFormat="1" spans="1:30">
       <c r="A167" s="3">
         <v>1103</v>
       </c>
-      <c r="B167" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C167" s="37">
+      <c r="B167" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="36">
         <v>1033</v>
       </c>
       <c r="D167" s="3">
@@ -7138,14 +7692,14 @@
         <v>11054</v>
       </c>
     </row>
-    <row r="168" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" s="3" customFormat="1" spans="1:30">
       <c r="A168" s="3">
         <v>1104</v>
       </c>
-      <c r="B168" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C168" s="37">
+      <c r="B168" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="36">
         <v>1143</v>
       </c>
       <c r="D168" s="3">
@@ -7230,14 +7784,14 @@
         <v>11070</v>
       </c>
     </row>
-    <row r="169" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" s="3" customFormat="1" spans="1:30">
       <c r="A169" s="3">
         <v>1105</v>
       </c>
-      <c r="B169" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C169" s="38">
+      <c r="B169" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169" s="37">
         <v>1035</v>
       </c>
       <c r="D169" s="3">
@@ -7322,14 +7876,14 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="170" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" s="3" customFormat="1" spans="1:30">
       <c r="A170" s="3">
         <v>1106</v>
       </c>
-      <c r="B170" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C170" s="38">
+      <c r="B170" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170" s="37">
         <v>1042</v>
       </c>
       <c r="D170" s="3">
@@ -7414,14 +7968,14 @@
         <v>11102</v>
       </c>
     </row>
-    <row r="171" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" s="3" customFormat="1" spans="1:30">
       <c r="A171" s="3">
         <v>1107</v>
       </c>
-      <c r="B171" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C171" s="38">
+      <c r="B171" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="37">
         <v>1042</v>
       </c>
       <c r="D171" s="3">
@@ -7430,31 +7984,31 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" s="39">
+      <c r="F171" s="15">
         <v>12414</v>
       </c>
-      <c r="G171" s="39">
+      <c r="G171" s="15">
         <v>12415</v>
       </c>
-      <c r="H171" s="39">
+      <c r="H171" s="15">
         <v>12416</v>
       </c>
-      <c r="I171" s="39">
+      <c r="I171" s="15">
         <v>12417</v>
       </c>
-      <c r="J171" s="39">
+      <c r="J171" s="15">
         <v>12418</v>
       </c>
-      <c r="K171" s="39">
+      <c r="K171" s="15">
         <v>12419</v>
       </c>
-      <c r="L171" s="39">
+      <c r="L171" s="15">
         <v>12420</v>
       </c>
-      <c r="M171" s="39">
+      <c r="M171" s="15">
         <v>12421</v>
       </c>
-      <c r="N171" s="39">
+      <c r="N171" s="15">
         <v>12422</v>
       </c>
       <c r="O171" s="1">
@@ -7484,36 +8038,36 @@
       <c r="W171" s="1">
         <v>12596</v>
       </c>
-      <c r="X171" s="39">
+      <c r="X171" s="15">
         <v>12423</v>
       </c>
-      <c r="Y171" s="39">
+      <c r="Y171" s="15">
         <v>12424</v>
       </c>
-      <c r="Z171" s="39">
+      <c r="Z171" s="15">
         <v>12425</v>
       </c>
-      <c r="AA171" s="39">
+      <c r="AA171" s="15">
         <v>12426</v>
       </c>
-      <c r="AB171" s="39">
+      <c r="AB171" s="15">
         <v>12427</v>
       </c>
-      <c r="AC171" s="39">
+      <c r="AC171" s="15">
         <v>12428</v>
       </c>
-      <c r="AD171" s="39">
+      <c r="AD171" s="15">
         <v>12429</v>
       </c>
     </row>
-    <row r="172" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" s="3" customFormat="1" spans="1:30">
       <c r="A172" s="3">
         <v>1108</v>
       </c>
-      <c r="B172" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C172" s="38">
+      <c r="B172" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C172" s="37">
         <v>1042</v>
       </c>
       <c r="D172" s="3">
@@ -7522,31 +8076,31 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" s="39">
+      <c r="F172" s="15">
         <v>12430</v>
       </c>
-      <c r="G172" s="39">
+      <c r="G172" s="15">
         <v>12431</v>
       </c>
-      <c r="H172" s="39">
+      <c r="H172" s="15">
         <v>12432</v>
       </c>
-      <c r="I172" s="39">
+      <c r="I172" s="15">
         <v>12433</v>
       </c>
-      <c r="J172" s="39">
+      <c r="J172" s="15">
         <v>12434</v>
       </c>
-      <c r="K172" s="39">
+      <c r="K172" s="15">
         <v>12435</v>
       </c>
-      <c r="L172" s="39">
+      <c r="L172" s="15">
         <v>12436</v>
       </c>
-      <c r="M172" s="39">
+      <c r="M172" s="15">
         <v>12437</v>
       </c>
-      <c r="N172" s="39">
+      <c r="N172" s="15">
         <v>12438</v>
       </c>
       <c r="O172" s="1">
@@ -7576,36 +8130,36 @@
       <c r="W172" s="1">
         <v>12605</v>
       </c>
-      <c r="X172" s="39">
+      <c r="X172" s="15">
         <v>12439</v>
       </c>
-      <c r="Y172" s="39">
+      <c r="Y172" s="15">
         <v>12440</v>
       </c>
-      <c r="Z172" s="39">
+      <c r="Z172" s="15">
         <v>12441</v>
       </c>
-      <c r="AA172" s="39">
+      <c r="AA172" s="15">
         <v>12442</v>
       </c>
-      <c r="AB172" s="39">
+      <c r="AB172" s="15">
         <v>12443</v>
       </c>
-      <c r="AC172" s="39">
+      <c r="AC172" s="15">
         <v>12444</v>
       </c>
-      <c r="AD172" s="39">
+      <c r="AD172" s="15">
         <v>12445</v>
       </c>
     </row>
-    <row r="173" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" s="3" customFormat="1" spans="1:30">
       <c r="A173" s="3">
         <v>1109</v>
       </c>
-      <c r="B173" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C173" s="38">
+      <c r="B173" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" s="37">
         <v>1042</v>
       </c>
       <c r="D173" s="3">
@@ -7614,31 +8168,31 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" s="39">
+      <c r="F173" s="15">
         <v>12446</v>
       </c>
-      <c r="G173" s="39">
+      <c r="G173" s="15">
         <v>12447</v>
       </c>
-      <c r="H173" s="39">
+      <c r="H173" s="15">
         <v>12448</v>
       </c>
-      <c r="I173" s="39">
+      <c r="I173" s="15">
         <v>12449</v>
       </c>
-      <c r="J173" s="39">
+      <c r="J173" s="15">
         <v>12450</v>
       </c>
-      <c r="K173" s="39">
+      <c r="K173" s="15">
         <v>12451</v>
       </c>
-      <c r="L173" s="39">
+      <c r="L173" s="15">
         <v>12452</v>
       </c>
-      <c r="M173" s="39">
+      <c r="M173" s="15">
         <v>12453</v>
       </c>
-      <c r="N173" s="39">
+      <c r="N173" s="15">
         <v>12454</v>
       </c>
       <c r="O173" s="1">
@@ -7668,36 +8222,36 @@
       <c r="W173" s="1">
         <v>12614</v>
       </c>
-      <c r="X173" s="39">
+      <c r="X173" s="15">
         <v>12455</v>
       </c>
-      <c r="Y173" s="39">
+      <c r="Y173" s="15">
         <v>12456</v>
       </c>
-      <c r="Z173" s="39">
+      <c r="Z173" s="15">
         <v>12457</v>
       </c>
-      <c r="AA173" s="39">
+      <c r="AA173" s="15">
         <v>12458</v>
       </c>
-      <c r="AB173" s="39">
+      <c r="AB173" s="15">
         <v>12459</v>
       </c>
-      <c r="AC173" s="39">
+      <c r="AC173" s="15">
         <v>12460</v>
       </c>
-      <c r="AD173" s="39">
+      <c r="AD173" s="15">
         <v>12461</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>1114</v>
       </c>
-      <c r="B174" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C174" s="41">
+      <c r="B174" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" s="39">
         <v>40288</v>
       </c>
       <c r="D174">
@@ -7710,14 +8264,14 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>1115</v>
       </c>
-      <c r="B175" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C175" s="41">
+      <c r="B175" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175" s="39">
         <v>40290</v>
       </c>
       <c r="D175">
@@ -7730,14 +8284,14 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>1116</v>
       </c>
-      <c r="B176" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C176" s="41">
+      <c r="B176" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C176" s="39">
         <v>40303</v>
       </c>
       <c r="D176">
@@ -7750,14 +8304,14 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>1117</v>
       </c>
-      <c r="B177" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C177" s="41">
+      <c r="B177" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" s="39">
         <v>40294</v>
       </c>
       <c r="D177">
@@ -7770,14 +8324,14 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>1118</v>
       </c>
-      <c r="B178" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C178" s="41">
+      <c r="B178" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="39">
         <v>40295</v>
       </c>
       <c r="D178">
@@ -7790,14 +8344,14 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>1119</v>
       </c>
-      <c r="B179" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C179" s="41">
+      <c r="B179" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" s="39">
         <v>40289</v>
       </c>
       <c r="D179">
@@ -7810,14 +8364,14 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>1120</v>
       </c>
-      <c r="B180" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C180" s="41">
+      <c r="B180" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" s="39">
         <v>40298</v>
       </c>
       <c r="D180">
@@ -7830,14 +8384,14 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>1121</v>
       </c>
-      <c r="B181" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" s="41">
+      <c r="B181" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181" s="39">
         <v>40306</v>
       </c>
       <c r="D181">
@@ -7850,14 +8404,14 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>1122</v>
       </c>
-      <c r="B182" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C182" s="41">
+      <c r="B182" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="39">
         <v>40302</v>
       </c>
       <c r="D182">
@@ -7870,14 +8424,14 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>1123</v>
       </c>
-      <c r="B183" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C183" s="41">
+      <c r="B183" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C183" s="39">
         <v>40281</v>
       </c>
       <c r="D183">
@@ -7890,14 +8444,14 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>1124</v>
       </c>
-      <c r="B184" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C184" s="41">
+      <c r="B184" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C184" s="39">
         <v>40292</v>
       </c>
       <c r="D184">
@@ -7910,14 +8464,14 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>1125</v>
       </c>
-      <c r="B185" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C185" s="41">
+      <c r="B185" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C185" s="39">
         <v>40291</v>
       </c>
       <c r="D185">
@@ -7930,14 +8484,14 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>1126</v>
       </c>
-      <c r="B186" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" s="41">
+      <c r="B186" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C186" s="39">
         <v>40299</v>
       </c>
       <c r="D186">
@@ -7950,14 +8504,14 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>1127</v>
       </c>
-      <c r="B187" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C187" s="41">
+      <c r="B187" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C187" s="39">
         <v>40305</v>
       </c>
       <c r="D187">
@@ -7970,14 +8524,14 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>1128</v>
       </c>
-      <c r="B188" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C188" s="41">
+      <c r="B188" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" s="39">
         <v>40301</v>
       </c>
       <c r="D188">
@@ -7990,14 +8544,14 @@
         <v>12015</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>1129</v>
       </c>
-      <c r="B189" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C189" s="41">
+      <c r="B189" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C189" s="39">
         <v>40293</v>
       </c>
       <c r="D189">
@@ -8010,14 +8564,14 @@
         <v>12016</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>1130</v>
       </c>
-      <c r="B190" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C190" s="41">
+      <c r="B190" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C190" s="39">
         <v>40284</v>
       </c>
       <c r="D190">
@@ -8030,14 +8584,14 @@
         <v>12017</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>1131</v>
       </c>
-      <c r="B191" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C191" s="41">
+      <c r="B191" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C191" s="39">
         <v>40282</v>
       </c>
       <c r="D191">
@@ -8050,12 +8604,12 @@
         <v>12018</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>1132</v>
       </c>
-      <c r="B192" s="42" t="s">
-        <v>89</v>
+      <c r="B192" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="C192">
         <v>1095</v>
@@ -8070,12 +8624,12 @@
         <v>12076</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>1133</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C193">
         <v>1095</v>
@@ -8090,12 +8644,12 @@
         <v>12108</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>1134</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C194">
         <v>1095</v>
@@ -8110,12 +8664,12 @@
         <v>12109</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>1135</v>
       </c>
-      <c r="B195" s="42" t="s">
-        <v>216</v>
+      <c r="B195" s="40" t="s">
+        <v>234</v>
       </c>
       <c r="C195">
         <v>1095</v>
@@ -8130,12 +8684,12 @@
         <v>12110</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>1136</v>
       </c>
-      <c r="B196" s="42" t="s">
-        <v>217</v>
+      <c r="B196" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="C196">
         <v>1095</v>
@@ -8150,12 +8704,12 @@
         <v>12111</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>1137</v>
       </c>
-      <c r="B197" s="42" t="s">
-        <v>218</v>
+      <c r="B197" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="C197">
         <v>1095</v>
@@ -8170,12 +8724,12 @@
         <v>12112</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>1138</v>
       </c>
-      <c r="B198" s="42" t="s">
-        <v>219</v>
+      <c r="B198" s="40" t="s">
+        <v>237</v>
       </c>
       <c r="C198">
         <v>1095</v>
@@ -8190,12 +8744,12 @@
         <v>12113</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>1139</v>
       </c>
       <c r="B199" s="44" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C199">
         <v>1095</v>
@@ -8210,12 +8764,12 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>1140</v>
       </c>
       <c r="B200" s="44" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C200">
         <v>1095</v>
@@ -8230,12 +8784,12 @@
         <v>12115</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" ht="14.25" spans="1:13">
       <c r="A201">
         <v>1141</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C201" s="46">
         <v>1218</v>
@@ -8271,12 +8825,12 @@
         <v>12123</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" ht="14.25" spans="1:13">
       <c r="A202">
         <v>1142</v>
       </c>
       <c r="B202" s="45" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C202" s="46">
         <v>1217</v>
@@ -8312,12 +8866,12 @@
         <v>12131</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>1143</v>
       </c>
-      <c r="B203" s="16" t="s">
-        <v>223</v>
+      <c r="B203" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="C203" s="47">
         <v>1657</v>
@@ -8341,12 +8895,12 @@
         <v>12135</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>1144</v>
       </c>
-      <c r="B204" s="16" t="s">
-        <v>224</v>
+      <c r="B204" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="C204" s="47">
         <v>1656</v>
@@ -8370,12 +8924,12 @@
         <v>12139</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>1145</v>
       </c>
-      <c r="B205" s="16" t="s">
-        <v>225</v>
+      <c r="B205" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="C205" s="47">
         <v>1666</v>
@@ -8399,12 +8953,12 @@
         <v>12143</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>1146</v>
       </c>
-      <c r="B206" s="16" t="s">
-        <v>226</v>
+      <c r="B206" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="C206" s="47">
         <v>1665</v>
@@ -8428,12 +8982,12 @@
         <v>12147</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>1147</v>
       </c>
-      <c r="B207" s="16" t="s">
-        <v>227</v>
+      <c r="B207" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="C207" s="47">
         <v>1658</v>
@@ -8457,12 +9011,12 @@
         <v>12151</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>1148</v>
       </c>
-      <c r="B208" s="16" t="s">
-        <v>228</v>
+      <c r="B208" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="C208" s="47">
         <v>1664</v>
@@ -8486,12 +9040,12 @@
         <v>12155</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>1149</v>
       </c>
-      <c r="B209" s="16" t="s">
-        <v>229</v>
+      <c r="B209" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="C209" s="47">
         <v>1661</v>
@@ -8515,12 +9069,12 @@
         <v>12159</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>1150</v>
       </c>
-      <c r="B210" s="16" t="s">
-        <v>230</v>
+      <c r="B210" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="C210" s="47">
         <v>1660</v>
@@ -8544,12 +9098,12 @@
         <v>12163</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" ht="14.25" spans="1:6">
       <c r="A211">
         <v>1151</v>
       </c>
-      <c r="B211" s="16" t="s">
-        <v>231</v>
+      <c r="B211" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="C211" s="46">
         <v>1126</v>
@@ -8564,12 +9118,12 @@
         <v>12164</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>1152</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C212">
         <v>1005</v>
@@ -8584,12 +9138,12 @@
         <v>12165</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>1153</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C213">
         <v>1005</v>
@@ -8604,12 +9158,12 @@
         <v>12166</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>1154</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C214">
         <v>1005</v>
@@ -8624,12 +9178,12 @@
         <v>12167</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>1155</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C215">
         <v>1005</v>
@@ -8644,12 +9198,12 @@
         <v>12168</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>1156</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C216">
         <v>1005</v>
@@ -8664,12 +9218,12 @@
         <v>12169</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>1157</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C217">
         <v>1005</v>
@@ -8684,12 +9238,12 @@
         <v>12170</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>1158</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C218">
         <v>1005</v>
@@ -8704,12 +9258,12 @@
         <v>12171</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>1159</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C219">
         <v>1005</v>
@@ -8724,12 +9278,12 @@
         <v>12172</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>1160</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C220">
         <v>1005</v>
@@ -8744,12 +9298,12 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>1161</v>
       </c>
       <c r="B221" s="48" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C221">
         <v>1005</v>
@@ -8764,12 +9318,12 @@
         <v>12174</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>1162</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C222">
         <v>1005</v>
@@ -8784,12 +9338,12 @@
         <v>12175</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>1163</v>
       </c>
       <c r="B223" s="48" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C223">
         <v>1005</v>
@@ -8804,12 +9358,12 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>1164</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C224">
         <v>1005</v>
@@ -8824,12 +9378,12 @@
         <v>12177</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>1165</v>
       </c>
       <c r="B225" s="48" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C225">
         <v>1005</v>
@@ -8844,12 +9398,12 @@
         <v>12178</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>1166</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C226">
         <v>1005</v>
@@ -8864,12 +9418,12 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>1167</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C227">
         <v>1005</v>
@@ -8884,12 +9438,12 @@
         <v>12180</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>1168</v>
       </c>
       <c r="B228" s="48" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C228">
         <v>1005</v>
@@ -8904,12 +9458,12 @@
         <v>12181</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>1169</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C229">
         <v>1005</v>
@@ -8924,12 +9478,12 @@
         <v>12182</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>1170</v>
       </c>
       <c r="B230" s="48" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C230">
         <v>1005</v>
@@ -8944,12 +9498,12 @@
         <v>12183</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>1171</v>
       </c>
       <c r="B231" s="48" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C231">
         <v>1005</v>
@@ -8964,12 +9518,12 @@
         <v>12184</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14">
       <c r="A232">
         <v>1172</v>
       </c>
       <c r="B232" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C232" s="49">
         <v>1149</v>
@@ -9008,12 +9562,12 @@
         <v>12193</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14">
       <c r="A233">
         <v>1173</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C233" s="49">
         <v>1148</v>
@@ -9052,12 +9606,12 @@
         <v>12202</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14">
       <c r="A234">
         <v>1174</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C234" s="49">
         <v>1147</v>
@@ -9096,12 +9650,12 @@
         <v>12211</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14">
       <c r="A235">
         <v>1175</v>
       </c>
       <c r="B235" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C235" s="49">
         <v>1146</v>
@@ -9140,12 +9694,12 @@
         <v>12220</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14">
       <c r="A236">
         <v>1176</v>
       </c>
       <c r="B236" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C236" s="49">
         <v>1029</v>
@@ -9184,12 +9738,12 @@
         <v>12229</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14">
       <c r="A237">
         <v>1177</v>
       </c>
       <c r="B237" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C237" s="49">
         <v>1028</v>
@@ -9228,12 +9782,12 @@
         <v>12238</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14">
       <c r="A238">
         <v>1178</v>
       </c>
       <c r="B238" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C238" s="49">
         <v>1027</v>
@@ -9272,12 +9826,12 @@
         <v>12247</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14">
       <c r="A239">
         <v>1179</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C239" s="49">
         <v>1026</v>
@@ -9316,12 +9870,12 @@
         <v>12256</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14">
       <c r="A240">
         <v>1180</v>
       </c>
       <c r="B240" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C240" s="49">
         <v>1025</v>
@@ -9360,12 +9914,12 @@
         <v>12265</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14">
       <c r="A241">
         <v>1181</v>
       </c>
       <c r="B241" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C241" s="49">
         <v>1149</v>
@@ -9404,12 +9958,12 @@
         <v>12274</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14">
       <c r="A242">
         <v>1182</v>
       </c>
       <c r="B242" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C242" s="49">
         <v>1148</v>
@@ -9448,12 +10002,12 @@
         <v>12283</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14">
       <c r="A243">
         <v>1183</v>
       </c>
       <c r="B243" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C243" s="49">
         <v>1147</v>
@@ -9492,12 +10046,12 @@
         <v>12292</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14">
       <c r="A244">
         <v>1184</v>
       </c>
       <c r="B244" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C244" s="49">
         <v>1146</v>
@@ -9536,12 +10090,12 @@
         <v>12301</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14">
       <c r="A245">
         <v>1185</v>
       </c>
       <c r="B245" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C245" s="49">
         <v>1029</v>
@@ -9580,12 +10134,12 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14">
       <c r="A246">
         <v>1186</v>
       </c>
       <c r="B246" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C246" s="49">
         <v>1028</v>
@@ -9624,12 +10178,12 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14">
       <c r="A247">
         <v>1187</v>
       </c>
       <c r="B247" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C247" s="49">
         <v>1027</v>
@@ -9668,12 +10222,12 @@
         <v>12328</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14">
       <c r="A248">
         <v>1188</v>
       </c>
       <c r="B248" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C248" s="49">
         <v>1026</v>
@@ -9712,12 +10266,12 @@
         <v>12337</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14">
       <c r="A249">
         <v>1189</v>
       </c>
       <c r="B249" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C249" s="49">
         <v>1025</v>
@@ -9756,12 +10310,12 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14">
       <c r="A250">
         <v>1190</v>
       </c>
       <c r="B250" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C250" s="49">
         <v>1025</v>
@@ -9800,12 +10354,12 @@
         <v>12355</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>1191</v>
       </c>
       <c r="B251" s="50" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C251" s="51">
         <v>1688</v>
@@ -9820,12 +10374,12 @@
         <v>12356</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>1192</v>
       </c>
       <c r="B252" s="52" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C252" s="51">
         <v>1689</v>
@@ -9840,12 +10394,12 @@
         <v>12357</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>1193</v>
       </c>
       <c r="B253" s="52" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C253" s="51">
         <v>1690</v>
@@ -9860,12 +10414,12 @@
         <v>12358</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>1194</v>
       </c>
       <c r="B254" s="52" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C254" s="51">
         <v>1691</v>
@@ -9880,12 +10434,12 @@
         <v>12359</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>1195</v>
       </c>
       <c r="B255" s="52" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C255" s="51">
         <v>1692</v>
@@ -9900,12 +10454,12 @@
         <v>12360</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>1196</v>
       </c>
       <c r="B256" s="52" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C256" s="51">
         <v>1693</v>
@@ -9920,12 +10474,12 @@
         <v>12361</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>1197</v>
       </c>
       <c r="B257" s="52" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C257" s="51">
         <v>1694</v>
@@ -9940,12 +10494,12 @@
         <v>12362</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>1198</v>
       </c>
       <c r="B258" s="52" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C258" s="51">
         <v>1695</v>
@@ -9960,12 +10514,12 @@
         <v>12363</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>1199</v>
       </c>
       <c r="B259" s="52" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C259" s="51">
         <v>1696</v>
@@ -9980,12 +10534,12 @@
         <v>12364</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>1200</v>
       </c>
       <c r="B260" s="52" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C260" s="51">
         <v>1697</v>
@@ -10000,12 +10554,12 @@
         <v>12365</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>1201</v>
       </c>
       <c r="B261" s="52" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C261" s="51">
         <v>1698</v>
@@ -10020,12 +10574,12 @@
         <v>12366</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>1202</v>
       </c>
       <c r="B262" s="52" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C262" s="51">
         <v>1699</v>
@@ -10040,12 +10594,12 @@
         <v>12367</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>1203</v>
       </c>
       <c r="B263" s="52" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C263" s="51">
         <v>1700</v>
@@ -10060,12 +10614,12 @@
         <v>12368</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>1204</v>
       </c>
       <c r="B264" s="52" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C264" s="51">
         <v>1701</v>
@@ -10080,12 +10634,12 @@
         <v>12369</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>1205</v>
       </c>
       <c r="B265" s="52" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C265" s="51">
         <v>1702</v>
@@ -10100,12 +10654,12 @@
         <v>12370</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>1206</v>
       </c>
       <c r="B266" s="52" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C266" s="51">
         <v>1703</v>
@@ -10120,12 +10674,12 @@
         <v>12371</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>1207</v>
       </c>
       <c r="B267" s="52" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C267" s="51">
         <v>1682</v>
@@ -10140,12 +10694,12 @@
         <v>12372</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>1208</v>
       </c>
       <c r="B268" s="52" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C268" s="51">
         <v>1681</v>
@@ -10160,12 +10714,12 @@
         <v>12373</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>1209</v>
       </c>
       <c r="B269" s="52" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C269" s="51">
         <v>1686</v>
@@ -10180,12 +10734,12 @@
         <v>12374</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>1210</v>
       </c>
       <c r="B270" s="50" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C270" s="51">
         <v>1704</v>
@@ -10200,12 +10754,12 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>1211</v>
       </c>
       <c r="B271" s="52" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C271" s="51">
         <v>1705</v>
@@ -10220,12 +10774,12 @@
         <v>12376</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>1212</v>
       </c>
       <c r="B272" s="52" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C272" s="51">
         <v>1706</v>
@@ -10240,12 +10794,12 @@
         <v>12377</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>1213</v>
       </c>
       <c r="B273" s="52" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C273" s="51">
         <v>1707</v>
@@ -10260,12 +10814,12 @@
         <v>12378</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>1214</v>
       </c>
       <c r="B274" s="52" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C274" s="51">
         <v>1708</v>
@@ -10280,12 +10834,12 @@
         <v>12379</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>1215</v>
       </c>
       <c r="B275" s="52" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C275" s="51">
         <v>1709</v>
@@ -10300,12 +10854,12 @@
         <v>12380</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>1216</v>
       </c>
       <c r="B276" s="52" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C276" s="51">
         <v>1710</v>
@@ -10320,12 +10874,12 @@
         <v>12381</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>1217</v>
       </c>
       <c r="B277" s="52" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C277" s="51">
         <v>1711</v>
@@ -10340,12 +10894,12 @@
         <v>12382</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>1218</v>
       </c>
       <c r="B278" s="52" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C278" s="51">
         <v>1712</v>
@@ -10360,12 +10914,12 @@
         <v>12383</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>1219</v>
       </c>
       <c r="B279" s="52" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C279" s="51">
         <v>1713</v>
@@ -10380,12 +10934,12 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>1220</v>
       </c>
       <c r="B280" s="52" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C280" s="51">
         <v>1714</v>
@@ -10400,12 +10954,12 @@
         <v>12385</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>1221</v>
       </c>
       <c r="B281" s="52" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C281" s="51">
         <v>1715</v>
@@ -10420,12 +10974,12 @@
         <v>12386</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>1222</v>
       </c>
       <c r="B282" s="52" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C282" s="51">
         <v>1716</v>
@@ -10440,12 +10994,12 @@
         <v>12387</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>1223</v>
       </c>
       <c r="B283" s="52" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C283" s="51">
         <v>1717</v>
@@ -10460,12 +11014,12 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>1224</v>
       </c>
       <c r="B284" s="52" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C284" s="51">
         <v>1718</v>
@@ -10480,12 +11034,12 @@
         <v>12389</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>1225</v>
       </c>
       <c r="B285" s="52" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C285" s="51">
         <v>1719</v>
@@ -10500,14 +11054,14 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>1226</v>
       </c>
-      <c r="B286" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C286" s="30">
+      <c r="B286" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C286" s="29">
         <v>1037</v>
       </c>
       <c r="D286">
@@ -10516,18 +11070,18 @@
       <c r="E286">
         <v>1</v>
       </c>
-      <c r="F286" s="39">
+      <c r="F286" s="15">
         <v>12397</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>1227</v>
       </c>
-      <c r="B287" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="C287" s="28">
+      <c r="B287" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C287" s="27">
         <v>1007</v>
       </c>
       <c r="D287">
@@ -10536,18 +11090,18 @@
       <c r="E287">
         <v>1</v>
       </c>
-      <c r="F287" s="39">
+      <c r="F287" s="15">
         <v>12398</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>1228</v>
       </c>
-      <c r="B288" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C288" s="30">
+      <c r="B288" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C288" s="29">
         <v>1051</v>
       </c>
       <c r="D288">
@@ -10556,18 +11110,18 @@
       <c r="E288">
         <v>1</v>
       </c>
-      <c r="F288" s="39">
+      <c r="F288" s="15">
         <v>12399</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>1229</v>
       </c>
-      <c r="B289" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C289" s="28">
+      <c r="B289" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C289" s="27">
         <v>1062</v>
       </c>
       <c r="D289">
@@ -10576,18 +11130,18 @@
       <c r="E289">
         <v>1</v>
       </c>
-      <c r="F289" s="39">
+      <c r="F289" s="15">
         <v>12400</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>1230</v>
       </c>
-      <c r="B290" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C290" s="28">
+      <c r="B290" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C290" s="27">
         <v>1072</v>
       </c>
       <c r="D290">
@@ -10596,18 +11150,18 @@
       <c r="E290">
         <v>1</v>
       </c>
-      <c r="F290" s="39">
+      <c r="F290" s="15">
         <v>12401</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>1231</v>
       </c>
-      <c r="B291" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C291" s="28">
+      <c r="B291" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C291" s="27">
         <v>1081</v>
       </c>
       <c r="D291">
@@ -10616,18 +11170,18 @@
       <c r="E291">
         <v>1</v>
       </c>
-      <c r="F291" s="39">
+      <c r="F291" s="15">
         <v>12402</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>1232</v>
       </c>
-      <c r="B292" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C292" s="28">
+      <c r="B292" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C292" s="27">
         <v>1152</v>
       </c>
       <c r="D292">
@@ -10636,18 +11190,18 @@
       <c r="E292">
         <v>1</v>
       </c>
-      <c r="F292" s="39">
+      <c r="F292" s="15">
         <v>12403</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>1233</v>
       </c>
-      <c r="B293" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C293" s="21">
+      <c r="B293" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C293" s="22">
         <v>1012</v>
       </c>
       <c r="D293">
@@ -10656,18 +11210,18 @@
       <c r="E293">
         <v>1</v>
       </c>
-      <c r="F293" s="39">
+      <c r="F293" s="15">
         <v>12404</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>1234</v>
       </c>
-      <c r="B294" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C294" s="21">
+      <c r="B294" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C294" s="22">
         <v>1017</v>
       </c>
       <c r="D294">
@@ -10676,18 +11230,18 @@
       <c r="E294">
         <v>1</v>
       </c>
-      <c r="F294" s="39">
+      <c r="F294" s="15">
         <v>12405</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>1235</v>
       </c>
-      <c r="B295" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C295" s="21">
+      <c r="B295" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C295" s="22">
         <v>1015</v>
       </c>
       <c r="D295">
@@ -10696,18 +11250,18 @@
       <c r="E295">
         <v>1</v>
       </c>
-      <c r="F295" s="39">
+      <c r="F295" s="15">
         <v>12406</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>1236</v>
       </c>
-      <c r="B296" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C296" s="21">
+      <c r="B296" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C296" s="22">
         <v>1016</v>
       </c>
       <c r="D296">
@@ -10716,18 +11270,18 @@
       <c r="E296">
         <v>1</v>
       </c>
-      <c r="F296" s="39">
+      <c r="F296" s="15">
         <v>12407</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>1237</v>
       </c>
-      <c r="B297" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C297" s="21">
+      <c r="B297" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C297" s="22">
         <v>1013</v>
       </c>
       <c r="D297">
@@ -10736,18 +11290,18 @@
       <c r="E297">
         <v>1</v>
       </c>
-      <c r="F297" s="39">
+      <c r="F297" s="15">
         <v>12408</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>1238</v>
       </c>
-      <c r="B298" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C298" s="21">
+      <c r="B298" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C298" s="22">
         <v>1011</v>
       </c>
       <c r="D298">
@@ -10756,18 +11310,18 @@
       <c r="E298">
         <v>1</v>
       </c>
-      <c r="F298" s="39">
+      <c r="F298" s="15">
         <v>12409</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>1239</v>
       </c>
-      <c r="B299" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C299" s="21">
+      <c r="B299" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C299" s="22">
         <v>1181</v>
       </c>
       <c r="D299">
@@ -10776,26 +11330,26 @@
       <c r="E299">
         <v>1</v>
       </c>
-      <c r="F299" s="39">
+      <c r="F299" s="15">
         <v>12410</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C300" s="41"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C301" s="41"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C302" s="41"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C303" s="41"/>
+    <row r="300" spans="3:3">
+      <c r="C300" s="39"/>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="39"/>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="39"/>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊二级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 主要针对装备的不同品质分为X个组，添加装备或者减少装备都要调整组
 （每个品质是一个组）</t>
         </r>
@@ -39,7 +38,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="336">
   <si>
     <t>ID</t>
   </si>
@@ -1070,18 +1068,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1090,12 +1082,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1130,11 +1122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1158,23 +1145,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,14 +1169,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,14 +1229,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1225,26 +1236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1252,6 +1248,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,23 +1268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,22 +1282,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,6 +1328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,25 +1429,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,85 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,37 +1519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,6 +1578,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1640,17 +1652,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1660,39 +1661,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,158 +1683,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1890,107 +1863,113 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,6 +2027,11 @@
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2374,31 +2358,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AR303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C21"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.8796296296296" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="11" width="10" customWidth="1"/>
-    <col min="15" max="25" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="11.125" customWidth="1"/>
+    <col min="15" max="25" width="11.1296296296296" customWidth="1"/>
+    <col min="31" max="31" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -3440,7 +3423,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -3448,7 +3431,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="11">
-        <v>1531</v>
+        <v>1762</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3481,7 +3464,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A14" s="1">
         <v>201</v>
       </c>
@@ -3489,7 +3472,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="11">
-        <v>1531</v>
+        <v>1623</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3522,15 +3505,15 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A15" s="1">
         <v>202</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11">
-        <v>1531</v>
+      <c r="C15" s="13">
+        <v>129</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3563,7 +3546,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A16" s="1">
         <v>203</v>
       </c>
@@ -3571,7 +3554,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="11">
-        <v>1531</v>
+        <v>1625</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3604,7 +3587,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A17" s="1">
         <v>204</v>
       </c>
@@ -3612,7 +3595,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="11">
-        <v>1531</v>
+        <v>1626</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -3645,7 +3628,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A18" s="1">
         <v>205</v>
       </c>
@@ -3653,7 +3636,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="11">
-        <v>1531</v>
+        <v>1627</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3686,7 +3669,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A19" s="1">
         <v>206</v>
       </c>
@@ -3694,7 +3677,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="11">
-        <v>1531</v>
+        <v>1623</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3727,7 +3710,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A20" s="1">
         <v>207</v>
       </c>
@@ -3735,7 +3718,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="11">
-        <v>1531</v>
+        <v>1624</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -3768,7 +3751,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A21" s="1">
         <v>208</v>
       </c>
@@ -3776,7 +3759,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="11">
-        <v>1531</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3816,7 +3799,7 @@
       <c r="B22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>141</v>
       </c>
       <c r="D22" s="1">
@@ -3850,14 +3833,14 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A23" s="1">
         <v>210</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>1629</v>
       </c>
       <c r="D23" s="1">
@@ -3898,7 +3881,7 @@
       <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <v>85</v>
       </c>
       <c r="D24" s="1">
@@ -3939,7 +3922,7 @@
       <c r="B25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <v>86</v>
       </c>
       <c r="D25" s="1">
@@ -3980,7 +3963,7 @@
       <c r="B26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>93</v>
       </c>
       <c r="D26" s="1">
@@ -4021,7 +4004,7 @@
       <c r="B27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>94</v>
       </c>
       <c r="D27" s="1">
@@ -4062,7 +4045,7 @@
       <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="14">
         <v>92</v>
       </c>
       <c r="D28" s="1">
@@ -4096,15 +4079,15 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="29" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A29" s="1">
         <v>216</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="11">
-        <v>1531</v>
+      <c r="C29" s="16">
+        <v>40323</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -4112,40 +4095,40 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="17">
         <v>12462</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="17">
         <v>12463</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="17">
         <v>12464</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="17">
         <v>12465</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="17">
         <v>12466</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="17">
         <v>12467</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="17">
         <v>12468</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="17">
         <v>12469</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="30" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A30" s="1">
         <v>217</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11">
-        <v>1531</v>
+      <c r="C30" s="16">
+        <v>40312</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -4153,40 +4136,40 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="17">
         <v>12470</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="17">
         <v>12471</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="17">
         <v>12472</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="17">
         <v>12473</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="17">
         <v>12474</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="17">
         <v>12475</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="17">
         <v>12476</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="17">
         <v>12477</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="31" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A31" s="1">
         <v>218</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="11">
-        <v>1531</v>
+      <c r="C31" s="16">
+        <v>40317</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -4194,40 +4177,40 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="17">
         <v>12478</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="17">
         <v>12479</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="17">
         <v>12480</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="17">
         <v>12481</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="17">
         <v>12482</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="17">
         <v>12483</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="17">
         <v>12484</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="17">
         <v>12485</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="32" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A32" s="1">
         <v>219</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="11">
-        <v>1531</v>
+      <c r="C32" s="16">
+        <v>40315</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -4235,40 +4218,40 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="17">
         <v>12486</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="17">
         <v>12487</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="17">
         <v>12488</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="17">
         <v>12489</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="17">
         <v>12490</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="17">
         <v>12491</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="17">
         <v>12492</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="17">
         <v>12493</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="33" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A33" s="1">
         <v>220</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="11">
-        <v>1531</v>
+      <c r="C33" s="16">
+        <v>40307</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -4276,40 +4259,40 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="17">
         <v>12494</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="17">
         <v>12495</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="17">
         <v>12496</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="17">
         <v>12497</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="17">
         <v>12498</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="17">
         <v>12499</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="17">
         <v>12500</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="17">
         <v>12501</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="34" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A34" s="1">
         <v>221</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="11">
-        <v>1531</v>
+      <c r="C34" s="16">
+        <v>40319</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -4317,40 +4300,40 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="17">
         <v>12502</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="17">
         <v>12503</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="17">
         <v>12504</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="17">
         <v>12505</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="17">
         <v>12506</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="17">
         <v>12507</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="17">
         <v>12508</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="17">
         <v>12509</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="35" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A35" s="1">
         <v>222</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="11">
-        <v>1531</v>
+      <c r="C35" s="16">
+        <v>40319</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -4358,40 +4341,40 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="17">
         <v>12510</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="17">
         <v>12511</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="17">
         <v>12512</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="17">
         <v>12513</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="17">
         <v>12514</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="17">
         <v>12515</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="17">
         <v>12516</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="17">
         <v>12517</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="36" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A36" s="1">
         <v>223</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="11">
-        <v>1531</v>
+      <c r="C36" s="16">
+        <v>40320</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -4399,40 +4382,40 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="17">
         <v>12518</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="17">
         <v>12519</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="17">
         <v>12520</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="17">
         <v>12521</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="17">
         <v>12522</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="17">
         <v>12523</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="17">
         <v>12524</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="17">
         <v>12525</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="37" s="1" customFormat="1" ht="15.6" spans="1:13">
       <c r="A37" s="1">
         <v>224</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="11">
-        <v>1531</v>
+      <c r="C37" s="16">
+        <v>40310</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -4440,28 +4423,28 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="17">
         <v>12526</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="17">
         <v>12527</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="17">
         <v>12528</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="17">
         <v>12529</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="17">
         <v>12530</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="17">
         <v>12531</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="17">
         <v>12532</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="17">
         <v>12533</v>
       </c>
     </row>
@@ -4469,7 +4452,7 @@
       <c r="A38">
         <v>300</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C38">
@@ -4489,7 +4472,7 @@
       <c r="A39">
         <v>301</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C39">
@@ -4509,7 +4492,7 @@
       <c r="A40">
         <v>302</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C40">
@@ -4529,7 +4512,7 @@
       <c r="A41">
         <v>303</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C41">
@@ -4549,7 +4532,7 @@
       <c r="A42">
         <v>304</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C42">
@@ -4570,7 +4553,7 @@
       <c r="A43">
         <v>305</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C43">
@@ -4591,7 +4574,7 @@
       <c r="A44">
         <v>306</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C44">
@@ -4612,7 +4595,7 @@
       <c r="A45">
         <v>307</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C45">
@@ -4632,7 +4615,7 @@
       <c r="A46">
         <v>308</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C46">
@@ -4653,7 +4636,7 @@
       <c r="A47">
         <v>309</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C47">
@@ -4674,7 +4657,7 @@
       <c r="A48">
         <v>310</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C48">
@@ -4695,7 +4678,7 @@
       <c r="A49">
         <v>311</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C49">
@@ -4715,7 +4698,7 @@
       <c r="A50">
         <v>312</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C50">
@@ -4735,7 +4718,7 @@
       <c r="A51">
         <v>313</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C51">
@@ -4755,7 +4738,7 @@
       <c r="A52">
         <v>314</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C52">
@@ -4775,7 +4758,7 @@
       <c r="A53">
         <v>315</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C53">
@@ -4795,7 +4778,7 @@
       <c r="A54">
         <v>316</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C54">
@@ -4815,7 +4798,7 @@
       <c r="A55">
         <v>317</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C55">
@@ -4835,7 +4818,7 @@
       <c r="A56">
         <v>318</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C56">
@@ -4855,7 +4838,7 @@
       <c r="A57">
         <v>319</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C57">
@@ -4875,7 +4858,7 @@
       <c r="A58">
         <v>320</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C58">
@@ -4895,7 +4878,7 @@
       <c r="A59">
         <v>321</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C59">
@@ -4915,7 +4898,7 @@
       <c r="A60">
         <v>322</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C60">
@@ -4935,7 +4918,7 @@
       <c r="A61">
         <v>323</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C61">
@@ -4955,7 +4938,7 @@
       <c r="A62">
         <v>324</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C62">
@@ -4975,7 +4958,7 @@
       <c r="A63">
         <v>325</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C63">
@@ -4995,7 +4978,7 @@
       <c r="A64">
         <v>326</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C64">
@@ -5015,7 +4998,7 @@
       <c r="A65">
         <v>327</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C65">
@@ -5035,7 +5018,7 @@
       <c r="A66">
         <v>328</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C66">
@@ -5055,7 +5038,7 @@
       <c r="A67">
         <v>329</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C67">
@@ -5075,7 +5058,7 @@
       <c r="A68">
         <v>330</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C68">
@@ -5095,7 +5078,7 @@
       <c r="A69">
         <v>331</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C69">
@@ -5115,7 +5098,7 @@
       <c r="A70">
         <v>332</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C70">
@@ -5135,7 +5118,7 @@
       <c r="A71">
         <v>333</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C71">
@@ -5155,7 +5138,7 @@
       <c r="A72">
         <v>334</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C72">
@@ -5175,7 +5158,7 @@
       <c r="A73">
         <v>335</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C73">
@@ -5195,7 +5178,7 @@
       <c r="A74">
         <v>336</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C74">
@@ -5215,7 +5198,7 @@
       <c r="A75">
         <v>337</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C75">
@@ -5235,7 +5218,7 @@
       <c r="A76">
         <v>338</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C76">
@@ -5255,7 +5238,7 @@
       <c r="A77">
         <v>339</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C77">
@@ -5275,7 +5258,7 @@
       <c r="A78">
         <v>340</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C78">
@@ -5295,7 +5278,7 @@
       <c r="A79">
         <v>341</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C79">
@@ -5315,7 +5298,7 @@
       <c r="A80">
         <v>342</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C80">
@@ -5335,7 +5318,7 @@
       <c r="A81">
         <v>343</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C81">
@@ -5355,7 +5338,7 @@
       <c r="A82">
         <v>344</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C82">
@@ -5375,7 +5358,7 @@
       <c r="A83">
         <v>345</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C83">
@@ -5395,7 +5378,7 @@
       <c r="A84">
         <v>346</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C84">
@@ -5415,7 +5398,7 @@
       <c r="A85">
         <v>347</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C85">
@@ -5435,7 +5418,7 @@
       <c r="A86">
         <v>348</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C86">
@@ -5455,7 +5438,7 @@
       <c r="A87">
         <v>349</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C87">
@@ -5475,7 +5458,7 @@
       <c r="A88">
         <v>350</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C88">
@@ -5495,7 +5478,7 @@
       <c r="A89">
         <v>351</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C89">
@@ -5515,7 +5498,7 @@
       <c r="A90">
         <v>352</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C90">
@@ -5535,7 +5518,7 @@
       <c r="A91">
         <v>400</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C91">
@@ -5555,7 +5538,7 @@
       <c r="A92">
         <v>401</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C92">
@@ -5575,7 +5558,7 @@
       <c r="A93">
         <v>402</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C93">
@@ -5595,7 +5578,7 @@
       <c r="A94">
         <v>403</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C94">
@@ -5615,7 +5598,7 @@
       <c r="A95">
         <v>404</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="22" t="s">
         <v>136</v>
       </c>
       <c r="C95">
@@ -5635,7 +5618,7 @@
       <c r="A96">
         <v>405</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C96">
@@ -5655,7 +5638,7 @@
       <c r="A97">
         <v>406</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="22" t="s">
         <v>138</v>
       </c>
       <c r="C97">
@@ -5675,7 +5658,7 @@
       <c r="A98">
         <v>407</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="22" t="s">
         <v>139</v>
       </c>
       <c r="C98">
@@ -5695,7 +5678,7 @@
       <c r="A99">
         <v>408</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C99">
@@ -5715,7 +5698,7 @@
       <c r="A100">
         <v>409</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C100">
@@ -5735,7 +5718,7 @@
       <c r="A101">
         <v>410</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C101">
@@ -5755,7 +5738,7 @@
       <c r="A102">
         <v>411</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="22" t="s">
         <v>143</v>
       </c>
       <c r="C102">
@@ -5775,7 +5758,7 @@
       <c r="A103">
         <v>412</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C103">
@@ -5795,7 +5778,7 @@
       <c r="A104">
         <v>413</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="22" t="s">
         <v>145</v>
       </c>
       <c r="C104">
@@ -5815,7 +5798,7 @@
       <c r="A105">
         <v>414</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C105">
@@ -5835,7 +5818,7 @@
       <c r="A106">
         <v>415</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C106">
@@ -5855,7 +5838,7 @@
       <c r="A107">
         <v>416</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C107">
@@ -5875,7 +5858,7 @@
       <c r="A108">
         <v>417</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="22" t="s">
         <v>149</v>
       </c>
       <c r="C108">
@@ -5895,7 +5878,7 @@
       <c r="A109">
         <v>418</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C109">
@@ -5915,7 +5898,7 @@
       <c r="A110">
         <v>419</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C110">
@@ -5935,7 +5918,7 @@
       <c r="A111">
         <v>420</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C111">
@@ -5955,7 +5938,7 @@
       <c r="A112">
         <v>421</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C112">
@@ -5975,7 +5958,7 @@
       <c r="A113">
         <v>422</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C113">
@@ -5995,7 +5978,7 @@
       <c r="A114">
         <v>423</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C114">
@@ -6015,7 +5998,7 @@
       <c r="A115">
         <v>424</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C115">
@@ -6035,7 +6018,7 @@
       <c r="A116">
         <v>425</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C116">
@@ -6055,7 +6038,7 @@
       <c r="A117">
         <v>426</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C117">
@@ -6075,7 +6058,7 @@
       <c r="A118">
         <v>427</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C118">
@@ -6095,7 +6078,7 @@
       <c r="A119">
         <v>428</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C119">
@@ -6115,7 +6098,7 @@
       <c r="A120">
         <v>429</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="18" t="s">
         <v>161</v>
       </c>
       <c r="C120">
@@ -6135,7 +6118,7 @@
       <c r="A121">
         <v>430</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C121">
@@ -6155,7 +6138,7 @@
       <c r="A122">
         <v>431</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C122">
@@ -6175,7 +6158,7 @@
       <c r="A123">
         <v>432</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="18" t="s">
         <v>164</v>
       </c>
       <c r="C123">
@@ -6195,7 +6178,7 @@
       <c r="A124">
         <v>433</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="18" t="s">
         <v>165</v>
       </c>
       <c r="C124">
@@ -6215,7 +6198,7 @@
       <c r="A125">
         <v>434</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="18" t="s">
         <v>166</v>
       </c>
       <c r="C125">
@@ -6235,7 +6218,7 @@
       <c r="A126">
         <v>435</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C126">
@@ -6255,7 +6238,7 @@
       <c r="A127">
         <v>436</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="18" t="s">
         <v>168</v>
       </c>
       <c r="C127">
@@ -6275,7 +6258,7 @@
       <c r="A128">
         <v>437</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C128">
@@ -6295,7 +6278,7 @@
       <c r="A129">
         <v>438</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C129">
@@ -6315,7 +6298,7 @@
       <c r="A130">
         <v>439</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C130">
@@ -6335,7 +6318,7 @@
       <c r="A131">
         <v>440</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C131">
@@ -6355,10 +6338,10 @@
       <c r="A132">
         <v>500</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="24">
         <v>1017</v>
       </c>
       <c r="D132">
@@ -6375,10 +6358,10 @@
       <c r="A133">
         <v>501</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="24">
         <v>1015</v>
       </c>
       <c r="D133">
@@ -6395,10 +6378,10 @@
       <c r="A134">
         <v>502</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C134" s="24">
         <v>1016</v>
       </c>
       <c r="D134">
@@ -6415,10 +6398,10 @@
       <c r="A135">
         <v>503</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="24">
         <v>1013</v>
       </c>
       <c r="D135">
@@ -6431,78 +6414,78 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:18">
+    <row r="136" ht="15.6" spans="1:18">
       <c r="A136">
         <v>504</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C136" s="25">
         <v>1181</v>
       </c>
-      <c r="D136" s="23">
+      <c r="D136" s="25">
         <v>1</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F136" s="25">
         <v>4004</v>
       </c>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23"/>
-      <c r="M136" s="23"/>
-      <c r="N136" s="41"/>
-      <c r="O136" s="42"/>
-      <c r="P136" s="42"/>
-      <c r="Q136" s="41"/>
-      <c r="R136" s="41"/>
-    </row>
-    <row r="137" ht="14.25" spans="1:18">
-      <c r="A137" s="24">
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="43"/>
+      <c r="O136" s="44"/>
+      <c r="P136" s="44"/>
+      <c r="Q136" s="43"/>
+      <c r="R136" s="43"/>
+    </row>
+    <row r="137" ht="15.6" spans="1:18">
+      <c r="A137" s="26">
         <v>600</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C137" s="26">
+      <c r="C137" s="28">
         <v>1037</v>
       </c>
-      <c r="D137" s="24">
+      <c r="D137" s="26">
         <v>1</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137" s="24">
+      <c r="F137" s="26">
         <v>5000</v>
       </c>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="23"/>
-      <c r="M137" s="23"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="42"/>
-      <c r="P137" s="42"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="41"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="44"/>
+      <c r="P137" s="44"/>
+      <c r="Q137" s="43"/>
+      <c r="R137" s="43"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
         <v>601</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C138" s="27">
+      <c r="C138" s="29">
         <v>1007</v>
       </c>
       <c r="D138">
@@ -6519,10 +6502,10 @@
       <c r="A139">
         <v>602</v>
       </c>
-      <c r="B139" s="28" t="s">
+      <c r="B139" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="31">
         <v>1051</v>
       </c>
       <c r="D139">
@@ -6539,10 +6522,10 @@
       <c r="A140">
         <v>603</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C140" s="27">
+      <c r="C140" s="29">
         <v>1062</v>
       </c>
       <c r="D140">
@@ -6559,10 +6542,10 @@
       <c r="A141">
         <v>604</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="27">
+      <c r="C141" s="29">
         <v>1072</v>
       </c>
       <c r="D141">
@@ -6579,10 +6562,10 @@
       <c r="A142">
         <v>605</v>
       </c>
-      <c r="B142" s="27" t="s">
+      <c r="B142" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="27">
+      <c r="C142" s="29">
         <v>1081</v>
       </c>
       <c r="D142">
@@ -6599,10 +6582,10 @@
       <c r="A143">
         <v>606</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C143" s="27">
+      <c r="C143" s="29">
         <v>1152</v>
       </c>
       <c r="D143">
@@ -6778,10 +6761,10 @@
       <c r="A147">
         <v>800</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="33">
         <v>1054</v>
       </c>
       <c r="D147">
@@ -6798,10 +6781,10 @@
       <c r="A148">
         <v>801</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C148" s="31">
+      <c r="C148" s="33">
         <v>1225</v>
       </c>
       <c r="D148">
@@ -6818,10 +6801,10 @@
       <c r="A149">
         <v>802</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C149" s="31">
+      <c r="C149" s="33">
         <v>1067</v>
       </c>
       <c r="D149">
@@ -6838,10 +6821,10 @@
       <c r="A150">
         <v>803</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="33">
         <v>1068</v>
       </c>
       <c r="D150">
@@ -6858,10 +6841,10 @@
       <c r="A151">
         <v>804</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C151" s="33">
         <v>1069</v>
       </c>
       <c r="D151">
@@ -6878,10 +6861,10 @@
       <c r="A152">
         <v>805</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="33">
         <v>1070</v>
       </c>
       <c r="D152">
@@ -6898,10 +6881,10 @@
       <c r="A153">
         <v>806</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="33">
         <v>1110</v>
       </c>
       <c r="D153">
@@ -6918,10 +6901,10 @@
       <c r="A154">
         <v>807</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C154" s="31">
+      <c r="C154" s="33">
         <v>1109</v>
       </c>
       <c r="D154">
@@ -6938,10 +6921,10 @@
       <c r="A155">
         <v>808</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C155" s="31">
+      <c r="C155" s="33">
         <v>1111</v>
       </c>
       <c r="D155">
@@ -6958,10 +6941,10 @@
       <c r="A156">
         <v>900</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C156" s="32">
+      <c r="C156" s="34">
         <v>1499</v>
       </c>
       <c r="D156">
@@ -7083,10 +7066,10 @@
       <c r="A157">
         <v>901</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C157" s="32">
+      <c r="C157" s="34">
         <v>1532</v>
       </c>
       <c r="D157">
@@ -7208,7 +7191,7 @@
       <c r="A158">
         <v>1000</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B158" s="34" t="s">
         <v>199</v>
       </c>
       <c r="C158">
@@ -7240,7 +7223,7 @@
       <c r="A159">
         <v>1001</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C159">
@@ -7266,7 +7249,7 @@
       <c r="A160">
         <v>1002</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="34" t="s">
         <v>201</v>
       </c>
       <c r="C160">
@@ -7298,7 +7281,7 @@
       <c r="A161">
         <v>1003</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C161">
@@ -7318,7 +7301,7 @@
       <c r="A162">
         <v>1004</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C162">
@@ -7338,10 +7321,10 @@
       <c r="A163" s="2">
         <v>1005</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C163" s="34">
+      <c r="C163" s="36">
         <v>261</v>
       </c>
       <c r="D163" s="2">
@@ -7373,10 +7356,10 @@
       <c r="A164">
         <v>1100</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C164" s="35">
+      <c r="C164" s="37">
         <v>1010</v>
       </c>
       <c r="D164">
@@ -7406,13 +7389,13 @@
       <c r="L164">
         <v>11006</v>
       </c>
-      <c r="M164" s="15">
+      <c r="M164" s="17">
         <v>12411</v>
       </c>
-      <c r="N164" s="15">
+      <c r="N164" s="17">
         <v>12412</v>
       </c>
-      <c r="O164" s="15">
+      <c r="O164" s="17">
         <v>12413</v>
       </c>
     </row>
@@ -7420,10 +7403,10 @@
       <c r="A165" s="3">
         <v>1101</v>
       </c>
-      <c r="B165" s="36" t="s">
+      <c r="B165" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C165" s="37">
+      <c r="C165" s="39">
         <v>1009</v>
       </c>
       <c r="D165" s="3">
@@ -7512,10 +7495,10 @@
       <c r="A166" s="3">
         <v>1102</v>
       </c>
-      <c r="B166" s="36" t="s">
+      <c r="B166" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="C166" s="37">
+      <c r="C166" s="39">
         <v>1031</v>
       </c>
       <c r="D166" s="3">
@@ -7604,10 +7587,10 @@
       <c r="A167" s="3">
         <v>1103</v>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B167" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="36">
+      <c r="C167" s="38">
         <v>1033</v>
       </c>
       <c r="D167" s="3">
@@ -7696,10 +7679,10 @@
       <c r="A168" s="3">
         <v>1104</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="36">
+      <c r="C168" s="38">
         <v>1143</v>
       </c>
       <c r="D168" s="3">
@@ -7788,10 +7771,10 @@
       <c r="A169" s="3">
         <v>1105</v>
       </c>
-      <c r="B169" s="36" t="s">
+      <c r="B169" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="37">
+      <c r="C169" s="39">
         <v>1035</v>
       </c>
       <c r="D169" s="3">
@@ -7880,10 +7863,10 @@
       <c r="A170" s="3">
         <v>1106</v>
       </c>
-      <c r="B170" s="36" t="s">
+      <c r="B170" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C170" s="37">
+      <c r="C170" s="39">
         <v>1042</v>
       </c>
       <c r="D170" s="3">
@@ -7972,10 +7955,10 @@
       <c r="A171" s="3">
         <v>1107</v>
       </c>
-      <c r="B171" s="36" t="s">
+      <c r="B171" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C171" s="37">
+      <c r="C171" s="39">
         <v>1042</v>
       </c>
       <c r="D171" s="3">
@@ -7984,31 +7967,31 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" s="15">
+      <c r="F171" s="17">
         <v>12414</v>
       </c>
-      <c r="G171" s="15">
+      <c r="G171" s="17">
         <v>12415</v>
       </c>
-      <c r="H171" s="15">
+      <c r="H171" s="17">
         <v>12416</v>
       </c>
-      <c r="I171" s="15">
+      <c r="I171" s="17">
         <v>12417</v>
       </c>
-      <c r="J171" s="15">
+      <c r="J171" s="17">
         <v>12418</v>
       </c>
-      <c r="K171" s="15">
+      <c r="K171" s="17">
         <v>12419</v>
       </c>
-      <c r="L171" s="15">
+      <c r="L171" s="17">
         <v>12420</v>
       </c>
-      <c r="M171" s="15">
+      <c r="M171" s="17">
         <v>12421</v>
       </c>
-      <c r="N171" s="15">
+      <c r="N171" s="17">
         <v>12422</v>
       </c>
       <c r="O171" s="1">
@@ -8038,25 +8021,25 @@
       <c r="W171" s="1">
         <v>12596</v>
       </c>
-      <c r="X171" s="15">
+      <c r="X171" s="17">
         <v>12423</v>
       </c>
-      <c r="Y171" s="15">
+      <c r="Y171" s="17">
         <v>12424</v>
       </c>
-      <c r="Z171" s="15">
+      <c r="Z171" s="17">
         <v>12425</v>
       </c>
-      <c r="AA171" s="15">
+      <c r="AA171" s="17">
         <v>12426</v>
       </c>
-      <c r="AB171" s="15">
+      <c r="AB171" s="17">
         <v>12427</v>
       </c>
-      <c r="AC171" s="15">
+      <c r="AC171" s="17">
         <v>12428</v>
       </c>
-      <c r="AD171" s="15">
+      <c r="AD171" s="17">
         <v>12429</v>
       </c>
     </row>
@@ -8064,10 +8047,10 @@
       <c r="A172" s="3">
         <v>1108</v>
       </c>
-      <c r="B172" s="36" t="s">
+      <c r="B172" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C172" s="37">
+      <c r="C172" s="39">
         <v>1042</v>
       </c>
       <c r="D172" s="3">
@@ -8076,31 +8059,31 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" s="15">
+      <c r="F172" s="17">
         <v>12430</v>
       </c>
-      <c r="G172" s="15">
+      <c r="G172" s="17">
         <v>12431</v>
       </c>
-      <c r="H172" s="15">
+      <c r="H172" s="17">
         <v>12432</v>
       </c>
-      <c r="I172" s="15">
+      <c r="I172" s="17">
         <v>12433</v>
       </c>
-      <c r="J172" s="15">
+      <c r="J172" s="17">
         <v>12434</v>
       </c>
-      <c r="K172" s="15">
+      <c r="K172" s="17">
         <v>12435</v>
       </c>
-      <c r="L172" s="15">
+      <c r="L172" s="17">
         <v>12436</v>
       </c>
-      <c r="M172" s="15">
+      <c r="M172" s="17">
         <v>12437</v>
       </c>
-      <c r="N172" s="15">
+      <c r="N172" s="17">
         <v>12438</v>
       </c>
       <c r="O172" s="1">
@@ -8130,25 +8113,25 @@
       <c r="W172" s="1">
         <v>12605</v>
       </c>
-      <c r="X172" s="15">
+      <c r="X172" s="17">
         <v>12439</v>
       </c>
-      <c r="Y172" s="15">
+      <c r="Y172" s="17">
         <v>12440</v>
       </c>
-      <c r="Z172" s="15">
+      <c r="Z172" s="17">
         <v>12441</v>
       </c>
-      <c r="AA172" s="15">
+      <c r="AA172" s="17">
         <v>12442</v>
       </c>
-      <c r="AB172" s="15">
+      <c r="AB172" s="17">
         <v>12443</v>
       </c>
-      <c r="AC172" s="15">
+      <c r="AC172" s="17">
         <v>12444</v>
       </c>
-      <c r="AD172" s="15">
+      <c r="AD172" s="17">
         <v>12445</v>
       </c>
     </row>
@@ -8156,10 +8139,10 @@
       <c r="A173" s="3">
         <v>1109</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C173" s="37">
+      <c r="C173" s="39">
         <v>1042</v>
       </c>
       <c r="D173" s="3">
@@ -8168,31 +8151,31 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" s="15">
+      <c r="F173" s="17">
         <v>12446</v>
       </c>
-      <c r="G173" s="15">
+      <c r="G173" s="17">
         <v>12447</v>
       </c>
-      <c r="H173" s="15">
+      <c r="H173" s="17">
         <v>12448</v>
       </c>
-      <c r="I173" s="15">
+      <c r="I173" s="17">
         <v>12449</v>
       </c>
-      <c r="J173" s="15">
+      <c r="J173" s="17">
         <v>12450</v>
       </c>
-      <c r="K173" s="15">
+      <c r="K173" s="17">
         <v>12451</v>
       </c>
-      <c r="L173" s="15">
+      <c r="L173" s="17">
         <v>12452</v>
       </c>
-      <c r="M173" s="15">
+      <c r="M173" s="17">
         <v>12453</v>
       </c>
-      <c r="N173" s="15">
+      <c r="N173" s="17">
         <v>12454</v>
       </c>
       <c r="O173" s="1">
@@ -8222,25 +8205,25 @@
       <c r="W173" s="1">
         <v>12614</v>
       </c>
-      <c r="X173" s="15">
+      <c r="X173" s="17">
         <v>12455</v>
       </c>
-      <c r="Y173" s="15">
+      <c r="Y173" s="17">
         <v>12456</v>
       </c>
-      <c r="Z173" s="15">
+      <c r="Z173" s="17">
         <v>12457</v>
       </c>
-      <c r="AA173" s="15">
+      <c r="AA173" s="17">
         <v>12458</v>
       </c>
-      <c r="AB173" s="15">
+      <c r="AB173" s="17">
         <v>12459</v>
       </c>
-      <c r="AC173" s="15">
+      <c r="AC173" s="17">
         <v>12460</v>
       </c>
-      <c r="AD173" s="15">
+      <c r="AD173" s="17">
         <v>12461</v>
       </c>
     </row>
@@ -8248,10 +8231,10 @@
       <c r="A174">
         <v>1114</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C174" s="39">
+      <c r="C174" s="41">
         <v>40288</v>
       </c>
       <c r="D174">
@@ -8268,10 +8251,10 @@
       <c r="A175">
         <v>1115</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C175" s="39">
+      <c r="C175" s="41">
         <v>40290</v>
       </c>
       <c r="D175">
@@ -8288,10 +8271,10 @@
       <c r="A176">
         <v>1116</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C176" s="39">
+      <c r="C176" s="41">
         <v>40303</v>
       </c>
       <c r="D176">
@@ -8308,10 +8291,10 @@
       <c r="A177">
         <v>1117</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C177" s="39">
+      <c r="C177" s="41">
         <v>40294</v>
       </c>
       <c r="D177">
@@ -8328,10 +8311,10 @@
       <c r="A178">
         <v>1118</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C178" s="39">
+      <c r="C178" s="41">
         <v>40295</v>
       </c>
       <c r="D178">
@@ -8348,10 +8331,10 @@
       <c r="A179">
         <v>1119</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C179" s="39">
+      <c r="C179" s="41">
         <v>40289</v>
       </c>
       <c r="D179">
@@ -8368,10 +8351,10 @@
       <c r="A180">
         <v>1120</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C180" s="39">
+      <c r="C180" s="41">
         <v>40298</v>
       </c>
       <c r="D180">
@@ -8388,10 +8371,10 @@
       <c r="A181">
         <v>1121</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C181" s="39">
+      <c r="C181" s="41">
         <v>40306</v>
       </c>
       <c r="D181">
@@ -8408,10 +8391,10 @@
       <c r="A182">
         <v>1122</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C182" s="39">
+      <c r="C182" s="41">
         <v>40302</v>
       </c>
       <c r="D182">
@@ -8428,10 +8411,10 @@
       <c r="A183">
         <v>1123</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C183" s="39">
+      <c r="C183" s="41">
         <v>40281</v>
       </c>
       <c r="D183">
@@ -8448,10 +8431,10 @@
       <c r="A184">
         <v>1124</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C184" s="39">
+      <c r="C184" s="41">
         <v>40292</v>
       </c>
       <c r="D184">
@@ -8468,10 +8451,10 @@
       <c r="A185">
         <v>1125</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C185" s="39">
+      <c r="C185" s="41">
         <v>40291</v>
       </c>
       <c r="D185">
@@ -8488,10 +8471,10 @@
       <c r="A186">
         <v>1126</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="C186" s="39">
+      <c r="C186" s="41">
         <v>40299</v>
       </c>
       <c r="D186">
@@ -8508,10 +8491,10 @@
       <c r="A187">
         <v>1127</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C187" s="39">
+      <c r="C187" s="41">
         <v>40305</v>
       </c>
       <c r="D187">
@@ -8528,10 +8511,10 @@
       <c r="A188">
         <v>1128</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C188" s="39">
+      <c r="C188" s="41">
         <v>40301</v>
       </c>
       <c r="D188">
@@ -8548,10 +8531,10 @@
       <c r="A189">
         <v>1129</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C189" s="39">
+      <c r="C189" s="41">
         <v>40293</v>
       </c>
       <c r="D189">
@@ -8568,10 +8551,10 @@
       <c r="A190">
         <v>1130</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="C190" s="39">
+      <c r="C190" s="41">
         <v>40284</v>
       </c>
       <c r="D190">
@@ -8588,10 +8571,10 @@
       <c r="A191">
         <v>1131</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C191" s="39">
+      <c r="C191" s="41">
         <v>40282</v>
       </c>
       <c r="D191">
@@ -8608,7 +8591,7 @@
       <c r="A192">
         <v>1132</v>
       </c>
-      <c r="B192" s="40" t="s">
+      <c r="B192" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C192">
@@ -8628,7 +8611,7 @@
       <c r="A193">
         <v>1133</v>
       </c>
-      <c r="B193" s="43" t="s">
+      <c r="B193" s="45" t="s">
         <v>232</v>
       </c>
       <c r="C193">
@@ -8648,7 +8631,7 @@
       <c r="A194">
         <v>1134</v>
       </c>
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="45" t="s">
         <v>233</v>
       </c>
       <c r="C194">
@@ -8668,7 +8651,7 @@
       <c r="A195">
         <v>1135</v>
       </c>
-      <c r="B195" s="40" t="s">
+      <c r="B195" s="42" t="s">
         <v>234</v>
       </c>
       <c r="C195">
@@ -8688,7 +8671,7 @@
       <c r="A196">
         <v>1136</v>
       </c>
-      <c r="B196" s="40" t="s">
+      <c r="B196" s="42" t="s">
         <v>235</v>
       </c>
       <c r="C196">
@@ -8708,7 +8691,7 @@
       <c r="A197">
         <v>1137</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="42" t="s">
         <v>236</v>
       </c>
       <c r="C197">
@@ -8728,7 +8711,7 @@
       <c r="A198">
         <v>1138</v>
       </c>
-      <c r="B198" s="40" t="s">
+      <c r="B198" s="42" t="s">
         <v>237</v>
       </c>
       <c r="C198">
@@ -8748,7 +8731,7 @@
       <c r="A199">
         <v>1139</v>
       </c>
-      <c r="B199" s="44" t="s">
+      <c r="B199" s="46" t="s">
         <v>238</v>
       </c>
       <c r="C199">
@@ -8768,7 +8751,7 @@
       <c r="A200">
         <v>1140</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="46" t="s">
         <v>239</v>
       </c>
       <c r="C200">
@@ -8784,14 +8767,14 @@
         <v>12115</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:13">
+    <row r="201" ht="15.6" spans="1:13">
       <c r="A201">
         <v>1141</v>
       </c>
-      <c r="B201" s="45" t="s">
+      <c r="B201" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C201" s="46">
+      <c r="C201" s="48">
         <v>1218</v>
       </c>
       <c r="D201">
@@ -8825,14 +8808,14 @@
         <v>12123</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:13">
+    <row r="202" ht="15.6" spans="1:13">
       <c r="A202">
         <v>1142</v>
       </c>
-      <c r="B202" s="45" t="s">
+      <c r="B202" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C202" s="46">
+      <c r="C202" s="48">
         <v>1217</v>
       </c>
       <c r="D202">
@@ -8870,10 +8853,10 @@
       <c r="A203">
         <v>1143</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C203" s="47">
+      <c r="C203" s="49">
         <v>1657</v>
       </c>
       <c r="D203">
@@ -8899,10 +8882,10 @@
       <c r="A204">
         <v>1144</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C204" s="47">
+      <c r="C204" s="49">
         <v>1656</v>
       </c>
       <c r="D204">
@@ -8928,10 +8911,10 @@
       <c r="A205">
         <v>1145</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C205" s="47">
+      <c r="C205" s="49">
         <v>1666</v>
       </c>
       <c r="D205">
@@ -8957,10 +8940,10 @@
       <c r="A206">
         <v>1146</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C206" s="47">
+      <c r="C206" s="49">
         <v>1665</v>
       </c>
       <c r="D206">
@@ -8986,10 +8969,10 @@
       <c r="A207">
         <v>1147</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C207" s="47">
+      <c r="C207" s="49">
         <v>1658</v>
       </c>
       <c r="D207">
@@ -9015,10 +8998,10 @@
       <c r="A208">
         <v>1148</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C208" s="47">
+      <c r="C208" s="49">
         <v>1664</v>
       </c>
       <c r="D208">
@@ -9044,10 +9027,10 @@
       <c r="A209">
         <v>1149</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C209" s="47">
+      <c r="C209" s="49">
         <v>1661</v>
       </c>
       <c r="D209">
@@ -9073,10 +9056,10 @@
       <c r="A210">
         <v>1150</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C210" s="47">
+      <c r="C210" s="49">
         <v>1660</v>
       </c>
       <c r="D210">
@@ -9098,14 +9081,14 @@
         <v>12163</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:6">
+    <row r="211" ht="15.6" spans="1:6">
       <c r="A211">
         <v>1151</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C211" s="46">
+      <c r="C211" s="48">
         <v>1126</v>
       </c>
       <c r="D211">
@@ -9122,7 +9105,7 @@
       <c r="A212">
         <v>1152</v>
       </c>
-      <c r="B212" s="48" t="s">
+      <c r="B212" s="50" t="s">
         <v>250</v>
       </c>
       <c r="C212">
@@ -9142,7 +9125,7 @@
       <c r="A213">
         <v>1153</v>
       </c>
-      <c r="B213" s="48" t="s">
+      <c r="B213" s="50" t="s">
         <v>251</v>
       </c>
       <c r="C213">
@@ -9162,7 +9145,7 @@
       <c r="A214">
         <v>1154</v>
       </c>
-      <c r="B214" s="48" t="s">
+      <c r="B214" s="50" t="s">
         <v>252</v>
       </c>
       <c r="C214">
@@ -9182,7 +9165,7 @@
       <c r="A215">
         <v>1155</v>
       </c>
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C215">
@@ -9202,7 +9185,7 @@
       <c r="A216">
         <v>1156</v>
       </c>
-      <c r="B216" s="48" t="s">
+      <c r="B216" s="50" t="s">
         <v>254</v>
       </c>
       <c r="C216">
@@ -9222,7 +9205,7 @@
       <c r="A217">
         <v>1157</v>
       </c>
-      <c r="B217" s="48" t="s">
+      <c r="B217" s="50" t="s">
         <v>255</v>
       </c>
       <c r="C217">
@@ -9242,7 +9225,7 @@
       <c r="A218">
         <v>1158</v>
       </c>
-      <c r="B218" s="48" t="s">
+      <c r="B218" s="50" t="s">
         <v>256</v>
       </c>
       <c r="C218">
@@ -9262,7 +9245,7 @@
       <c r="A219">
         <v>1159</v>
       </c>
-      <c r="B219" s="48" t="s">
+      <c r="B219" s="50" t="s">
         <v>257</v>
       </c>
       <c r="C219">
@@ -9282,7 +9265,7 @@
       <c r="A220">
         <v>1160</v>
       </c>
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="50" t="s">
         <v>258</v>
       </c>
       <c r="C220">
@@ -9302,7 +9285,7 @@
       <c r="A221">
         <v>1161</v>
       </c>
-      <c r="B221" s="48" t="s">
+      <c r="B221" s="50" t="s">
         <v>259</v>
       </c>
       <c r="C221">
@@ -9322,7 +9305,7 @@
       <c r="A222">
         <v>1162</v>
       </c>
-      <c r="B222" s="48" t="s">
+      <c r="B222" s="50" t="s">
         <v>260</v>
       </c>
       <c r="C222">
@@ -9342,7 +9325,7 @@
       <c r="A223">
         <v>1163</v>
       </c>
-      <c r="B223" s="48" t="s">
+      <c r="B223" s="50" t="s">
         <v>261</v>
       </c>
       <c r="C223">
@@ -9362,7 +9345,7 @@
       <c r="A224">
         <v>1164</v>
       </c>
-      <c r="B224" s="48" t="s">
+      <c r="B224" s="50" t="s">
         <v>262</v>
       </c>
       <c r="C224">
@@ -9382,7 +9365,7 @@
       <c r="A225">
         <v>1165</v>
       </c>
-      <c r="B225" s="48" t="s">
+      <c r="B225" s="50" t="s">
         <v>263</v>
       </c>
       <c r="C225">
@@ -9402,7 +9385,7 @@
       <c r="A226">
         <v>1166</v>
       </c>
-      <c r="B226" s="48" t="s">
+      <c r="B226" s="50" t="s">
         <v>264</v>
       </c>
       <c r="C226">
@@ -9422,7 +9405,7 @@
       <c r="A227">
         <v>1167</v>
       </c>
-      <c r="B227" s="48" t="s">
+      <c r="B227" s="50" t="s">
         <v>265</v>
       </c>
       <c r="C227">
@@ -9442,7 +9425,7 @@
       <c r="A228">
         <v>1168</v>
       </c>
-      <c r="B228" s="48" t="s">
+      <c r="B228" s="50" t="s">
         <v>266</v>
       </c>
       <c r="C228">
@@ -9462,7 +9445,7 @@
       <c r="A229">
         <v>1169</v>
       </c>
-      <c r="B229" s="48" t="s">
+      <c r="B229" s="50" t="s">
         <v>267</v>
       </c>
       <c r="C229">
@@ -9482,7 +9465,7 @@
       <c r="A230">
         <v>1170</v>
       </c>
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="50" t="s">
         <v>268</v>
       </c>
       <c r="C230">
@@ -9502,7 +9485,7 @@
       <c r="A231">
         <v>1171</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="50" t="s">
         <v>269</v>
       </c>
       <c r="C231">
@@ -9525,7 +9508,7 @@
       <c r="B232" t="s">
         <v>270</v>
       </c>
-      <c r="C232" s="49">
+      <c r="C232" s="51">
         <v>1149</v>
       </c>
       <c r="D232">
@@ -9569,7 +9552,7 @@
       <c r="B233" t="s">
         <v>271</v>
       </c>
-      <c r="C233" s="49">
+      <c r="C233" s="51">
         <v>1148</v>
       </c>
       <c r="D233">
@@ -9613,7 +9596,7 @@
       <c r="B234" t="s">
         <v>272</v>
       </c>
-      <c r="C234" s="49">
+      <c r="C234" s="51">
         <v>1147</v>
       </c>
       <c r="D234">
@@ -9657,7 +9640,7 @@
       <c r="B235" t="s">
         <v>273</v>
       </c>
-      <c r="C235" s="49">
+      <c r="C235" s="51">
         <v>1146</v>
       </c>
       <c r="D235">
@@ -9701,7 +9684,7 @@
       <c r="B236" t="s">
         <v>274</v>
       </c>
-      <c r="C236" s="49">
+      <c r="C236" s="51">
         <v>1029</v>
       </c>
       <c r="D236">
@@ -9745,7 +9728,7 @@
       <c r="B237" t="s">
         <v>275</v>
       </c>
-      <c r="C237" s="49">
+      <c r="C237" s="51">
         <v>1028</v>
       </c>
       <c r="D237">
@@ -9789,7 +9772,7 @@
       <c r="B238" t="s">
         <v>276</v>
       </c>
-      <c r="C238" s="49">
+      <c r="C238" s="51">
         <v>1027</v>
       </c>
       <c r="D238">
@@ -9833,7 +9816,7 @@
       <c r="B239" t="s">
         <v>277</v>
       </c>
-      <c r="C239" s="49">
+      <c r="C239" s="51">
         <v>1026</v>
       </c>
       <c r="D239">
@@ -9877,7 +9860,7 @@
       <c r="B240" t="s">
         <v>278</v>
       </c>
-      <c r="C240" s="49">
+      <c r="C240" s="51">
         <v>1025</v>
       </c>
       <c r="D240">
@@ -9921,7 +9904,7 @@
       <c r="B241" t="s">
         <v>279</v>
       </c>
-      <c r="C241" s="49">
+      <c r="C241" s="51">
         <v>1149</v>
       </c>
       <c r="D241">
@@ -9965,7 +9948,7 @@
       <c r="B242" t="s">
         <v>280</v>
       </c>
-      <c r="C242" s="49">
+      <c r="C242" s="51">
         <v>1148</v>
       </c>
       <c r="D242">
@@ -10009,7 +9992,7 @@
       <c r="B243" t="s">
         <v>281</v>
       </c>
-      <c r="C243" s="49">
+      <c r="C243" s="51">
         <v>1147</v>
       </c>
       <c r="D243">
@@ -10053,7 +10036,7 @@
       <c r="B244" t="s">
         <v>282</v>
       </c>
-      <c r="C244" s="49">
+      <c r="C244" s="51">
         <v>1146</v>
       </c>
       <c r="D244">
@@ -10097,7 +10080,7 @@
       <c r="B245" t="s">
         <v>283</v>
       </c>
-      <c r="C245" s="49">
+      <c r="C245" s="51">
         <v>1029</v>
       </c>
       <c r="D245">
@@ -10141,7 +10124,7 @@
       <c r="B246" t="s">
         <v>284</v>
       </c>
-      <c r="C246" s="49">
+      <c r="C246" s="51">
         <v>1028</v>
       </c>
       <c r="D246">
@@ -10185,7 +10168,7 @@
       <c r="B247" t="s">
         <v>285</v>
       </c>
-      <c r="C247" s="49">
+      <c r="C247" s="51">
         <v>1027</v>
       </c>
       <c r="D247">
@@ -10229,7 +10212,7 @@
       <c r="B248" t="s">
         <v>286</v>
       </c>
-      <c r="C248" s="49">
+      <c r="C248" s="51">
         <v>1026</v>
       </c>
       <c r="D248">
@@ -10273,7 +10256,7 @@
       <c r="B249" t="s">
         <v>287</v>
       </c>
-      <c r="C249" s="49">
+      <c r="C249" s="51">
         <v>1025</v>
       </c>
       <c r="D249">
@@ -10317,7 +10300,7 @@
       <c r="B250" t="s">
         <v>288</v>
       </c>
-      <c r="C250" s="49">
+      <c r="C250" s="51">
         <v>1025</v>
       </c>
       <c r="D250">
@@ -10358,10 +10341,10 @@
       <c r="A251">
         <v>1191</v>
       </c>
-      <c r="B251" s="50" t="s">
+      <c r="B251" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="C251" s="51">
+      <c r="C251" s="53">
         <v>1688</v>
       </c>
       <c r="D251">
@@ -10378,10 +10361,10 @@
       <c r="A252">
         <v>1192</v>
       </c>
-      <c r="B252" s="52" t="s">
+      <c r="B252" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C252" s="51">
+      <c r="C252" s="53">
         <v>1689</v>
       </c>
       <c r="D252">
@@ -10398,10 +10381,10 @@
       <c r="A253">
         <v>1193</v>
       </c>
-      <c r="B253" s="52" t="s">
+      <c r="B253" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="C253" s="51">
+      <c r="C253" s="53">
         <v>1690</v>
       </c>
       <c r="D253">
@@ -10418,10 +10401,10 @@
       <c r="A254">
         <v>1194</v>
       </c>
-      <c r="B254" s="52" t="s">
+      <c r="B254" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="C254" s="51">
+      <c r="C254" s="53">
         <v>1691</v>
       </c>
       <c r="D254">
@@ -10438,10 +10421,10 @@
       <c r="A255">
         <v>1195</v>
       </c>
-      <c r="B255" s="52" t="s">
+      <c r="B255" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C255" s="51">
+      <c r="C255" s="53">
         <v>1692</v>
       </c>
       <c r="D255">
@@ -10458,10 +10441,10 @@
       <c r="A256">
         <v>1196</v>
       </c>
-      <c r="B256" s="52" t="s">
+      <c r="B256" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C256" s="51">
+      <c r="C256" s="53">
         <v>1693</v>
       </c>
       <c r="D256">
@@ -10478,10 +10461,10 @@
       <c r="A257">
         <v>1197</v>
       </c>
-      <c r="B257" s="52" t="s">
+      <c r="B257" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C257" s="51">
+      <c r="C257" s="53">
         <v>1694</v>
       </c>
       <c r="D257">
@@ -10498,10 +10481,10 @@
       <c r="A258">
         <v>1198</v>
       </c>
-      <c r="B258" s="52" t="s">
+      <c r="B258" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C258" s="51">
+      <c r="C258" s="53">
         <v>1695</v>
       </c>
       <c r="D258">
@@ -10518,10 +10501,10 @@
       <c r="A259">
         <v>1199</v>
       </c>
-      <c r="B259" s="52" t="s">
+      <c r="B259" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C259" s="51">
+      <c r="C259" s="53">
         <v>1696</v>
       </c>
       <c r="D259">
@@ -10538,10 +10521,10 @@
       <c r="A260">
         <v>1200</v>
       </c>
-      <c r="B260" s="52" t="s">
+      <c r="B260" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C260" s="51">
+      <c r="C260" s="53">
         <v>1697</v>
       </c>
       <c r="D260">
@@ -10558,10 +10541,10 @@
       <c r="A261">
         <v>1201</v>
       </c>
-      <c r="B261" s="52" t="s">
+      <c r="B261" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="C261" s="51">
+      <c r="C261" s="53">
         <v>1698</v>
       </c>
       <c r="D261">
@@ -10578,10 +10561,10 @@
       <c r="A262">
         <v>1202</v>
       </c>
-      <c r="B262" s="52" t="s">
+      <c r="B262" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="C262" s="51">
+      <c r="C262" s="53">
         <v>1699</v>
       </c>
       <c r="D262">
@@ -10598,10 +10581,10 @@
       <c r="A263">
         <v>1203</v>
       </c>
-      <c r="B263" s="52" t="s">
+      <c r="B263" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C263" s="51">
+      <c r="C263" s="53">
         <v>1700</v>
       </c>
       <c r="D263">
@@ -10618,10 +10601,10 @@
       <c r="A264">
         <v>1204</v>
       </c>
-      <c r="B264" s="52" t="s">
+      <c r="B264" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="C264" s="51">
+      <c r="C264" s="53">
         <v>1701</v>
       </c>
       <c r="D264">
@@ -10638,10 +10621,10 @@
       <c r="A265">
         <v>1205</v>
       </c>
-      <c r="B265" s="52" t="s">
+      <c r="B265" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C265" s="51">
+      <c r="C265" s="53">
         <v>1702</v>
       </c>
       <c r="D265">
@@ -10658,10 +10641,10 @@
       <c r="A266">
         <v>1206</v>
       </c>
-      <c r="B266" s="52" t="s">
+      <c r="B266" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="C266" s="51">
+      <c r="C266" s="53">
         <v>1703</v>
       </c>
       <c r="D266">
@@ -10678,10 +10661,10 @@
       <c r="A267">
         <v>1207</v>
       </c>
-      <c r="B267" s="52" t="s">
+      <c r="B267" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="C267" s="51">
+      <c r="C267" s="53">
         <v>1682</v>
       </c>
       <c r="D267">
@@ -10698,10 +10681,10 @@
       <c r="A268">
         <v>1208</v>
       </c>
-      <c r="B268" s="52" t="s">
+      <c r="B268" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C268" s="51">
+      <c r="C268" s="53">
         <v>1681</v>
       </c>
       <c r="D268">
@@ -10718,10 +10701,10 @@
       <c r="A269">
         <v>1209</v>
       </c>
-      <c r="B269" s="52" t="s">
+      <c r="B269" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="C269" s="51">
+      <c r="C269" s="53">
         <v>1686</v>
       </c>
       <c r="D269">
@@ -10738,10 +10721,10 @@
       <c r="A270">
         <v>1210</v>
       </c>
-      <c r="B270" s="50" t="s">
+      <c r="B270" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="C270" s="51">
+      <c r="C270" s="53">
         <v>1704</v>
       </c>
       <c r="D270">
@@ -10758,10 +10741,10 @@
       <c r="A271">
         <v>1211</v>
       </c>
-      <c r="B271" s="52" t="s">
+      <c r="B271" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C271" s="51">
+      <c r="C271" s="53">
         <v>1705</v>
       </c>
       <c r="D271">
@@ -10778,10 +10761,10 @@
       <c r="A272">
         <v>1212</v>
       </c>
-      <c r="B272" s="52" t="s">
+      <c r="B272" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="C272" s="51">
+      <c r="C272" s="53">
         <v>1706</v>
       </c>
       <c r="D272">
@@ -10798,10 +10781,10 @@
       <c r="A273">
         <v>1213</v>
       </c>
-      <c r="B273" s="52" t="s">
+      <c r="B273" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="C273" s="51">
+      <c r="C273" s="53">
         <v>1707</v>
       </c>
       <c r="D273">
@@ -10818,10 +10801,10 @@
       <c r="A274">
         <v>1214</v>
       </c>
-      <c r="B274" s="52" t="s">
+      <c r="B274" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="C274" s="51">
+      <c r="C274" s="53">
         <v>1708</v>
       </c>
       <c r="D274">
@@ -10838,10 +10821,10 @@
       <c r="A275">
         <v>1215</v>
       </c>
-      <c r="B275" s="52" t="s">
+      <c r="B275" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="C275" s="51">
+      <c r="C275" s="53">
         <v>1709</v>
       </c>
       <c r="D275">
@@ -10858,10 +10841,10 @@
       <c r="A276">
         <v>1216</v>
       </c>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C276" s="51">
+      <c r="C276" s="53">
         <v>1710</v>
       </c>
       <c r="D276">
@@ -10878,10 +10861,10 @@
       <c r="A277">
         <v>1217</v>
       </c>
-      <c r="B277" s="52" t="s">
+      <c r="B277" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="C277" s="51">
+      <c r="C277" s="53">
         <v>1711</v>
       </c>
       <c r="D277">
@@ -10898,10 +10881,10 @@
       <c r="A278">
         <v>1218</v>
       </c>
-      <c r="B278" s="52" t="s">
+      <c r="B278" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="C278" s="51">
+      <c r="C278" s="53">
         <v>1712</v>
       </c>
       <c r="D278">
@@ -10918,10 +10901,10 @@
       <c r="A279">
         <v>1219</v>
       </c>
-      <c r="B279" s="52" t="s">
+      <c r="B279" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="C279" s="51">
+      <c r="C279" s="53">
         <v>1713</v>
       </c>
       <c r="D279">
@@ -10938,10 +10921,10 @@
       <c r="A280">
         <v>1220</v>
       </c>
-      <c r="B280" s="52" t="s">
+      <c r="B280" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C280" s="51">
+      <c r="C280" s="53">
         <v>1714</v>
       </c>
       <c r="D280">
@@ -10958,10 +10941,10 @@
       <c r="A281">
         <v>1221</v>
       </c>
-      <c r="B281" s="52" t="s">
+      <c r="B281" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="C281" s="51">
+      <c r="C281" s="53">
         <v>1715</v>
       </c>
       <c r="D281">
@@ -10978,10 +10961,10 @@
       <c r="A282">
         <v>1222</v>
       </c>
-      <c r="B282" s="52" t="s">
+      <c r="B282" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C282" s="51">
+      <c r="C282" s="53">
         <v>1716</v>
       </c>
       <c r="D282">
@@ -10998,10 +10981,10 @@
       <c r="A283">
         <v>1223</v>
       </c>
-      <c r="B283" s="52" t="s">
+      <c r="B283" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C283" s="51">
+      <c r="C283" s="53">
         <v>1717</v>
       </c>
       <c r="D283">
@@ -11018,10 +11001,10 @@
       <c r="A284">
         <v>1224</v>
       </c>
-      <c r="B284" s="52" t="s">
+      <c r="B284" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="C284" s="51">
+      <c r="C284" s="53">
         <v>1718</v>
       </c>
       <c r="D284">
@@ -11038,10 +11021,10 @@
       <c r="A285">
         <v>1225</v>
       </c>
-      <c r="B285" s="52" t="s">
+      <c r="B285" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="C285" s="51">
+      <c r="C285" s="53">
         <v>1719</v>
       </c>
       <c r="D285">
@@ -11058,10 +11041,10 @@
       <c r="A286">
         <v>1226</v>
       </c>
-      <c r="B286" s="28" t="s">
+      <c r="B286" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C286" s="29">
+      <c r="C286" s="31">
         <v>1037</v>
       </c>
       <c r="D286">
@@ -11070,7 +11053,7 @@
       <c r="E286">
         <v>1</v>
       </c>
-      <c r="F286" s="15">
+      <c r="F286" s="17">
         <v>12397</v>
       </c>
     </row>
@@ -11078,10 +11061,10 @@
       <c r="A287">
         <v>1227</v>
       </c>
-      <c r="B287" s="28" t="s">
+      <c r="B287" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C287" s="27">
+      <c r="C287" s="29">
         <v>1007</v>
       </c>
       <c r="D287">
@@ -11090,7 +11073,7 @@
       <c r="E287">
         <v>1</v>
       </c>
-      <c r="F287" s="15">
+      <c r="F287" s="17">
         <v>12398</v>
       </c>
     </row>
@@ -11098,10 +11081,10 @@
       <c r="A288">
         <v>1228</v>
       </c>
-      <c r="B288" s="28" t="s">
+      <c r="B288" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C288" s="29">
+      <c r="C288" s="31">
         <v>1051</v>
       </c>
       <c r="D288">
@@ -11110,7 +11093,7 @@
       <c r="E288">
         <v>1</v>
       </c>
-      <c r="F288" s="15">
+      <c r="F288" s="17">
         <v>12399</v>
       </c>
     </row>
@@ -11118,10 +11101,10 @@
       <c r="A289">
         <v>1229</v>
       </c>
-      <c r="B289" s="28" t="s">
+      <c r="B289" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C289" s="27">
+      <c r="C289" s="29">
         <v>1062</v>
       </c>
       <c r="D289">
@@ -11130,7 +11113,7 @@
       <c r="E289">
         <v>1</v>
       </c>
-      <c r="F289" s="15">
+      <c r="F289" s="17">
         <v>12400</v>
       </c>
     </row>
@@ -11138,10 +11121,10 @@
       <c r="A290">
         <v>1230</v>
       </c>
-      <c r="B290" s="28" t="s">
+      <c r="B290" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C290" s="27">
+      <c r="C290" s="29">
         <v>1072</v>
       </c>
       <c r="D290">
@@ -11150,7 +11133,7 @@
       <c r="E290">
         <v>1</v>
       </c>
-      <c r="F290" s="15">
+      <c r="F290" s="17">
         <v>12401</v>
       </c>
     </row>
@@ -11158,10 +11141,10 @@
       <c r="A291">
         <v>1231</v>
       </c>
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C291" s="27">
+      <c r="C291" s="29">
         <v>1081</v>
       </c>
       <c r="D291">
@@ -11170,7 +11153,7 @@
       <c r="E291">
         <v>1</v>
       </c>
-      <c r="F291" s="15">
+      <c r="F291" s="17">
         <v>12402</v>
       </c>
     </row>
@@ -11178,10 +11161,10 @@
       <c r="A292">
         <v>1232</v>
       </c>
-      <c r="B292" s="28" t="s">
+      <c r="B292" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C292" s="27">
+      <c r="C292" s="29">
         <v>1152</v>
       </c>
       <c r="D292">
@@ -11190,7 +11173,7 @@
       <c r="E292">
         <v>1</v>
       </c>
-      <c r="F292" s="15">
+      <c r="F292" s="17">
         <v>12403</v>
       </c>
     </row>
@@ -11198,10 +11181,10 @@
       <c r="A293">
         <v>1233</v>
       </c>
-      <c r="B293" s="21" t="s">
+      <c r="B293" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="C293" s="22">
+      <c r="C293" s="24">
         <v>1012</v>
       </c>
       <c r="D293">
@@ -11210,7 +11193,7 @@
       <c r="E293">
         <v>1</v>
       </c>
-      <c r="F293" s="15">
+      <c r="F293" s="17">
         <v>12404</v>
       </c>
     </row>
@@ -11218,10 +11201,10 @@
       <c r="A294">
         <v>1234</v>
       </c>
-      <c r="B294" s="21" t="s">
+      <c r="B294" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="C294" s="22">
+      <c r="C294" s="24">
         <v>1017</v>
       </c>
       <c r="D294">
@@ -11230,7 +11213,7 @@
       <c r="E294">
         <v>1</v>
       </c>
-      <c r="F294" s="15">
+      <c r="F294" s="17">
         <v>12405</v>
       </c>
     </row>
@@ -11238,10 +11221,10 @@
       <c r="A295">
         <v>1235</v>
       </c>
-      <c r="B295" s="21" t="s">
+      <c r="B295" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="C295" s="22">
+      <c r="C295" s="24">
         <v>1015</v>
       </c>
       <c r="D295">
@@ -11250,7 +11233,7 @@
       <c r="E295">
         <v>1</v>
       </c>
-      <c r="F295" s="15">
+      <c r="F295" s="17">
         <v>12406</v>
       </c>
     </row>
@@ -11258,10 +11241,10 @@
       <c r="A296">
         <v>1236</v>
       </c>
-      <c r="B296" s="21" t="s">
+      <c r="B296" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C296" s="22">
+      <c r="C296" s="24">
         <v>1016</v>
       </c>
       <c r="D296">
@@ -11270,7 +11253,7 @@
       <c r="E296">
         <v>1</v>
       </c>
-      <c r="F296" s="15">
+      <c r="F296" s="17">
         <v>12407</v>
       </c>
     </row>
@@ -11278,10 +11261,10 @@
       <c r="A297">
         <v>1237</v>
       </c>
-      <c r="B297" s="21" t="s">
+      <c r="B297" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="C297" s="22">
+      <c r="C297" s="24">
         <v>1013</v>
       </c>
       <c r="D297">
@@ -11290,7 +11273,7 @@
       <c r="E297">
         <v>1</v>
       </c>
-      <c r="F297" s="15">
+      <c r="F297" s="17">
         <v>12408</v>
       </c>
     </row>
@@ -11298,10 +11281,10 @@
       <c r="A298">
         <v>1238</v>
       </c>
-      <c r="B298" s="21" t="s">
+      <c r="B298" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C298" s="22">
+      <c r="C298" s="24">
         <v>1011</v>
       </c>
       <c r="D298">
@@ -11310,7 +11293,7 @@
       <c r="E298">
         <v>1</v>
       </c>
-      <c r="F298" s="15">
+      <c r="F298" s="17">
         <v>12409</v>
       </c>
     </row>
@@ -11318,10 +11301,10 @@
       <c r="A299">
         <v>1239</v>
       </c>
-      <c r="B299" s="21" t="s">
+      <c r="B299" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C299" s="22">
+      <c r="C299" s="24">
         <v>1181</v>
       </c>
       <c r="D299">
@@ -11330,21 +11313,21 @@
       <c r="E299">
         <v>1</v>
       </c>
-      <c r="F299" s="15">
+      <c r="F299" s="17">
         <v>12410</v>
       </c>
     </row>
     <row r="300" spans="3:3">
-      <c r="C300" s="39"/>
+      <c r="C300" s="41"/>
     </row>
     <row r="301" spans="3:3">
-      <c r="C301" s="39"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="3:3">
-      <c r="C302" s="39"/>
+      <c r="C302" s="41"/>
     </row>
     <row r="303" spans="3:3">
-      <c r="C303" s="39"/>
+      <c r="C303" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
